--- a/archivos/ExcelResumenFactura.xlsx
+++ b/archivos/ExcelResumenFactura.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>archivo</t>
   </si>
@@ -112,6 +112,15 @@
     <t>13/03/2024</t>
   </si>
   <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -157,6 +166,15 @@
     <t>17.03.2024</t>
   </si>
   <si>
+    <t>29kWh</t>
+  </si>
+  <si>
+    <t>19kWh</t>
+  </si>
+  <si>
+    <t>39kWh</t>
+  </si>
+  <si>
     <t>67,79€</t>
   </si>
   <si>
@@ -191,6 +209,15 @@
   </si>
   <si>
     <t>01/10/2021</t>
+  </si>
+  <si>
+    <t>6 kWh</t>
+  </si>
+  <si>
+    <t>7 kWh</t>
+  </si>
+  <si>
+    <t>4 kWh</t>
   </si>
   <si>
     <t>1,43 €</t>
@@ -736,250 +763,253 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/ExcelResumenFactura.xlsx
+++ b/archivos/ExcelResumenFactura.xlsx
@@ -1,34 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D192174-F48F-4556-BFA1-6738DCCB63E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Resumen" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1815">
   <si>
     <t>Factura</t>
   </si>
@@ -3711,6 +3694,9 @@
     <t>naturgy_Factura_FE24321461336989.pdf</t>
   </si>
   <si>
+    <t>ES0021000012037708SB</t>
+  </si>
+  <si>
     <t>20.03.2024</t>
   </si>
   <si>
@@ -3750,6 +3736,9 @@
     <t>naturgy_Factura_FE24321461336990.pdf</t>
   </si>
   <si>
+    <t>ES0021000021443546RE</t>
+  </si>
+  <si>
     <t>FE24321461336990</t>
   </si>
   <si>
@@ -3765,6 +3754,9 @@
     <t>naturgy_Factura_FE24321461336996.pdf</t>
   </si>
   <si>
+    <t>ES0021000013582155MP</t>
+  </si>
+  <si>
     <t>FE24321461336996</t>
   </si>
   <si>
@@ -3801,6 +3793,9 @@
     <t>naturgy_Factura_FE24321461336997.pdf</t>
   </si>
   <si>
+    <t>ES0031101579349001GP0F</t>
+  </si>
+  <si>
     <t>FE24321461336997</t>
   </si>
   <si>
@@ -3828,6 +3823,9 @@
     <t>naturgy_Factura_FE24321461336998.pdf</t>
   </si>
   <si>
+    <t>ES0031104876358001PV0F</t>
+  </si>
+  <si>
     <t>FE24321461336998</t>
   </si>
   <si>
@@ -3864,6 +3862,9 @@
     <t>naturgy_Factura_FE24321461336999.pdf</t>
   </si>
   <si>
+    <t>ES0031104752733001QV0F</t>
+  </si>
+  <si>
     <t>FE24321461336999</t>
   </si>
   <si>
@@ -3897,6 +3898,9 @@
     <t>naturgy_Factura_FE24321461337002.pdf</t>
   </si>
   <si>
+    <t>ES0031101699135002VP0F</t>
+  </si>
+  <si>
     <t>FE24321461337002</t>
   </si>
   <si>
@@ -3927,6 +3931,9 @@
     <t>naturgy_Factura_FE24321461657236.pdf</t>
   </si>
   <si>
+    <t>ES0031101571816002WS0F</t>
+  </si>
+  <si>
     <t>22.03.2024</t>
   </si>
   <si>
@@ -3966,6 +3973,9 @@
     <t>naturgy_Factura_FE24321461657237.pdf</t>
   </si>
   <si>
+    <t>ES0031101597482001RS0F</t>
+  </si>
+  <si>
     <t>FE24321461657237</t>
   </si>
   <si>
@@ -3999,6 +4009,9 @@
     <t>naturgy_Factura_FE24321461657238.pdf</t>
   </si>
   <si>
+    <t>ES0031104667995001XC0</t>
+  </si>
+  <si>
     <t>FE24321461657238</t>
   </si>
   <si>
@@ -4029,6 +4042,9 @@
     <t>naturgy_Factura_FE24321461657243.pdf</t>
   </si>
   <si>
+    <t>ES0021000011758295BW</t>
+  </si>
+  <si>
     <t>FE24321461657243</t>
   </si>
   <si>
@@ -4062,6 +4078,9 @@
     <t>naturgy_Factura_FE24321461657245.pdf</t>
   </si>
   <si>
+    <t>ES0031101584874009XW0F</t>
+  </si>
+  <si>
     <t>FE24321461657245</t>
   </si>
   <si>
@@ -4095,6 +4114,9 @@
     <t>naturgy_Factura_FE24321461657246.pdf</t>
   </si>
   <si>
+    <t>ES0022000008403639MR1P</t>
+  </si>
+  <si>
     <t>FE24321461657246</t>
   </si>
   <si>
@@ -4131,6 +4153,9 @@
     <t>naturgy_Factura_FE24321461657263.pdf</t>
   </si>
   <si>
+    <t>ES0021000004282318GZ</t>
+  </si>
+  <si>
     <t>FE24321461657263</t>
   </si>
   <si>
@@ -4365,15 +4390,15 @@
     <t>2.274,08</t>
   </si>
   <si>
+    <t>30,00</t>
+  </si>
+  <si>
     <t>64,85</t>
   </si>
   <si>
     <t>27,57</t>
   </si>
   <si>
-    <t>30,00</t>
-  </si>
-  <si>
     <t>nexus_91F85ADBB83B1EDEB8BFF841AFF21345_20240314_1_1.PDF</t>
   </si>
   <si>
@@ -4506,12 +4531,12 @@
     <t>53,13</t>
   </si>
   <si>
+    <t>0,58</t>
+  </si>
+  <si>
     <t>1,61</t>
   </si>
   <si>
-    <t>0,58</t>
-  </si>
-  <si>
     <t>124</t>
   </si>
   <si>
@@ -4560,6 +4585,9 @@
     <t>39,02</t>
   </si>
   <si>
+    <t>0,38</t>
+  </si>
+  <si>
     <t>1,24</t>
   </si>
   <si>
@@ -4620,15 +4648,60 @@
     <t>9,29</t>
   </si>
   <si>
+    <t>repsol_--2343214132.pdf</t>
+  </si>
+  <si>
+    <t>ES0022000008848296VE1P</t>
+  </si>
+  <si>
+    <t>05.04.2024</t>
+  </si>
+  <si>
+    <t>61044928630</t>
+  </si>
+  <si>
+    <t>78,30</t>
+  </si>
+  <si>
+    <t>FABIUS ENERGY SL</t>
+  </si>
+  <si>
+    <t>1,79</t>
+  </si>
+  <si>
+    <t>1,437</t>
+  </si>
+  <si>
+    <t>1,453</t>
+  </si>
+  <si>
+    <t>1,039</t>
+  </si>
+  <si>
+    <t>-12.469</t>
+  </si>
+  <si>
+    <t>-36.583</t>
+  </si>
+  <si>
+    <t>-13.248</t>
+  </si>
+  <si>
+    <t>12.532</t>
+  </si>
+  <si>
+    <t>36.633</t>
+  </si>
+  <si>
+    <t>13.579</t>
+  </si>
+  <si>
     <t>repsol_08fd5a33ec3c05f21f4d462b9e52c6ac.pdf</t>
   </si>
   <si>
     <t>ES0031104153377002ZY0F</t>
   </si>
   <si>
-    <t>2.0TD     Segmento de cargos: 1</t>
-  </si>
-  <si>
     <t>10.11.2023</t>
   </si>
   <si>
@@ -4638,16 +4711,19 @@
     <t>132,58</t>
   </si>
   <si>
-    <t>FABIUS ENERGY SL</t>
-  </si>
-  <si>
-    <t>205 kWh</t>
-  </si>
-  <si>
-    <t>193 kWh</t>
-  </si>
-  <si>
-    <t>341 kWh</t>
+    <t>205</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>6,796</t>
+  </si>
+  <si>
+    <t>6,460</t>
+  </si>
+  <si>
+    <t>5,75</t>
   </si>
   <si>
     <t>repsol_0bbd8f3431fa409322a944d79de3c8c1.pdf</t>
@@ -4665,13 +4741,16 @@
     <t>31,77</t>
   </si>
   <si>
-    <t>37 kWh</t>
-  </si>
-  <si>
-    <t>36 kWh</t>
-  </si>
-  <si>
-    <t>104 kWh</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>6,411</t>
+  </si>
+  <si>
+    <t>6,621</t>
+  </si>
+  <si>
+    <t>5,5</t>
   </si>
   <si>
     <t>-7.396</t>
@@ -4704,6 +4783,15 @@
     <t>177,38</t>
   </si>
   <si>
+    <t>4,356</t>
+  </si>
+  <si>
+    <t>4,580</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
     <t>-5.511</t>
   </si>
   <si>
@@ -4734,13 +4822,16 @@
     <t>66,15</t>
   </si>
   <si>
-    <t>106 kWh</t>
-  </si>
-  <si>
-    <t>55 kWh</t>
-  </si>
-  <si>
-    <t>109 kWh</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>2,360</t>
+  </si>
+  <si>
+    <t>2,340</t>
   </si>
   <si>
     <t>repsol_1e05fccc5e2c751f5ecd639dc47b9307.pdf</t>
@@ -4755,13 +4846,16 @@
     <t>78,72</t>
   </si>
   <si>
-    <t>92 kWh</t>
-  </si>
-  <si>
-    <t>73 kWh</t>
-  </si>
-  <si>
-    <t>129 kWh</t>
+    <t>129</t>
+  </si>
+  <si>
+    <t>5,760</t>
+  </si>
+  <si>
+    <t>4,776</t>
+  </si>
+  <si>
+    <t>7,7</t>
   </si>
   <si>
     <t>repsol_1e9a0d696ba8b760ed763ac843277887.pdf</t>
@@ -4776,13 +4870,22 @@
     <t>119,89</t>
   </si>
   <si>
-    <t>239 kWh</t>
-  </si>
-  <si>
-    <t>204 kWh</t>
-  </si>
-  <si>
-    <t>114 kWh</t>
+    <t>239</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>14,228</t>
+  </si>
+  <si>
+    <t>3,912</t>
+  </si>
+  <si>
+    <t>9,8</t>
   </si>
   <si>
     <t>-59.298</t>
@@ -4815,13 +4918,13 @@
     <t>59,54</t>
   </si>
   <si>
-    <t>63 kWh</t>
-  </si>
-  <si>
-    <t>58 kWh</t>
-  </si>
-  <si>
-    <t>65 kWh</t>
+    <t>1,204</t>
+  </si>
+  <si>
+    <t>0,648</t>
+  </si>
+  <si>
+    <t>8,228</t>
   </si>
   <si>
     <t>-16.020</t>
@@ -4851,13 +4954,13 @@
     <t>16,31</t>
   </si>
   <si>
-    <t>15 kWh</t>
-  </si>
-  <si>
-    <t>12 kWh</t>
-  </si>
-  <si>
-    <t>39 kWh</t>
+    <t>2,044</t>
+  </si>
+  <si>
+    <t>2,676</t>
+  </si>
+  <si>
+    <t>3,45</t>
   </si>
   <si>
     <t>repsol_2fa791edfe2e0e478e569b40645ac7a0.pdf</t>
@@ -4869,13 +4972,16 @@
     <t>39,94</t>
   </si>
   <si>
-    <t>45 kWh</t>
-  </si>
-  <si>
-    <t>38 kWh</t>
-  </si>
-  <si>
-    <t>62 kWh</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2,474</t>
+  </si>
+  <si>
+    <t>1,536</t>
+  </si>
+  <si>
+    <t>4,6</t>
   </si>
   <si>
     <t>repsol_3ba7c960efb0fbc054d920b3611ef87f.pdf</t>
@@ -4890,13 +4996,19 @@
     <t>56,23</t>
   </si>
   <si>
-    <t>76 kWh</t>
-  </si>
-  <si>
-    <t>81 kWh</t>
-  </si>
-  <si>
-    <t>149 kWh</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>5,768</t>
+  </si>
+  <si>
+    <t>4,516</t>
+  </si>
+  <si>
+    <t>2,3</t>
   </si>
   <si>
     <t>-2.821</t>
@@ -4926,10 +5038,10 @@
     <t>61039236488</t>
   </si>
   <si>
-    <t>2 kWh</t>
-  </si>
-  <si>
-    <t>5 kWh</t>
+    <t>0,060</t>
+  </si>
+  <si>
+    <t>0,012</t>
   </si>
   <si>
     <t>repsol_4ba5a5a2e219c94a520236001a0ef32a.pdf</t>
@@ -4944,7 +5056,10 @@
     <t>62,64</t>
   </si>
   <si>
-    <t>49 kWh</t>
+    <t>5,012</t>
+  </si>
+  <si>
+    <t>4,608</t>
   </si>
   <si>
     <t>repsol_4f94cd3f5b43261d981b05b41ae0c1b6.pdf</t>
@@ -4959,13 +5074,13 @@
     <t>-3,66</t>
   </si>
   <si>
-    <t>-3 kWh</t>
-  </si>
-  <si>
-    <t>-2 kWh</t>
-  </si>
-  <si>
-    <t>-5 kWh</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-5</t>
   </si>
   <si>
     <t>-33.019</t>
@@ -4995,10 +5110,13 @@
     <t>48,04</t>
   </si>
   <si>
-    <t>85 kWh</t>
-  </si>
-  <si>
-    <t>143 kWh</t>
+    <t>143</t>
+  </si>
+  <si>
+    <t>3,443</t>
+  </si>
+  <si>
+    <t>3,137</t>
   </si>
   <si>
     <t>-33.299</t>
@@ -5031,13 +5149,19 @@
     <t>185,15</t>
   </si>
   <si>
-    <t>181 kWh</t>
-  </si>
-  <si>
-    <t>172 kWh</t>
-  </si>
-  <si>
-    <t>405 kWh</t>
+    <t>172</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>3,092</t>
+  </si>
+  <si>
+    <t>3,172</t>
+  </si>
+  <si>
+    <t>10,392</t>
   </si>
   <si>
     <t>-40.962</t>
@@ -5073,7 +5197,13 @@
     <t>35,41</t>
   </si>
   <si>
-    <t>0 kWh</t>
+    <t>0,380</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>9,9</t>
   </si>
   <si>
     <t>-24</t>
@@ -5097,10 +5227,13 @@
     <t>68,68</t>
   </si>
   <si>
-    <t>86 kWh</t>
-  </si>
-  <si>
-    <t>152 kWh</t>
+    <t>152</t>
+  </si>
+  <si>
+    <t>3,628</t>
+  </si>
+  <si>
+    <t>3,256</t>
   </si>
   <si>
     <t>repsol_6bac4a04401cc82b6c7756647473816f.pdf</t>
@@ -5115,10 +5248,13 @@
     <t>83,54</t>
   </si>
   <si>
-    <t>35 kWh</t>
-  </si>
-  <si>
-    <t>90 kWh</t>
+    <t>1,388</t>
+  </si>
+  <si>
+    <t>2,256</t>
+  </si>
+  <si>
+    <t>10,35</t>
   </si>
   <si>
     <t>-8.959</t>
@@ -5151,13 +5287,13 @@
     <t>63,71</t>
   </si>
   <si>
-    <t>137 kWh</t>
-  </si>
-  <si>
-    <t>61 kWh</t>
-  </si>
-  <si>
-    <t>128 kWh</t>
+    <t>2,216</t>
+  </si>
+  <si>
+    <t>1,584</t>
+  </si>
+  <si>
+    <t>3,464</t>
   </si>
   <si>
     <t>-4.380</t>
@@ -5190,13 +5326,13 @@
     <t>56,77</t>
   </si>
   <si>
-    <t>60 kWh</t>
-  </si>
-  <si>
-    <t>47 kWh</t>
-  </si>
-  <si>
-    <t>148 kWh</t>
+    <t>148</t>
+  </si>
+  <si>
+    <t>5,284</t>
+  </si>
+  <si>
+    <t>5,156</t>
   </si>
   <si>
     <t>repsol_7df064b658a093f92d5fd707c66a92c4.pdf</t>
@@ -5211,10 +5347,10 @@
     <t>67,69</t>
   </si>
   <si>
-    <t>48 kWh</t>
-  </si>
-  <si>
-    <t>98 kWh</t>
+    <t>1,063</t>
+  </si>
+  <si>
+    <t>0,826</t>
   </si>
   <si>
     <t>-9.171</t>
@@ -5256,10 +5392,16 @@
     <t>156,51</t>
   </si>
   <si>
-    <t>138 kWh</t>
-  </si>
-  <si>
-    <t>253 kWh</t>
+    <t>253</t>
+  </si>
+  <si>
+    <t>10,360</t>
+  </si>
+  <si>
+    <t>8,080</t>
+  </si>
+  <si>
+    <t>13,2</t>
   </si>
   <si>
     <t>-14.304</t>
@@ -5289,13 +5431,13 @@
     <t>85,26</t>
   </si>
   <si>
-    <t>210 kWh</t>
-  </si>
-  <si>
-    <t>117 kWh</t>
-  </si>
-  <si>
-    <t>97 kWh</t>
+    <t>210</t>
+  </si>
+  <si>
+    <t>6,386</t>
+  </si>
+  <si>
+    <t>3,814</t>
   </si>
   <si>
     <t>-28.739</t>
@@ -5319,14 +5461,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5689,16 +5831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CL132"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CM133"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5970,7 +6107,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -6008,8 +6145,7 @@
         <v>101</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S33" si="0">W2+X2+Y2+Z2+AA2+AB2+AC2</f>
-        <v>76.92</v>
+        <f>W2+X2+Y2+Z2+AA2+AB2+AC2</f>
       </c>
       <c r="T2" t="s">
         <v>102</v>
@@ -6054,7 +6190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -6092,8 +6228,7 @@
         <v>101</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
-        <v>114.55</v>
+        <f>W3+X3+Y3+Z3+AA3+AB3+AC3</f>
       </c>
       <c r="T3" t="s">
         <v>120</v>
@@ -6141,7 +6276,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -6179,8 +6314,7 @@
         <v>101</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
-        <v>144.75</v>
+        <f>W4+X4+Y4+Z4+AA4+AB4+AC4</f>
       </c>
       <c r="T4" t="s">
         <v>140</v>
@@ -6228,7 +6362,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -6266,8 +6400,7 @@
         <v>101</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
+        <f>W5+X5+Y5+Z5+AA5+AB5+AC5</f>
       </c>
       <c r="T5" t="s">
         <v>159</v>
@@ -6309,7 +6442,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -6347,8 +6480,7 @@
         <v>101</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
-        <v>100.53</v>
+        <f>W6+X6+Y6+Z6+AA6+AB6+AC6</f>
       </c>
       <c r="T6" t="s">
         <v>168</v>
@@ -6393,7 +6525,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -6431,8 +6563,7 @@
         <v>101</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
-        <v>19.64</v>
+        <f>W7+X7+Y7+Z7+AA7+AB7+AC7</f>
       </c>
       <c r="T7" t="s">
         <v>187</v>
@@ -6480,7 +6611,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -6518,8 +6649,7 @@
         <v>101</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
-        <v>398.73</v>
+        <f>W8+X8+Y8+Z8+AA8+AB8+AC8</f>
       </c>
       <c r="T8" t="s">
         <v>204</v>
@@ -6567,7 +6697,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -6605,8 +6735,7 @@
         <v>101</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
-        <v>127.82</v>
+        <f>W9+X9+Y9+Z9+AA9+AB9+AC9</f>
       </c>
       <c r="T9" t="s">
         <v>221</v>
@@ -6651,7 +6780,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -6689,8 +6818,7 @@
         <v>101</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
-        <v>44.14</v>
+        <f>W10+X10+Y10+Z10+AA10+AB10+AC10</f>
       </c>
       <c r="T10" t="s">
         <v>239</v>
@@ -6738,7 +6866,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -6776,8 +6904,7 @@
         <v>101</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
-        <v>150.80000000000001</v>
+        <f>W11+X11+Y11+Z11+AA11+AB11+AC11</f>
       </c>
       <c r="T11" t="s">
         <v>258</v>
@@ -6825,7 +6952,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>272</v>
       </c>
@@ -6863,8 +6990,7 @@
         <v>101</v>
       </c>
       <c r="S12">
-        <f t="shared" si="0"/>
-        <v>183.33999999999997</v>
+        <f>W12+X12+Y12+Z12+AA12+AB12+AC12</f>
       </c>
       <c r="T12" t="s">
         <v>276</v>
@@ -6909,7 +7035,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>288</v>
       </c>
@@ -6947,8 +7073,7 @@
         <v>101</v>
       </c>
       <c r="S13">
-        <f t="shared" si="0"/>
-        <v>1.8599999999999999</v>
+        <f>W13+X13+Y13+Z13+AA13+AB13+AC13</f>
       </c>
       <c r="T13" t="s">
         <v>293</v>
@@ -6996,7 +7121,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>303</v>
       </c>
@@ -7034,8 +7159,7 @@
         <v>101</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f>W14+X14+Y14+Z14+AA14+AB14+AC14</f>
       </c>
       <c r="T14" t="s">
         <v>309</v>
@@ -7083,7 +7207,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>319</v>
       </c>
@@ -7121,8 +7245,7 @@
         <v>101</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
-        <v>3.65</v>
+        <f>W15+X15+Y15+Z15+AA15+AB15+AC15</f>
       </c>
       <c r="T15" t="s">
         <v>323</v>
@@ -7170,7 +7293,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>335</v>
       </c>
@@ -7208,8 +7331,7 @@
         <v>101</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
-        <v>20.41</v>
+        <f>W16+X16+Y16+Z16+AA16+AB16+AC16</f>
       </c>
       <c r="T16" t="s">
         <v>339</v>
@@ -7257,7 +7379,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>351</v>
       </c>
@@ -7295,8 +7417,7 @@
         <v>101</v>
       </c>
       <c r="S17">
-        <f t="shared" si="0"/>
-        <v>84.97</v>
+        <f>W17+X17+Y17+Z17+AA17+AB17+AC17</f>
       </c>
       <c r="T17" t="s">
         <v>355</v>
@@ -7344,7 +7465,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>367</v>
       </c>
@@ -7382,8 +7503,7 @@
         <v>101</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
-        <v>39.239999999999995</v>
+        <f>W18+X18+Y18+Z18+AA18+AB18+AC18</f>
       </c>
       <c r="T18" t="s">
         <v>371</v>
@@ -7431,7 +7551,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>384</v>
       </c>
@@ -7469,8 +7589,7 @@
         <v>101</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
-        <v>68.88</v>
+        <f>W19+X19+Y19+Z19+AA19+AB19+AC19</f>
       </c>
       <c r="T19" t="s">
         <v>388</v>
@@ -7518,7 +7637,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>399</v>
       </c>
@@ -7556,8 +7675,7 @@
         <v>101</v>
       </c>
       <c r="S20">
-        <f t="shared" si="0"/>
-        <v>775.56</v>
+        <f>W20+X20+Y20+Z20+AA20+AB20+AC20</f>
       </c>
       <c r="T20" t="s">
         <v>404</v>
@@ -7605,7 +7723,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>418</v>
       </c>
@@ -7643,8 +7761,7 @@
         <v>101</v>
       </c>
       <c r="S21">
-        <f t="shared" si="0"/>
-        <v>3.1799999999999997</v>
+        <f>W21+X21+Y21+Z21+AA21+AB21+AC21</f>
       </c>
       <c r="T21" t="s">
         <v>423</v>
@@ -7689,7 +7806,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>430</v>
       </c>
@@ -7727,8 +7844,7 @@
         <v>101</v>
       </c>
       <c r="S22">
-        <f t="shared" si="0"/>
-        <v>477.57</v>
+        <f>W22+X22+Y22+Z22+AA22+AB22+AC22</f>
       </c>
       <c r="T22" t="s">
         <v>434</v>
@@ -7776,7 +7892,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>447</v>
       </c>
@@ -7814,8 +7930,7 @@
         <v>101</v>
       </c>
       <c r="S23">
-        <f t="shared" si="0"/>
-        <v>165.19</v>
+        <f>W23+X23+Y23+Z23+AA23+AB23+AC23</f>
       </c>
       <c r="T23" t="s">
         <v>451</v>
@@ -7863,7 +7978,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>463</v>
       </c>
@@ -7901,8 +8016,7 @@
         <v>101</v>
       </c>
       <c r="S24">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
+        <f>W24+X24+Y24+Z24+AA24+AB24+AC24</f>
       </c>
       <c r="T24" t="s">
         <v>468</v>
@@ -7950,7 +8064,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>481</v>
       </c>
@@ -7988,8 +8102,7 @@
         <v>101</v>
       </c>
       <c r="S25">
-        <f t="shared" si="0"/>
-        <v>50.28</v>
+        <f>W25+X25+Y25+Z25+AA25+AB25+AC25</f>
       </c>
       <c r="T25" t="s">
         <v>485</v>
@@ -8037,7 +8150,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>497</v>
       </c>
@@ -8075,8 +8188,7 @@
         <v>101</v>
       </c>
       <c r="S26">
-        <f t="shared" si="0"/>
-        <v>19.229999999999997</v>
+        <f>W26+X26+Y26+Z26+AA26+AB26+AC26</f>
       </c>
       <c r="T26" t="s">
         <v>501</v>
@@ -8121,7 +8233,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>512</v>
       </c>
@@ -8159,8 +8271,7 @@
         <v>101</v>
       </c>
       <c r="S27">
-        <f t="shared" si="0"/>
-        <v>115.71000000000001</v>
+        <f>W27+X27+Y27+Z27+AA27+AB27+AC27</f>
       </c>
       <c r="T27" t="s">
         <v>517</v>
@@ -8205,7 +8316,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>528</v>
       </c>
@@ -8243,8 +8354,7 @@
         <v>101</v>
       </c>
       <c r="S28">
-        <f t="shared" si="0"/>
-        <v>64.87</v>
+        <f>W28+X28+Y28+Z28+AA28+AB28+AC28</f>
       </c>
       <c r="T28" t="s">
         <v>532</v>
@@ -8292,7 +8402,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>545</v>
       </c>
@@ -8330,8 +8440,7 @@
         <v>101</v>
       </c>
       <c r="S29">
-        <f t="shared" si="0"/>
-        <v>28.25</v>
+        <f>W29+X29+Y29+Z29+AA29+AB29+AC29</f>
       </c>
       <c r="T29" t="s">
         <v>550</v>
@@ -8376,7 +8485,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>561</v>
       </c>
@@ -8414,8 +8523,7 @@
         <v>101</v>
       </c>
       <c r="S30">
-        <f t="shared" si="0"/>
-        <v>83.13</v>
+        <f>W30+X30+Y30+Z30+AA30+AB30+AC30</f>
       </c>
       <c r="T30" t="s">
         <v>565</v>
@@ -8463,7 +8571,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>578</v>
       </c>
@@ -8501,8 +8609,7 @@
         <v>101</v>
       </c>
       <c r="S31">
-        <f t="shared" si="0"/>
-        <v>335.65999999999997</v>
+        <f>W31+X31+Y31+Z31+AA31+AB31+AC31</f>
       </c>
       <c r="T31" t="s">
         <v>584</v>
@@ -8550,7 +8657,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>596</v>
       </c>
@@ -8588,8 +8695,7 @@
         <v>101</v>
       </c>
       <c r="S32">
-        <f t="shared" si="0"/>
-        <v>11.059999999999999</v>
+        <f>W32+X32+Y32+Z32+AA32+AB32+AC32</f>
       </c>
       <c r="T32" t="s">
         <v>600</v>
@@ -8637,7 +8743,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>605</v>
       </c>
@@ -8675,8 +8781,7 @@
         <v>101</v>
       </c>
       <c r="S33">
-        <f t="shared" si="0"/>
-        <v>24.28</v>
+        <f>W33+X33+Y33+Z33+AA33+AB33+AC33</f>
       </c>
       <c r="T33" t="s">
         <v>609</v>
@@ -8724,7 +8829,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>614</v>
       </c>
@@ -8762,8 +8867,7 @@
         <v>101</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34:S65" si="1">W34+X34+Y34+Z34+AA34+AB34+AC34</f>
-        <v>222.26999999999998</v>
+        <f>W34+X34+Y34+Z34+AA34+AB34+AC34</f>
       </c>
       <c r="T34" t="s">
         <v>619</v>
@@ -8808,7 +8912,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>630</v>
       </c>
@@ -8843,8 +8947,7 @@
         <v>634</v>
       </c>
       <c r="S35">
-        <f t="shared" si="1"/>
-        <v>21.47</v>
+        <f>W35+X35+Y35+Z35+AA35+AB35+AC35</f>
       </c>
       <c r="T35" t="s">
         <v>635</v>
@@ -8889,7 +8992,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>649</v>
       </c>
@@ -8927,8 +9030,7 @@
         <v>101</v>
       </c>
       <c r="S36">
-        <f t="shared" si="1"/>
-        <v>194.10000000000002</v>
+        <f>W36+X36+Y36+Z36+AA36+AB36+AC36</f>
       </c>
       <c r="T36" t="s">
         <v>653</v>
@@ -8976,7 +9078,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>665</v>
       </c>
@@ -9014,8 +9116,7 @@
         <v>101</v>
       </c>
       <c r="S37">
-        <f t="shared" si="1"/>
-        <v>75.62</v>
+        <f>W37+X37+Y37+Z37+AA37+AB37+AC37</f>
       </c>
       <c r="T37" t="s">
         <v>669</v>
@@ -9063,7 +9164,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>680</v>
       </c>
@@ -9101,8 +9202,7 @@
         <v>101</v>
       </c>
       <c r="S38">
-        <f t="shared" si="1"/>
-        <v>32.510000000000005</v>
+        <f>W38+X38+Y38+Z38+AA38+AB38+AC38</f>
       </c>
       <c r="T38" t="s">
         <v>684</v>
@@ -9150,7 +9250,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>697</v>
       </c>
@@ -9188,8 +9288,7 @@
         <v>101</v>
       </c>
       <c r="S39">
-        <f t="shared" si="1"/>
-        <v>20.93</v>
+        <f>W39+X39+Y39+Z39+AA39+AB39+AC39</f>
       </c>
       <c r="T39" t="s">
         <v>702</v>
@@ -9237,7 +9336,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>711</v>
       </c>
@@ -9275,8 +9374,7 @@
         <v>101</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
+        <f>W40+X40+Y40+Z40+AA40+AB40+AC40</f>
       </c>
       <c r="T40" t="s">
         <v>715</v>
@@ -9318,7 +9416,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>718</v>
       </c>
@@ -9356,8 +9454,7 @@
         <v>101</v>
       </c>
       <c r="S41">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
+        <f>W41+X41+Y41+Z41+AA41+AB41+AC41</f>
       </c>
       <c r="T41" t="s">
         <v>687</v>
@@ -9405,7 +9502,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>726</v>
       </c>
@@ -9443,8 +9540,7 @@
         <v>101</v>
       </c>
       <c r="S42">
-        <f t="shared" si="1"/>
-        <v>20.88</v>
+        <f>W42+X42+Y42+Z42+AA42+AB42+AC42</f>
       </c>
       <c r="T42" t="s">
         <v>730</v>
@@ -9492,7 +9588,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>734</v>
       </c>
@@ -9530,8 +9626,7 @@
         <v>101</v>
       </c>
       <c r="S43">
-        <f t="shared" si="1"/>
-        <v>2.57</v>
+        <f>W43+X43+Y43+Z43+AA43+AB43+AC43</f>
       </c>
       <c r="T43" t="s">
         <v>738</v>
@@ -9579,7 +9674,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>748</v>
       </c>
@@ -9617,8 +9712,7 @@
         <v>101</v>
       </c>
       <c r="S44">
-        <f t="shared" si="1"/>
-        <v>56.95</v>
+        <f>W44+X44+Y44+Z44+AA44+AB44+AC44</f>
       </c>
       <c r="T44" t="s">
         <v>752</v>
@@ -9666,7 +9760,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>761</v>
       </c>
@@ -9704,8 +9798,7 @@
         <v>101</v>
       </c>
       <c r="S45">
-        <f t="shared" si="1"/>
-        <v>38.53</v>
+        <f>W45+X45+Y45+Z45+AA45+AB45+AC45</f>
       </c>
       <c r="T45" t="s">
         <v>765</v>
@@ -9750,7 +9843,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>775</v>
       </c>
@@ -9788,8 +9881,7 @@
         <v>101</v>
       </c>
       <c r="S46">
-        <f t="shared" si="1"/>
-        <v>25.15</v>
+        <f>W46+X46+Y46+Z46+AA46+AB46+AC46</f>
       </c>
       <c r="T46" t="s">
         <v>780</v>
@@ -9837,7 +9929,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>793</v>
       </c>
@@ -9875,8 +9967,7 @@
         <v>101</v>
       </c>
       <c r="S47">
-        <f t="shared" si="1"/>
-        <v>529.88</v>
+        <f>W47+X47+Y47+Z47+AA47+AB47+AC47</f>
       </c>
       <c r="T47" t="s">
         <v>797</v>
@@ -9924,7 +10015,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>809</v>
       </c>
@@ -9962,8 +10053,7 @@
         <v>101</v>
       </c>
       <c r="S48">
-        <f t="shared" si="1"/>
-        <v>2.2299999999999995</v>
+        <f>W48+X48+Y48+Z48+AA48+AB48+AC48</f>
       </c>
       <c r="T48" t="s">
         <v>813</v>
@@ -10011,7 +10101,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>817</v>
       </c>
@@ -10049,8 +10139,7 @@
         <v>101</v>
       </c>
       <c r="S49">
-        <f t="shared" si="1"/>
-        <v>3.9000000000000004</v>
+        <f>W49+X49+Y49+Z49+AA49+AB49+AC49</f>
       </c>
       <c r="T49" t="s">
         <v>821</v>
@@ -10098,7 +10187,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>824</v>
       </c>
@@ -10136,8 +10225,7 @@
         <v>101</v>
       </c>
       <c r="S50">
-        <f t="shared" si="1"/>
-        <v>5.67</v>
+        <f>W50+X50+Y50+Z50+AA50+AB50+AC50</f>
       </c>
       <c r="T50" t="s">
         <v>828</v>
@@ -10185,7 +10273,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>830</v>
       </c>
@@ -10223,8 +10311,7 @@
         <v>101</v>
       </c>
       <c r="S51">
-        <f t="shared" si="1"/>
-        <v>-0.4</v>
+        <f>W51+X51+Y51+Z51+AA51+AB51+AC51</f>
       </c>
       <c r="T51" t="s">
         <v>295</v>
@@ -10269,7 +10356,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>840</v>
       </c>
@@ -10307,8 +10394,7 @@
         <v>101</v>
       </c>
       <c r="S52">
-        <f t="shared" si="1"/>
-        <v>81.17</v>
+        <f>W52+X52+Y52+Z52+AA52+AB52+AC52</f>
       </c>
       <c r="T52" t="s">
         <v>844</v>
@@ -10356,7 +10442,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>850</v>
       </c>
@@ -10394,8 +10480,7 @@
         <v>101</v>
       </c>
       <c r="S53">
-        <f t="shared" si="1"/>
-        <v>149.65</v>
+        <f>W53+X53+Y53+Z53+AA53+AB53+AC53</f>
       </c>
       <c r="T53" t="s">
         <v>854</v>
@@ -10443,7 +10528,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>860</v>
       </c>
@@ -10481,8 +10566,7 @@
         <v>101</v>
       </c>
       <c r="S54">
-        <f t="shared" si="1"/>
-        <v>181.04</v>
+        <f>W54+X54+Y54+Z54+AA54+AB54+AC54</f>
       </c>
       <c r="T54" t="s">
         <v>866</v>
@@ -10527,7 +10611,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>878</v>
       </c>
@@ -10565,8 +10649,7 @@
         <v>101</v>
       </c>
       <c r="S55">
-        <f t="shared" si="1"/>
-        <v>24.81</v>
+        <f>W55+X55+Y55+Z55+AA55+AB55+AC55</f>
       </c>
       <c r="T55" t="s">
         <v>884</v>
@@ -10614,7 +10697,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>896</v>
       </c>
@@ -10652,8 +10735,7 @@
         <v>101</v>
       </c>
       <c r="S56">
-        <f t="shared" si="1"/>
-        <v>17.399999999999999</v>
+        <f>W56+X56+Y56+Z56+AA56+AB56+AC56</f>
       </c>
       <c r="T56" t="s">
         <v>900</v>
@@ -10701,7 +10783,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>910</v>
       </c>
@@ -10739,8 +10821,7 @@
         <v>101</v>
       </c>
       <c r="S57">
-        <f t="shared" si="1"/>
-        <v>57.86</v>
+        <f>W57+X57+Y57+Z57+AA57+AB57+AC57</f>
       </c>
       <c r="T57" t="s">
         <v>916</v>
@@ -10785,7 +10866,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>925</v>
       </c>
@@ -10823,8 +10904,7 @@
         <v>101</v>
       </c>
       <c r="S58">
-        <f t="shared" si="1"/>
-        <v>82.64</v>
+        <f>W58+X58+Y58+Z58+AA58+AB58+AC58</f>
       </c>
       <c r="T58" t="s">
         <v>929</v>
@@ -10872,7 +10952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>934</v>
       </c>
@@ -10910,8 +10990,7 @@
         <v>101</v>
       </c>
       <c r="S59">
-        <f t="shared" si="1"/>
-        <v>228.07</v>
+        <f>W59+X59+Y59+Z59+AA59+AB59+AC59</f>
       </c>
       <c r="T59" t="s">
         <v>938</v>
@@ -10959,7 +11038,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>949</v>
       </c>
@@ -10997,8 +11076,7 @@
         <v>101</v>
       </c>
       <c r="S60">
-        <f t="shared" si="1"/>
-        <v>63.92</v>
+        <f>W60+X60+Y60+Z60+AA60+AB60+AC60</f>
       </c>
       <c r="T60" t="s">
         <v>953</v>
@@ -11046,7 +11124,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>957</v>
       </c>
@@ -11084,8 +11162,7 @@
         <v>101</v>
       </c>
       <c r="S61">
-        <f t="shared" si="1"/>
-        <v>123.68</v>
+        <f>W61+X61+Y61+Z61+AA61+AB61+AC61</f>
       </c>
       <c r="T61" t="s">
         <v>963</v>
@@ -11130,7 +11207,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>976</v>
       </c>
@@ -11168,8 +11245,7 @@
         <v>101</v>
       </c>
       <c r="S62">
-        <f t="shared" si="1"/>
-        <v>22.24</v>
+        <f>W62+X62+Y62+Z62+AA62+AB62+AC62</f>
       </c>
       <c r="T62" t="s">
         <v>980</v>
@@ -11217,7 +11293,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>984</v>
       </c>
@@ -11255,8 +11331,7 @@
         <v>101</v>
       </c>
       <c r="S63">
-        <f t="shared" si="1"/>
-        <v>0.53</v>
+        <f>W63+X63+Y63+Z63+AA63+AB63+AC63</f>
       </c>
       <c r="T63" t="s">
         <v>989</v>
@@ -11301,7 +11376,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>995</v>
       </c>
@@ -11339,8 +11414,7 @@
         <v>101</v>
       </c>
       <c r="S64">
-        <f t="shared" si="1"/>
-        <v>1.01</v>
+        <f>W64+X64+Y64+Z64+AA64+AB64+AC64</f>
       </c>
       <c r="T64" t="s">
         <v>998</v>
@@ -11385,7 +11459,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1007</v>
       </c>
@@ -11423,8 +11497,7 @@
         <v>101</v>
       </c>
       <c r="S65">
-        <f t="shared" si="1"/>
-        <v>2.0300000000000002</v>
+        <f>W65+X65+Y65+Z65+AA65+AB65+AC65</f>
       </c>
       <c r="T65" t="s">
         <v>1011</v>
@@ -11472,7 +11545,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1017</v>
       </c>
@@ -11510,8 +11583,7 @@
         <v>101</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:S83" si="2">W66+X66+Y66+Z66+AA66+AB66+AC66</f>
-        <v>198.02</v>
+        <f>W66+X66+Y66+Z66+AA66+AB66+AC66</f>
       </c>
       <c r="T66" t="s">
         <v>1021</v>
@@ -11559,7 +11631,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1031</v>
       </c>
@@ -11597,8 +11669,7 @@
         <v>101</v>
       </c>
       <c r="S67">
-        <f t="shared" si="2"/>
-        <v>31.080000000000002</v>
+        <f>W67+X67+Y67+Z67+AA67+AB67+AC67</f>
       </c>
       <c r="T67" t="s">
         <v>1035</v>
@@ -11646,7 +11717,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1046</v>
       </c>
@@ -11684,8 +11755,7 @@
         <v>101</v>
       </c>
       <c r="S68">
-        <f t="shared" si="2"/>
-        <v>1.1099999999999999</v>
+        <f>W68+X68+Y68+Z68+AA68+AB68+AC68</f>
       </c>
       <c r="T68" t="s">
         <v>568</v>
@@ -11733,7 +11803,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1054</v>
       </c>
@@ -11771,8 +11841,7 @@
         <v>101</v>
       </c>
       <c r="S69">
-        <f t="shared" si="2"/>
-        <v>-1.58</v>
+        <f>W69+X69+Y69+Z69+AA69+AB69+AC69</f>
       </c>
       <c r="T69" t="s">
         <v>1058</v>
@@ -11817,7 +11886,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1065</v>
       </c>
@@ -11855,8 +11924,7 @@
         <v>101</v>
       </c>
       <c r="S70">
-        <f t="shared" si="2"/>
-        <v>103.41</v>
+        <f>W70+X70+Y70+Z70+AA70+AB70+AC70</f>
       </c>
       <c r="T70" t="s">
         <v>1069</v>
@@ -11904,7 +11972,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1082</v>
       </c>
@@ -11942,8 +12010,7 @@
         <v>101</v>
       </c>
       <c r="S71">
-        <f t="shared" si="2"/>
-        <v>0.91999999999999993</v>
+        <f>W71+X71+Y71+Z71+AA71+AB71+AC71</f>
       </c>
       <c r="T71" t="s">
         <v>823</v>
@@ -11991,7 +12058,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1093</v>
       </c>
@@ -12029,8 +12096,7 @@
         <v>101</v>
       </c>
       <c r="S72">
-        <f t="shared" si="2"/>
-        <v>0.91999999999999993</v>
+        <f>W72+X72+Y72+Z72+AA72+AB72+AC72</f>
       </c>
       <c r="T72" t="s">
         <v>823</v>
@@ -12078,7 +12144,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1094</v>
       </c>
@@ -12116,8 +12182,7 @@
         <v>101</v>
       </c>
       <c r="S73">
-        <f t="shared" si="2"/>
-        <v>176.59</v>
+        <f>W73+X73+Y73+Z73+AA73+AB73+AC73</f>
       </c>
       <c r="T73" t="s">
         <v>1098</v>
@@ -12165,7 +12230,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1108</v>
       </c>
@@ -12203,8 +12268,7 @@
         <v>101</v>
       </c>
       <c r="S74">
-        <f t="shared" si="2"/>
-        <v>140.67000000000002</v>
+        <f>W74+X74+Y74+Z74+AA74+AB74+AC74</f>
       </c>
       <c r="T74" t="s">
         <v>1113</v>
@@ -12252,7 +12316,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1124</v>
       </c>
@@ -12290,8 +12354,7 @@
         <v>101</v>
       </c>
       <c r="S75">
-        <f t="shared" si="2"/>
-        <v>6.73</v>
+        <f>W75+X75+Y75+Z75+AA75+AB75+AC75</f>
       </c>
       <c r="T75" t="s">
         <v>900</v>
@@ -12336,7 +12399,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1136</v>
       </c>
@@ -12374,8 +12437,7 @@
         <v>883</v>
       </c>
       <c r="S76">
-        <f t="shared" si="2"/>
-        <v>-0.98</v>
+        <f>W76+X76+Y76+Z76+AA76+AB76+AC76</f>
       </c>
       <c r="T76" t="s">
         <v>1140</v>
@@ -12420,7 +12482,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1149</v>
       </c>
@@ -12455,8 +12517,7 @@
         <v>634</v>
       </c>
       <c r="S77">
-        <f t="shared" si="2"/>
-        <v>446.37</v>
+        <f>W77+X77+Y77+Z77+AA77+AB77+AC77</f>
       </c>
       <c r="T77" t="s">
         <v>1154</v>
@@ -12501,7 +12562,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1167</v>
       </c>
@@ -12539,8 +12600,7 @@
         <v>101</v>
       </c>
       <c r="S78">
-        <f t="shared" si="2"/>
-        <v>53.46</v>
+        <f>W78+X78+Y78+Z78+AA78+AB78+AC78</f>
       </c>
       <c r="T78" t="s">
         <v>1171</v>
@@ -12588,7 +12648,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1182</v>
       </c>
@@ -12626,8 +12686,7 @@
         <v>101</v>
       </c>
       <c r="S79">
-        <f t="shared" si="2"/>
-        <v>-0.38</v>
+        <f>W79+X79+Y79+Z79+AA79+AB79+AC79</f>
       </c>
       <c r="T79" t="s">
         <v>887</v>
@@ -12672,7 +12731,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1191</v>
       </c>
@@ -12710,8 +12769,7 @@
         <v>101</v>
       </c>
       <c r="S80">
-        <f t="shared" si="2"/>
-        <v>77.19</v>
+        <f>W80+X80+Y80+Z80+AA80+AB80+AC80</f>
       </c>
       <c r="T80" t="s">
         <v>1195</v>
@@ -12759,7 +12817,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1197</v>
       </c>
@@ -12797,8 +12855,7 @@
         <v>101</v>
       </c>
       <c r="S81">
-        <f t="shared" si="2"/>
-        <v>64.47</v>
+        <f>W81+X81+Y81+Z81+AA81+AB81+AC81</f>
       </c>
       <c r="T81" t="s">
         <v>1201</v>
@@ -12846,7 +12903,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1205</v>
       </c>
@@ -12884,8 +12941,7 @@
         <v>101</v>
       </c>
       <c r="S82">
-        <f t="shared" si="2"/>
-        <v>1.47</v>
+        <f>W82+X82+Y82+Z82+AA82+AB82+AC82</f>
       </c>
       <c r="T82" t="s">
         <v>1209</v>
@@ -12927,7 +12983,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1210</v>
       </c>
@@ -12965,8 +13021,7 @@
         <v>101</v>
       </c>
       <c r="S83">
-        <f t="shared" si="2"/>
-        <v>794.88</v>
+        <f>W83+X83+Y83+Z83+AA83+AB83+AC83</f>
       </c>
       <c r="T83" t="s">
         <v>1214</v>
@@ -13011,13 +13066,16 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1226</v>
       </c>
       <c r="D84" t="s">
         <v>91</v>
       </c>
+      <c r="E84" t="s">
+        <v>1227</v>
+      </c>
       <c r="F84" t="s">
         <v>93</v>
       </c>
@@ -13025,22 +13083,22 @@
         <v>94</v>
       </c>
       <c r="H84" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="I84" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="Q84" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R84" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="S84" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="T84" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="AC84" t="s">
         <v>300</v>
@@ -13052,31 +13110,34 @@
         <v>554</v>
       </c>
       <c r="BI84" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="BJ84" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="BK84" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="BO84" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="BP84" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="BQ84" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D85" t="s">
         <v>91</v>
       </c>
+      <c r="E85" t="s">
+        <v>1241</v>
+      </c>
       <c r="F85" t="s">
         <v>93</v>
       </c>
@@ -13084,22 +13145,22 @@
         <v>94</v>
       </c>
       <c r="H85" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="I85" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="Q85" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R85" t="s">
         <v>883</v>
       </c>
       <c r="S85" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="T85" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="AC85" t="s">
         <v>554</v>
@@ -13108,16 +13169,19 @@
         <v>554</v>
       </c>
       <c r="AE85" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D86" t="s">
         <v>91</v>
       </c>
+      <c r="E86" t="s">
+        <v>1247</v>
+      </c>
       <c r="F86" t="s">
         <v>93</v>
       </c>
@@ -13125,58 +13189,61 @@
         <v>94</v>
       </c>
       <c r="H86" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="I86" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="Q86" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R86" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="S86" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="T86" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AC86" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="AD86" t="s">
         <v>174</v>
       </c>
       <c r="AE86" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="BI86" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="BJ86" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="BK86" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="BO86" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="BP86" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="BQ86" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D87" t="s">
         <v>91</v>
       </c>
+      <c r="E87" t="s">
+        <v>1260</v>
+      </c>
       <c r="F87" t="s">
         <v>93</v>
       </c>
@@ -13184,22 +13251,22 @@
         <v>94</v>
       </c>
       <c r="H87" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="I87" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="Q87" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R87" t="s">
         <v>883</v>
       </c>
       <c r="S87" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="T87" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="AC87" t="s">
         <v>785</v>
@@ -13211,31 +13278,34 @@
         <v>106</v>
       </c>
       <c r="BI87" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="BJ87" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="BK87" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="BO87" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="BP87" t="s">
         <v>1180</v>
       </c>
       <c r="BQ87" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="D88" t="s">
         <v>91</v>
       </c>
+      <c r="E88" t="s">
+        <v>1270</v>
+      </c>
       <c r="F88" t="s">
         <v>93</v>
       </c>
@@ -13243,58 +13313,61 @@
         <v>94</v>
       </c>
       <c r="H88" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="I88" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="Q88" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R88" t="s">
         <v>883</v>
       </c>
       <c r="S88" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="T88" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="AC88" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="AD88" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="AE88" t="s">
         <v>299</v>
       </c>
       <c r="BI88" t="s">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="BJ88" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="BK88" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="BO88" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="BP88" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="BQ88" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="D89" t="s">
         <v>91</v>
       </c>
+      <c r="E89" t="s">
+        <v>1283</v>
+      </c>
       <c r="F89" t="s">
         <v>93</v>
       </c>
@@ -13302,58 +13375,61 @@
         <v>94</v>
       </c>
       <c r="H89" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="I89" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="Q89" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R89" t="s">
         <v>883</v>
       </c>
       <c r="S89" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="T89" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="AC89" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="AD89" t="s">
         <v>858</v>
       </c>
       <c r="AE89" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="BI89" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="BJ89" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="BK89" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="BO89" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="BP89" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="BQ89" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
       </c>
+      <c r="E90" t="s">
+        <v>1295</v>
+      </c>
       <c r="F90" t="s">
         <v>93</v>
       </c>
@@ -13361,22 +13437,22 @@
         <v>94</v>
       </c>
       <c r="H90" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="I90" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="Q90" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R90" t="s">
         <v>883</v>
       </c>
       <c r="S90" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
       <c r="T90" t="s">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="AC90" t="s">
         <v>571</v>
@@ -13385,34 +13461,37 @@
         <v>571</v>
       </c>
       <c r="AE90" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
       <c r="BI90" t="s">
-        <v>1293</v>
+        <v>1300</v>
       </c>
       <c r="BJ90" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
       <c r="BK90" t="s">
-        <v>1295</v>
+        <v>1302</v>
       </c>
       <c r="BO90" t="s">
-        <v>1296</v>
+        <v>1303</v>
       </c>
       <c r="BP90" t="s">
-        <v>1297</v>
+        <v>1304</v>
       </c>
       <c r="BQ90" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1298</v>
+        <v>1305</v>
       </c>
       <c r="D91" t="s">
         <v>91</v>
       </c>
+      <c r="E91" t="s">
+        <v>1306</v>
+      </c>
       <c r="F91" t="s">
         <v>93</v>
       </c>
@@ -13420,58 +13499,61 @@
         <v>94</v>
       </c>
       <c r="H91" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="I91" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="Q91" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R91" t="s">
         <v>883</v>
       </c>
       <c r="S91" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="T91" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
       <c r="AC91" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="AD91" t="s">
         <v>658</v>
       </c>
       <c r="AE91" t="s">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="BI91" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
       <c r="BJ91" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="BK91" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="BO91" t="s">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="BP91" t="s">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="BQ91" t="s">
-        <v>1310</v>
+        <v>1318</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="D92" t="s">
         <v>91</v>
       </c>
+      <c r="E92" t="s">
+        <v>1320</v>
+      </c>
       <c r="F92" t="s">
         <v>93</v>
       </c>
@@ -13479,58 +13561,61 @@
         <v>94</v>
       </c>
       <c r="H92" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="I92" t="s">
-        <v>1312</v>
+        <v>1321</v>
       </c>
       <c r="Q92" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R92" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="S92" t="s">
-        <v>1313</v>
+        <v>1322</v>
       </c>
       <c r="T92" t="s">
-        <v>1314</v>
+        <v>1323</v>
       </c>
       <c r="AC92" t="s">
-        <v>1315</v>
+        <v>1324</v>
       </c>
       <c r="AD92" t="s">
         <v>174</v>
       </c>
       <c r="AE92" t="s">
-        <v>1316</v>
+        <v>1325</v>
       </c>
       <c r="BI92" t="s">
-        <v>1317</v>
+        <v>1326</v>
       </c>
       <c r="BJ92" t="s">
-        <v>1318</v>
+        <v>1327</v>
       </c>
       <c r="BK92" t="s">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="BO92" t="s">
-        <v>1320</v>
+        <v>1329</v>
       </c>
       <c r="BP92" t="s">
-        <v>1321</v>
+        <v>1330</v>
       </c>
       <c r="BQ92" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1322</v>
+        <v>1331</v>
       </c>
       <c r="D93" t="s">
         <v>91</v>
       </c>
+      <c r="E93" t="s">
+        <v>1332</v>
+      </c>
       <c r="F93" t="s">
         <v>93</v>
       </c>
@@ -13538,22 +13623,22 @@
         <v>94</v>
       </c>
       <c r="H93" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="I93" t="s">
-        <v>1323</v>
+        <v>1333</v>
       </c>
       <c r="Q93" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R93" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="S93" t="s">
-        <v>1324</v>
+        <v>1334</v>
       </c>
       <c r="T93" t="s">
-        <v>1325</v>
+        <v>1335</v>
       </c>
       <c r="AC93" t="s">
         <v>553</v>
@@ -13565,31 +13650,34 @@
         <v>173</v>
       </c>
       <c r="BI93" t="s">
-        <v>1326</v>
+        <v>1336</v>
       </c>
       <c r="BJ93" t="s">
-        <v>1327</v>
+        <v>1337</v>
       </c>
       <c r="BK93" t="s">
-        <v>1328</v>
+        <v>1338</v>
       </c>
       <c r="BO93" t="s">
-        <v>1329</v>
+        <v>1339</v>
       </c>
       <c r="BP93" t="s">
-        <v>1330</v>
+        <v>1340</v>
       </c>
       <c r="BQ93" t="s">
-        <v>1331</v>
+        <v>1341</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1332</v>
+        <v>1342</v>
       </c>
       <c r="D94" t="s">
         <v>91</v>
       </c>
+      <c r="E94" t="s">
+        <v>1343</v>
+      </c>
       <c r="F94" t="s">
         <v>93</v>
       </c>
@@ -13597,58 +13685,61 @@
         <v>94</v>
       </c>
       <c r="H94" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="I94" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="Q94" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R94" t="s">
         <v>883</v>
       </c>
       <c r="S94" t="s">
-        <v>1334</v>
+        <v>1345</v>
       </c>
       <c r="T94" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="AC94" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
       <c r="AD94" t="s">
         <v>538</v>
       </c>
       <c r="AE94" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="BI94" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="BJ94" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="BK94" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="BO94" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
       <c r="BP94" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="BQ94" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
     </row>
-    <row r="95" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="D95" t="s">
         <v>91</v>
       </c>
+      <c r="E95" t="s">
+        <v>1355</v>
+      </c>
       <c r="F95" t="s">
         <v>93</v>
       </c>
@@ -13656,58 +13747,61 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="I95" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="Q95" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R95" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="S95" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="T95" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="AC95" t="s">
         <v>359</v>
       </c>
       <c r="AD95" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="AE95" t="s">
         <v>521</v>
       </c>
       <c r="BI95" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="BJ95" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="BK95" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
       <c r="BO95" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="BP95" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="BQ95" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
     </row>
-    <row r="96" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="D96" t="s">
         <v>91</v>
       </c>
+      <c r="E96" t="s">
+        <v>1367</v>
+      </c>
       <c r="F96" t="s">
         <v>93</v>
       </c>
@@ -13715,58 +13809,61 @@
         <v>94</v>
       </c>
       <c r="H96" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="I96" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="Q96" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R96" t="s">
         <v>883</v>
       </c>
       <c r="S96" t="s">
-        <v>1356</v>
+        <v>1369</v>
       </c>
       <c r="T96" t="s">
-        <v>1357</v>
+        <v>1370</v>
       </c>
       <c r="AC96" t="s">
-        <v>1358</v>
+        <v>1371</v>
       </c>
       <c r="AD96" t="s">
         <v>330</v>
       </c>
       <c r="AE96" t="s">
-        <v>1359</v>
+        <v>1372</v>
       </c>
       <c r="BI96" t="s">
-        <v>1360</v>
+        <v>1373</v>
       </c>
       <c r="BJ96" t="s">
-        <v>1361</v>
+        <v>1374</v>
       </c>
       <c r="BK96" t="s">
-        <v>1362</v>
+        <v>1375</v>
       </c>
       <c r="BO96" t="s">
-        <v>1363</v>
+        <v>1376</v>
       </c>
       <c r="BP96" t="s">
-        <v>1364</v>
+        <v>1377</v>
       </c>
       <c r="BQ96" t="s">
-        <v>1365</v>
+        <v>1378</v>
       </c>
     </row>
-    <row r="97" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1366</v>
+        <v>1379</v>
       </c>
       <c r="D97" t="s">
         <v>91</v>
       </c>
+      <c r="E97" t="s">
+        <v>1380</v>
+      </c>
       <c r="F97" t="s">
         <v>93</v>
       </c>
@@ -13774,22 +13871,22 @@
         <v>94</v>
       </c>
       <c r="H97" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="I97" t="s">
-        <v>1367</v>
+        <v>1381</v>
       </c>
       <c r="Q97" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R97" t="s">
         <v>883</v>
       </c>
       <c r="S97" t="s">
-        <v>1368</v>
+        <v>1382</v>
       </c>
       <c r="T97" t="s">
-        <v>1369</v>
+        <v>1383</v>
       </c>
       <c r="AC97" t="s">
         <v>173</v>
@@ -13798,39 +13895,39 @@
         <v>358</v>
       </c>
       <c r="AE97" t="s">
-        <v>1370</v>
+        <v>1384</v>
       </c>
       <c r="BI97" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
       <c r="BJ97" t="s">
-        <v>1372</v>
+        <v>1386</v>
       </c>
       <c r="BK97" t="s">
-        <v>1373</v>
+        <v>1387</v>
       </c>
       <c r="BO97" t="s">
-        <v>1374</v>
+        <v>1388</v>
       </c>
       <c r="BP97" t="s">
-        <v>1375</v>
+        <v>1389</v>
       </c>
       <c r="BQ97" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
     </row>
-    <row r="98" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1377</v>
+        <v>1391</v>
       </c>
       <c r="D98" t="s">
         <v>91</v>
       </c>
       <c r="E98" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
       <c r="F98" t="s">
-        <v>1379</v>
+        <v>1393</v>
       </c>
       <c r="G98" t="s">
         <v>94</v>
@@ -13839,7 +13936,7 @@
         <v>914</v>
       </c>
       <c r="I98" t="s">
-        <v>1380</v>
+        <v>1394</v>
       </c>
       <c r="J98" t="s">
         <v>833</v>
@@ -13848,52 +13945,51 @@
         <v>581</v>
       </c>
       <c r="L98" t="s">
-        <v>1381</v>
+        <v>1395</v>
       </c>
       <c r="Q98" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R98" t="s">
         <v>101</v>
       </c>
       <c r="S98">
-        <f t="shared" ref="S98:S108" si="3">W98+X98+Y98+Z98+AA98+AB98+AC98</f>
-        <v>7.08</v>
+        <f>W98+X98+Y98+Z98+AA98+AB98+AC98</f>
       </c>
       <c r="T98" t="s">
-        <v>1383</v>
+        <v>1397</v>
       </c>
       <c r="U98" t="s">
-        <v>1381</v>
+        <v>1395</v>
       </c>
       <c r="V98" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="W98" t="s">
-        <v>1385</v>
+        <v>1399</v>
       </c>
       <c r="Y98" t="s">
-        <v>1386</v>
+        <v>1400</v>
       </c>
       <c r="Z98" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="AA98" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
     </row>
-    <row r="99" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1387</v>
+        <v>1401</v>
       </c>
       <c r="D99" t="s">
         <v>91</v>
       </c>
       <c r="E99" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
       <c r="F99" t="s">
-        <v>1379</v>
+        <v>1393</v>
       </c>
       <c r="G99" t="s">
         <v>94</v>
@@ -13902,61 +13998,63 @@
         <v>914</v>
       </c>
       <c r="I99" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="J99" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K99" t="s">
         <v>582</v>
       </c>
       <c r="L99" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
       <c r="Q99" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R99" t="s">
         <v>101</v>
       </c>
       <c r="S99">
-        <f t="shared" si="3"/>
-        <v>10.569999999999999</v>
+        <f>W99+X99+Y99+Z99+AA99+AB99+AC99</f>
       </c>
       <c r="T99" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
       <c r="U99" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
       <c r="V99" t="s">
-        <v>1392</v>
+        <v>1406</v>
       </c>
       <c r="W99" t="s">
-        <v>1393</v>
+        <v>1407</v>
+      </c>
+      <c r="X99" t="s">
+        <v>1141</v>
       </c>
       <c r="Y99" t="s">
-        <v>1394</v>
+        <v>1408</v>
       </c>
       <c r="Z99" t="s">
-        <v>1395</v>
+        <v>1409</v>
       </c>
       <c r="AA99" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="100" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="D100" t="s">
         <v>91</v>
       </c>
       <c r="E100" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
       <c r="F100" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G100" t="s">
         <v>94</v>
@@ -13965,53 +14063,52 @@
         <v>881</v>
       </c>
       <c r="I100" t="s">
-        <v>1399</v>
+        <v>1413</v>
       </c>
       <c r="J100" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K100" t="s">
         <v>582</v>
       </c>
       <c r="L100" t="s">
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="Q100" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R100" t="s">
         <v>101</v>
       </c>
       <c r="S100">
-        <f t="shared" si="3"/>
-        <v>262.63</v>
+        <f>W100+X100+Y100+Z100+AA100+AB100+AC100</f>
       </c>
       <c r="T100" t="s">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="U100" t="s">
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="V100" t="s">
-        <v>1402</v>
+        <v>1416</v>
       </c>
       <c r="W100" t="s">
-        <v>1403</v>
+        <v>1417</v>
       </c>
       <c r="Y100" t="s">
-        <v>1404</v>
+        <v>1418</v>
       </c>
       <c r="Z100" t="s">
-        <v>1395</v>
+        <v>1409</v>
       </c>
       <c r="AA100" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="AC100" t="s">
         <v>209</v>
       </c>
       <c r="AD100" t="s">
-        <v>1405</v>
+        <v>1419</v>
       </c>
       <c r="AE100" t="s">
         <v>162</v>
@@ -14023,75 +14120,75 @@
         <v>162</v>
       </c>
       <c r="AH100" t="s">
-        <v>1406</v>
+        <v>1420</v>
       </c>
       <c r="BI100" t="s">
-        <v>1407</v>
+        <v>1421</v>
       </c>
       <c r="BJ100" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="BK100" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="BL100" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="BM100" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="BN100" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
       <c r="BO100" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="BP100" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
       <c r="BQ100" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="BR100" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="BS100" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="BT100" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
       <c r="CA100" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="CB100" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
       <c r="CC100" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="CD100" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="CE100" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="CF100" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
     </row>
-    <row r="101" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="D101" t="s">
         <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>1417</v>
+        <v>1431</v>
       </c>
       <c r="F101" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G101" t="s">
         <v>94</v>
@@ -14100,53 +14197,52 @@
         <v>157</v>
       </c>
       <c r="I101" t="s">
-        <v>1418</v>
+        <v>1432</v>
       </c>
       <c r="J101" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K101" t="s">
         <v>582</v>
       </c>
       <c r="L101" t="s">
-        <v>1419</v>
+        <v>1433</v>
       </c>
       <c r="Q101" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R101" t="s">
         <v>101</v>
       </c>
       <c r="S101">
-        <f t="shared" si="3"/>
-        <v>1044.54</v>
+        <f>W101+X101+Y101+Z101+AA101+AB101+AC101</f>
       </c>
       <c r="T101" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="U101" t="s">
-        <v>1419</v>
+        <v>1433</v>
       </c>
       <c r="V101" t="s">
-        <v>1421</v>
+        <v>1435</v>
       </c>
       <c r="W101" t="s">
-        <v>1422</v>
+        <v>1436</v>
       </c>
       <c r="Y101" t="s">
-        <v>1423</v>
+        <v>1437</v>
       </c>
       <c r="Z101" t="s">
-        <v>1424</v>
+        <v>1438</v>
       </c>
       <c r="AA101" t="s">
-        <v>1425</v>
+        <v>1439</v>
       </c>
       <c r="AC101" t="s">
-        <v>1426</v>
+        <v>1440</v>
       </c>
       <c r="AD101" t="s">
-        <v>1427</v>
+        <v>1441</v>
       </c>
       <c r="AE101" t="s">
         <v>162</v>
@@ -14158,75 +14254,75 @@
         <v>162</v>
       </c>
       <c r="AH101" t="s">
-        <v>1428</v>
+        <v>1442</v>
       </c>
       <c r="BI101" t="s">
-        <v>1429</v>
+        <v>1443</v>
       </c>
       <c r="BJ101" t="s">
-        <v>1430</v>
+        <v>1444</v>
       </c>
       <c r="BK101" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="BL101" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
       <c r="BM101" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="BN101" t="s">
-        <v>1434</v>
+        <v>1448</v>
       </c>
       <c r="BO101" t="s">
-        <v>1435</v>
+        <v>1449</v>
       </c>
       <c r="BP101" t="s">
-        <v>1436</v>
+        <v>1450</v>
       </c>
       <c r="BQ101" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="BR101" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
       <c r="BS101" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="BT101" t="s">
-        <v>1437</v>
+        <v>1451</v>
       </c>
       <c r="CA101" t="s">
-        <v>1435</v>
+        <v>1449</v>
       </c>
       <c r="CB101" t="s">
-        <v>1436</v>
+        <v>1450</v>
       </c>
       <c r="CC101" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="CD101" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
       <c r="CE101" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="CF101" t="s">
-        <v>1437</v>
+        <v>1451</v>
       </c>
     </row>
-    <row r="102" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1438</v>
+        <v>1452</v>
       </c>
       <c r="D102" t="s">
         <v>91</v>
       </c>
       <c r="E102" t="s">
-        <v>1439</v>
+        <v>1453</v>
       </c>
       <c r="F102" t="s">
-        <v>1379</v>
+        <v>1393</v>
       </c>
       <c r="G102" t="s">
         <v>94</v>
@@ -14235,61 +14331,63 @@
         <v>157</v>
       </c>
       <c r="I102" t="s">
-        <v>1440</v>
+        <v>1454</v>
       </c>
       <c r="J102" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K102" t="s">
         <v>582</v>
       </c>
       <c r="L102" t="s">
-        <v>1441</v>
+        <v>1455</v>
       </c>
       <c r="Q102" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R102" t="s">
         <v>101</v>
       </c>
       <c r="S102">
-        <f t="shared" si="3"/>
-        <v>2396.5</v>
+        <f>W102+X102+Y102+Z102+AA102+AB102+AC102</f>
       </c>
       <c r="T102" t="s">
-        <v>1442</v>
+        <v>1456</v>
       </c>
       <c r="U102" t="s">
-        <v>1441</v>
+        <v>1455</v>
       </c>
       <c r="V102" t="s">
-        <v>1443</v>
+        <v>1457</v>
       </c>
       <c r="W102" t="s">
-        <v>1444</v>
+        <v>1458</v>
+      </c>
+      <c r="X102" t="s">
+        <v>1459</v>
       </c>
       <c r="Y102" t="s">
-        <v>1445</v>
+        <v>1460</v>
       </c>
       <c r="Z102" t="s">
-        <v>1446</v>
+        <v>1461</v>
       </c>
       <c r="AA102" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
     </row>
-    <row r="103" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1448</v>
+        <v>1462</v>
       </c>
       <c r="D103" t="s">
         <v>91</v>
       </c>
       <c r="E103" t="s">
-        <v>1449</v>
+        <v>1463</v>
       </c>
       <c r="F103" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G103" t="s">
         <v>94</v>
@@ -14298,50 +14396,49 @@
         <v>157</v>
       </c>
       <c r="I103" t="s">
-        <v>1450</v>
+        <v>1464</v>
       </c>
       <c r="J103" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K103" t="s">
         <v>582</v>
       </c>
       <c r="L103" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="Q103" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R103" t="s">
         <v>101</v>
       </c>
       <c r="S103">
-        <f t="shared" si="3"/>
-        <v>139.13</v>
+        <f>W103+X103+Y103+Z103+AA103+AB103+AC103</f>
       </c>
       <c r="T103" t="s">
         <v>585</v>
       </c>
       <c r="U103" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="V103" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
       <c r="W103" t="s">
-        <v>1453</v>
+        <v>1467</v>
       </c>
       <c r="Y103" t="s">
-        <v>1454</v>
+        <v>1468</v>
       </c>
       <c r="Z103" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="AA103" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="AC103" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
       <c r="AD103" t="s">
         <v>849</v>
@@ -14356,75 +14453,75 @@
         <v>162</v>
       </c>
       <c r="AH103" t="s">
-        <v>1457</v>
+        <v>1471</v>
       </c>
       <c r="BI103" t="s">
-        <v>1458</v>
+        <v>1472</v>
       </c>
       <c r="BJ103" t="s">
-        <v>1459</v>
+        <v>1473</v>
       </c>
       <c r="BK103" t="s">
-        <v>1460</v>
+        <v>1474</v>
       </c>
       <c r="BL103" t="s">
-        <v>1461</v>
+        <v>1475</v>
       </c>
       <c r="BM103" t="s">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="BN103" t="s">
-        <v>1463</v>
+        <v>1477</v>
       </c>
       <c r="BO103" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="BP103" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="BQ103" t="s">
-        <v>1460</v>
+        <v>1474</v>
       </c>
       <c r="BR103" t="s">
-        <v>1461</v>
+        <v>1475</v>
       </c>
       <c r="BS103" t="s">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="BT103" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
       <c r="CA103" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="CB103" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="CC103" t="s">
-        <v>1460</v>
+        <v>1474</v>
       </c>
       <c r="CD103" t="s">
-        <v>1461</v>
+        <v>1475</v>
       </c>
       <c r="CE103" t="s">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="CF103" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
     </row>
-    <row r="104" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1467</v>
+        <v>1481</v>
       </c>
       <c r="D104" t="s">
         <v>91</v>
       </c>
       <c r="E104" t="s">
-        <v>1468</v>
+        <v>1482</v>
       </c>
       <c r="F104" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G104" t="s">
         <v>94</v>
@@ -14433,53 +14530,52 @@
         <v>157</v>
       </c>
       <c r="I104" t="s">
-        <v>1469</v>
+        <v>1483</v>
       </c>
       <c r="J104" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K104" t="s">
         <v>582</v>
       </c>
       <c r="L104" t="s">
-        <v>1470</v>
+        <v>1484</v>
       </c>
       <c r="Q104" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R104" t="s">
         <v>101</v>
       </c>
       <c r="S104">
-        <f t="shared" si="3"/>
-        <v>119.65</v>
+        <f>W104+X104+Y104+Z104+AA104+AB104+AC104</f>
       </c>
       <c r="T104" t="s">
-        <v>1471</v>
+        <v>1485</v>
       </c>
       <c r="U104" t="s">
-        <v>1470</v>
+        <v>1484</v>
       </c>
       <c r="V104" t="s">
-        <v>1472</v>
+        <v>1486</v>
       </c>
       <c r="W104" t="s">
-        <v>1473</v>
+        <v>1487</v>
       </c>
       <c r="Y104" t="s">
-        <v>1474</v>
+        <v>1488</v>
       </c>
       <c r="Z104" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="AA104" t="s">
-        <v>1475</v>
+        <v>1489</v>
       </c>
       <c r="AC104" t="s">
-        <v>1476</v>
+        <v>1490</v>
       </c>
       <c r="AD104" t="s">
-        <v>1315</v>
+        <v>1324</v>
       </c>
       <c r="AE104" t="s">
         <v>162</v>
@@ -14494,72 +14590,72 @@
         <v>147</v>
       </c>
       <c r="BI104" t="s">
-        <v>1477</v>
+        <v>1491</v>
       </c>
       <c r="BJ104" t="s">
-        <v>1478</v>
+        <v>1492</v>
       </c>
       <c r="BK104" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="BL104" t="s">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="BM104" t="s">
         <v>905</v>
       </c>
       <c r="BN104" t="s">
-        <v>1481</v>
+        <v>1495</v>
       </c>
       <c r="BO104" t="s">
-        <v>1482</v>
+        <v>1496</v>
       </c>
       <c r="BP104" t="s">
-        <v>1483</v>
+        <v>1497</v>
       </c>
       <c r="BQ104" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="BR104" t="s">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="BS104" t="s">
         <v>905</v>
       </c>
       <c r="BT104" t="s">
-        <v>1484</v>
+        <v>1498</v>
       </c>
       <c r="CA104" t="s">
-        <v>1482</v>
+        <v>1496</v>
       </c>
       <c r="CB104" t="s">
-        <v>1483</v>
+        <v>1497</v>
       </c>
       <c r="CC104" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="CD104" t="s">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="CE104" t="s">
         <v>905</v>
       </c>
       <c r="CF104" t="s">
-        <v>1484</v>
+        <v>1498</v>
       </c>
     </row>
-    <row r="105" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="D105" t="s">
         <v>91</v>
       </c>
       <c r="E105" t="s">
-        <v>1486</v>
+        <v>1500</v>
       </c>
       <c r="F105" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G105" t="s">
         <v>94</v>
@@ -14568,50 +14664,52 @@
         <v>157</v>
       </c>
       <c r="I105" t="s">
-        <v>1487</v>
+        <v>1501</v>
       </c>
       <c r="J105" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K105" t="s">
         <v>582</v>
       </c>
       <c r="L105" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="Q105" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R105" t="s">
         <v>101</v>
       </c>
       <c r="S105">
-        <f t="shared" si="3"/>
-        <v>143.07999999999998</v>
+        <f>W105+X105+Y105+Z105+AA105+AB105+AC105</f>
       </c>
       <c r="T105" t="s">
-        <v>1489</v>
+        <v>1503</v>
       </c>
       <c r="U105" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="V105" t="s">
-        <v>1490</v>
+        <v>1504</v>
       </c>
       <c r="W105" t="s">
-        <v>1491</v>
+        <v>1505</v>
+      </c>
+      <c r="X105" t="s">
+        <v>1506</v>
       </c>
       <c r="Y105" t="s">
-        <v>1492</v>
+        <v>1507</v>
       </c>
       <c r="Z105" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="AA105" t="s">
-        <v>1493</v>
+        <v>1506</v>
       </c>
       <c r="AC105" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
       <c r="AD105" t="s">
         <v>317</v>
@@ -14626,75 +14724,75 @@
         <v>162</v>
       </c>
       <c r="AH105" t="s">
-        <v>1494</v>
+        <v>1508</v>
       </c>
       <c r="BI105" t="s">
-        <v>1495</v>
+        <v>1509</v>
       </c>
       <c r="BJ105" t="s">
-        <v>1496</v>
+        <v>1510</v>
       </c>
       <c r="BK105" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="BL105" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
       <c r="BM105" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
       <c r="BN105" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
       <c r="BO105" t="s">
-        <v>1501</v>
+        <v>1515</v>
       </c>
       <c r="BP105" t="s">
-        <v>1502</v>
+        <v>1516</v>
       </c>
       <c r="BQ105" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="BR105" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
       <c r="BS105" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
       <c r="BT105" t="s">
         <v>922</v>
       </c>
       <c r="CA105" t="s">
-        <v>1501</v>
+        <v>1515</v>
       </c>
       <c r="CB105" t="s">
-        <v>1502</v>
+        <v>1516</v>
       </c>
       <c r="CC105" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="CD105" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
       <c r="CE105" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
       <c r="CF105" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="106" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1503</v>
+        <v>1517</v>
       </c>
       <c r="D106" t="s">
         <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>1504</v>
+        <v>1518</v>
       </c>
       <c r="F106" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G106" t="s">
         <v>94</v>
@@ -14703,44 +14801,46 @@
         <v>157</v>
       </c>
       <c r="I106" t="s">
-        <v>1505</v>
+        <v>1519</v>
       </c>
       <c r="J106" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K106" t="s">
         <v>582</v>
       </c>
       <c r="L106" t="s">
-        <v>1506</v>
+        <v>1520</v>
       </c>
       <c r="Q106" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R106" t="s">
         <v>101</v>
       </c>
       <c r="S106">
-        <f t="shared" si="3"/>
-        <v>111.72</v>
+        <f>W106+X106+Y106+Z106+AA106+AB106+AC106</f>
       </c>
       <c r="T106" t="s">
-        <v>1507</v>
+        <v>1521</v>
       </c>
       <c r="U106" t="s">
-        <v>1506</v>
+        <v>1520</v>
       </c>
       <c r="V106" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
       <c r="W106" t="s">
-        <v>1509</v>
+        <v>1523</v>
+      </c>
+      <c r="X106" t="s">
+        <v>1524</v>
       </c>
       <c r="Y106" t="s">
-        <v>1510</v>
+        <v>1525</v>
       </c>
       <c r="Z106" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="AA106" t="s">
         <v>469</v>
@@ -14764,72 +14864,72 @@
         <v>968</v>
       </c>
       <c r="BI106" t="s">
-        <v>1511</v>
+        <v>1526</v>
       </c>
       <c r="BJ106" t="s">
-        <v>1512</v>
+        <v>1527</v>
       </c>
       <c r="BK106" t="s">
-        <v>1513</v>
+        <v>1528</v>
       </c>
       <c r="BL106" t="s">
-        <v>1514</v>
+        <v>1529</v>
       </c>
       <c r="BM106" t="s">
-        <v>1515</v>
+        <v>1530</v>
       </c>
       <c r="BN106" t="s">
-        <v>1516</v>
+        <v>1531</v>
       </c>
       <c r="BO106" t="s">
-        <v>1517</v>
+        <v>1532</v>
       </c>
       <c r="BP106" t="s">
-        <v>1518</v>
+        <v>1533</v>
       </c>
       <c r="BQ106" t="s">
-        <v>1513</v>
+        <v>1528</v>
       </c>
       <c r="BR106" t="s">
-        <v>1514</v>
+        <v>1529</v>
       </c>
       <c r="BS106" t="s">
-        <v>1515</v>
+        <v>1530</v>
       </c>
       <c r="BT106" t="s">
         <v>509</v>
       </c>
       <c r="CA106" t="s">
-        <v>1517</v>
+        <v>1532</v>
       </c>
       <c r="CB106" t="s">
-        <v>1518</v>
+        <v>1533</v>
       </c>
       <c r="CC106" t="s">
-        <v>1513</v>
+        <v>1528</v>
       </c>
       <c r="CD106" t="s">
-        <v>1514</v>
+        <v>1529</v>
       </c>
       <c r="CE106" t="s">
-        <v>1515</v>
+        <v>1530</v>
       </c>
       <c r="CF106" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="107" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1519</v>
+        <v>1534</v>
       </c>
       <c r="D107" t="s">
         <v>91</v>
       </c>
       <c r="E107" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
       <c r="F107" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G107" t="s">
         <v>94</v>
@@ -14838,53 +14938,52 @@
         <v>881</v>
       </c>
       <c r="I107" t="s">
-        <v>1399</v>
+        <v>1413</v>
       </c>
       <c r="J107" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="K107" t="s">
         <v>582</v>
       </c>
       <c r="L107" t="s">
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="Q107" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R107" t="s">
         <v>101</v>
       </c>
       <c r="S107">
-        <f t="shared" si="3"/>
-        <v>262.63</v>
+        <f>W107+X107+Y107+Z107+AA107+AB107+AC107</f>
       </c>
       <c r="T107" t="s">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="U107" t="s">
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="V107" t="s">
-        <v>1402</v>
+        <v>1416</v>
       </c>
       <c r="W107" t="s">
-        <v>1403</v>
+        <v>1417</v>
       </c>
       <c r="Y107" t="s">
-        <v>1404</v>
+        <v>1418</v>
       </c>
       <c r="Z107" t="s">
-        <v>1395</v>
+        <v>1409</v>
       </c>
       <c r="AA107" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="AC107" t="s">
         <v>209</v>
       </c>
       <c r="AD107" t="s">
-        <v>1405</v>
+        <v>1419</v>
       </c>
       <c r="AE107" t="s">
         <v>162</v>
@@ -14896,75 +14995,75 @@
         <v>162</v>
       </c>
       <c r="AH107" t="s">
-        <v>1406</v>
+        <v>1420</v>
       </c>
       <c r="BI107" t="s">
-        <v>1407</v>
+        <v>1421</v>
       </c>
       <c r="BJ107" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="BK107" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="BL107" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="BM107" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="BN107" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
       <c r="BO107" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="BP107" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
       <c r="BQ107" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="BR107" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="BS107" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="BT107" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
       <c r="CA107" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="CB107" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
       <c r="CC107" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="CD107" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="CE107" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="CF107" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
     </row>
-    <row r="108" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1520</v>
+        <v>1535</v>
       </c>
       <c r="D108" t="s">
         <v>91</v>
       </c>
       <c r="E108" t="s">
-        <v>1521</v>
+        <v>1536</v>
       </c>
       <c r="F108" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="G108" t="s">
         <v>94</v>
@@ -14973,44 +15072,46 @@
         <v>166</v>
       </c>
       <c r="I108" t="s">
-        <v>1522</v>
+        <v>1537</v>
       </c>
       <c r="J108" t="s">
-        <v>1523</v>
+        <v>1538</v>
       </c>
       <c r="K108" t="s">
         <v>581</v>
       </c>
       <c r="L108" t="s">
-        <v>1524</v>
+        <v>1539</v>
       </c>
       <c r="Q108" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="R108" t="s">
         <v>101</v>
       </c>
       <c r="S108">
-        <f t="shared" si="3"/>
-        <v>206.38</v>
+        <f>W108+X108+Y108+Z108+AA108+AB108+AC108</f>
       </c>
       <c r="T108" t="s">
-        <v>1525</v>
+        <v>1540</v>
       </c>
       <c r="U108" t="s">
-        <v>1524</v>
+        <v>1539</v>
       </c>
       <c r="V108" t="s">
-        <v>1526</v>
+        <v>1541</v>
       </c>
       <c r="W108" t="s">
-        <v>1527</v>
+        <v>1542</v>
+      </c>
+      <c r="X108" t="s">
+        <v>1059</v>
       </c>
       <c r="Y108" t="s">
-        <v>1528</v>
+        <v>1543</v>
       </c>
       <c r="Z108" t="s">
-        <v>1529</v>
+        <v>1544</v>
       </c>
       <c r="AA108" t="s">
         <v>1059</v>
@@ -15088,1379 +15189,1705 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1530</v>
+        <v>1545</v>
       </c>
       <c r="D109" t="s">
         <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>1531</v>
+        <v>1546</v>
       </c>
       <c r="F109" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G109" t="s">
         <v>94</v>
       </c>
       <c r="H109" t="s">
-        <v>1533</v>
+        <v>1547</v>
       </c>
       <c r="I109" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="L109" t="s">
-        <v>1535</v>
+        <v>1549</v>
       </c>
       <c r="Q109" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R109" t="s">
         <v>101</v>
       </c>
-      <c r="T109" t="str">
-        <f t="shared" ref="T109:T132" ca="1" si="4">V109-T109</f>
-        <v/>
+      <c r="T109">
+        <f>V109-T109</f>
       </c>
       <c r="U109" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AE109" t="s">
-        <v>1539</v>
+        <v>1549</v>
+      </c>
+      <c r="W109" t="s">
+        <v>823</v>
+      </c>
+      <c r="X109" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AU109" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AW109" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BI109" t="s">
+        <v>1555</v>
+      </c>
+      <c r="BJ109" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BK109" t="s">
+        <v>1557</v>
+      </c>
+      <c r="BO109" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BP109" t="s">
+        <v>1559</v>
+      </c>
+      <c r="BQ109" t="s">
+        <v>1560</v>
       </c>
     </row>
-    <row r="110" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1540</v>
+        <v>1561</v>
       </c>
       <c r="D110" t="s">
         <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>1541</v>
+        <v>1562</v>
       </c>
       <c r="F110" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G110" t="s">
         <v>94</v>
       </c>
       <c r="H110" t="s">
-        <v>1542</v>
+        <v>1563</v>
       </c>
       <c r="I110" t="s">
-        <v>1543</v>
+        <v>1564</v>
       </c>
       <c r="L110" t="s">
-        <v>1544</v>
+        <v>1565</v>
       </c>
       <c r="Q110" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R110" t="s">
         <v>101</v>
       </c>
-      <c r="T110" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T110">
+        <f>V110-T110</f>
       </c>
       <c r="U110" t="s">
-        <v>1544</v>
+        <v>1565</v>
       </c>
       <c r="AC110" t="s">
-        <v>1545</v>
+        <v>1566</v>
       </c>
       <c r="AD110" t="s">
-        <v>1546</v>
+        <v>334</v>
       </c>
       <c r="AE110" t="s">
-        <v>1547</v>
-      </c>
-      <c r="BI110" t="s">
-        <v>1548</v>
-      </c>
-      <c r="BJ110" t="s">
-        <v>1549</v>
-      </c>
-      <c r="BK110" t="s">
-        <v>1550</v>
-      </c>
-      <c r="BO110" t="s">
-        <v>1551</v>
-      </c>
-      <c r="BP110" t="s">
-        <v>1552</v>
-      </c>
-      <c r="BQ110" t="s">
-        <v>1553</v>
+        <v>1567</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AQ110" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AU110" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AW110" t="s">
+        <v>1570</v>
       </c>
     </row>
-    <row r="111" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1554</v>
+        <v>1571</v>
       </c>
       <c r="D111" t="s">
         <v>91</v>
       </c>
       <c r="E111" t="s">
-        <v>1555</v>
+        <v>1572</v>
       </c>
       <c r="F111" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G111" t="s">
         <v>94</v>
       </c>
       <c r="H111" t="s">
-        <v>1533</v>
+        <v>1573</v>
       </c>
       <c r="I111" t="s">
-        <v>1556</v>
+        <v>1574</v>
       </c>
       <c r="L111" t="s">
-        <v>1557</v>
+        <v>1575</v>
       </c>
       <c r="Q111" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R111" t="s">
         <v>101</v>
       </c>
-      <c r="T111" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T111">
+        <f>V111-T111</f>
       </c>
       <c r="U111" t="s">
-        <v>1557</v>
+        <v>1575</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AQ111" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AU111" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AW111" t="s">
+        <v>1579</v>
       </c>
       <c r="BI111" t="s">
-        <v>1558</v>
+        <v>1580</v>
       </c>
       <c r="BJ111" t="s">
-        <v>1559</v>
+        <v>1581</v>
       </c>
       <c r="BK111" t="s">
-        <v>1560</v>
+        <v>1582</v>
       </c>
       <c r="BO111" t="s">
-        <v>1561</v>
+        <v>1583</v>
       </c>
       <c r="BP111" t="s">
-        <v>1562</v>
+        <v>1584</v>
       </c>
       <c r="BQ111" t="s">
-        <v>1563</v>
+        <v>1585</v>
       </c>
     </row>
-    <row r="112" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1564</v>
+        <v>1586</v>
       </c>
       <c r="D112" t="s">
         <v>91</v>
       </c>
       <c r="E112" t="s">
-        <v>1565</v>
+        <v>1587</v>
       </c>
       <c r="F112" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G112" t="s">
         <v>94</v>
       </c>
       <c r="H112" t="s">
-        <v>1533</v>
+        <v>1563</v>
       </c>
       <c r="I112" t="s">
-        <v>1566</v>
+        <v>1588</v>
       </c>
       <c r="L112" t="s">
-        <v>1567</v>
+        <v>1589</v>
       </c>
       <c r="Q112" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R112" t="s">
         <v>101</v>
       </c>
-      <c r="T112" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T112">
+        <f>V112-T112</f>
       </c>
       <c r="U112" t="s">
-        <v>1567</v>
-      </c>
-      <c r="AC112" t="s">
-        <v>1568</v>
-      </c>
-      <c r="AD112" t="s">
-        <v>1569</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>1570</v>
+        <v>1589</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AU112" t="s">
+        <v>1592</v>
+      </c>
+      <c r="AW112" t="s">
+        <v>1592</v>
+      </c>
+      <c r="BI112" t="s">
+        <v>1593</v>
+      </c>
+      <c r="BJ112" t="s">
+        <v>1594</v>
+      </c>
+      <c r="BK112" t="s">
+        <v>1595</v>
+      </c>
+      <c r="BO112" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BP112" t="s">
+        <v>1597</v>
+      </c>
+      <c r="BQ112" t="s">
+        <v>1598</v>
       </c>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1571</v>
+        <v>1599</v>
       </c>
       <c r="D113" t="s">
         <v>91</v>
       </c>
       <c r="E113" t="s">
-        <v>1572</v>
+        <v>1600</v>
       </c>
       <c r="F113" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G113" t="s">
         <v>94</v>
       </c>
       <c r="H113" t="s">
-        <v>1533</v>
+        <v>1563</v>
       </c>
       <c r="I113" t="s">
-        <v>1573</v>
+        <v>1601</v>
       </c>
       <c r="L113" t="s">
-        <v>1574</v>
+        <v>1602</v>
       </c>
       <c r="Q113" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R113" t="s">
         <v>101</v>
       </c>
-      <c r="T113" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T113">
+        <f>V113-T113</f>
       </c>
       <c r="U113" t="s">
-        <v>1574</v>
+        <v>1602</v>
       </c>
       <c r="AC113" t="s">
-        <v>1575</v>
+        <v>1603</v>
       </c>
       <c r="AD113" t="s">
-        <v>1576</v>
+        <v>1175</v>
       </c>
       <c r="AE113" t="s">
-        <v>1577</v>
+        <v>1604</v>
+      </c>
+      <c r="AO113" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AQ113" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AU113" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AW113" t="s">
+        <v>1570</v>
       </c>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1578</v>
+        <v>1607</v>
       </c>
       <c r="D114" t="s">
         <v>91</v>
       </c>
       <c r="E114" t="s">
-        <v>1579</v>
+        <v>1608</v>
       </c>
       <c r="F114" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G114" t="s">
         <v>94</v>
       </c>
       <c r="H114" t="s">
-        <v>1533</v>
+        <v>1563</v>
       </c>
       <c r="I114" t="s">
-        <v>1580</v>
+        <v>1609</v>
       </c>
       <c r="L114" t="s">
-        <v>1581</v>
+        <v>1610</v>
       </c>
       <c r="Q114" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R114" t="s">
         <v>101</v>
       </c>
-      <c r="T114" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T114">
+        <f>V114-T114</f>
       </c>
       <c r="U114" t="s">
-        <v>1581</v>
+        <v>1610</v>
       </c>
       <c r="AC114" t="s">
-        <v>1582</v>
+        <v>264</v>
       </c>
       <c r="AD114" t="s">
-        <v>1583</v>
+        <v>1490</v>
       </c>
       <c r="AE114" t="s">
-        <v>1584</v>
-      </c>
-      <c r="BI114" t="s">
-        <v>1585</v>
-      </c>
-      <c r="BJ114" t="s">
-        <v>1586</v>
-      </c>
-      <c r="BK114" t="s">
-        <v>1587</v>
-      </c>
-      <c r="BO114" t="s">
-        <v>1588</v>
-      </c>
-      <c r="BP114" t="s">
-        <v>1589</v>
-      </c>
-      <c r="BQ114" t="s">
-        <v>1590</v>
+        <v>1611</v>
+      </c>
+      <c r="AO114" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AQ114" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AU114" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AW114" t="s">
+        <v>1614</v>
       </c>
     </row>
-    <row r="115" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1591</v>
+        <v>1615</v>
       </c>
       <c r="D115" t="s">
         <v>91</v>
       </c>
       <c r="E115" t="s">
-        <v>1592</v>
+        <v>1616</v>
       </c>
       <c r="F115" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G115" t="s">
         <v>94</v>
       </c>
       <c r="H115" t="s">
-        <v>1542</v>
+        <v>1563</v>
       </c>
       <c r="I115" t="s">
-        <v>1593</v>
+        <v>1617</v>
       </c>
       <c r="L115" t="s">
-        <v>1594</v>
+        <v>1618</v>
       </c>
       <c r="Q115" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R115" t="s">
         <v>101</v>
       </c>
-      <c r="T115" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T115">
+        <f>V115-T115</f>
       </c>
       <c r="U115" t="s">
-        <v>1594</v>
+        <v>1618</v>
       </c>
       <c r="AC115" t="s">
-        <v>1595</v>
+        <v>1619</v>
       </c>
       <c r="AD115" t="s">
-        <v>1596</v>
+        <v>1620</v>
       </c>
       <c r="AE115" t="s">
-        <v>1597</v>
+        <v>1621</v>
+      </c>
+      <c r="AO115" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AQ115" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AU115" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AW115" t="s">
+        <v>1624</v>
       </c>
       <c r="BI115" t="s">
-        <v>1598</v>
+        <v>1625</v>
       </c>
       <c r="BJ115" t="s">
-        <v>1599</v>
+        <v>1626</v>
       </c>
       <c r="BK115" t="s">
-        <v>1600</v>
+        <v>1627</v>
       </c>
       <c r="BO115" t="s">
-        <v>1601</v>
+        <v>1628</v>
       </c>
       <c r="BP115" t="s">
-        <v>1237</v>
+        <v>1629</v>
       </c>
       <c r="BQ115" t="s">
-        <v>1602</v>
+        <v>1630</v>
       </c>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1603</v>
+        <v>1631</v>
       </c>
       <c r="D116" t="s">
         <v>91</v>
       </c>
       <c r="E116" t="s">
-        <v>1604</v>
+        <v>1632</v>
       </c>
       <c r="F116" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G116" t="s">
         <v>94</v>
       </c>
       <c r="H116" t="s">
-        <v>1542</v>
+        <v>1573</v>
       </c>
       <c r="I116" t="s">
-        <v>1605</v>
+        <v>1633</v>
       </c>
       <c r="L116" t="s">
-        <v>1606</v>
+        <v>1634</v>
       </c>
       <c r="Q116" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R116" t="s">
         <v>101</v>
       </c>
-      <c r="T116" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T116">
+        <f>V116-T116</f>
       </c>
       <c r="U116" t="s">
-        <v>1606</v>
+        <v>1634</v>
       </c>
       <c r="AC116" t="s">
-        <v>1607</v>
+        <v>849</v>
       </c>
       <c r="AD116" t="s">
-        <v>1608</v>
+        <v>933</v>
       </c>
       <c r="AE116" t="s">
-        <v>1609</v>
+        <v>1074</v>
+      </c>
+      <c r="AO116" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AQ116" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AU116" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AW116" t="s">
+        <v>1637</v>
+      </c>
+      <c r="BI116" t="s">
+        <v>1638</v>
+      </c>
+      <c r="BJ116" t="s">
+        <v>1639</v>
+      </c>
+      <c r="BK116" t="s">
+        <v>1640</v>
+      </c>
+      <c r="BO116" t="s">
+        <v>1641</v>
+      </c>
+      <c r="BP116" t="s">
+        <v>1238</v>
+      </c>
+      <c r="BQ116" t="s">
+        <v>1642</v>
       </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1610</v>
+        <v>1643</v>
       </c>
       <c r="D117" t="s">
         <v>91</v>
       </c>
+      <c r="E117" t="s">
+        <v>1644</v>
+      </c>
       <c r="F117" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G117" t="s">
         <v>94</v>
       </c>
       <c r="H117" t="s">
-        <v>1542</v>
+        <v>1573</v>
       </c>
       <c r="I117" t="s">
-        <v>1611</v>
+        <v>1645</v>
       </c>
       <c r="L117" t="s">
-        <v>1612</v>
+        <v>1646</v>
       </c>
       <c r="Q117" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R117" t="s">
         <v>101</v>
       </c>
-      <c r="T117" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T117">
+        <f>V117-T117</f>
       </c>
       <c r="U117" t="s">
-        <v>1612</v>
+        <v>1646</v>
       </c>
       <c r="AC117" t="s">
-        <v>1613</v>
+        <v>553</v>
       </c>
       <c r="AD117" t="s">
-        <v>1614</v>
+        <v>191</v>
       </c>
       <c r="AE117" t="s">
-        <v>1615</v>
+        <v>554</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AU117" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AW117" t="s">
+        <v>1649</v>
       </c>
     </row>
-    <row r="118" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1616</v>
+        <v>1650</v>
       </c>
       <c r="D118" t="s">
         <v>91</v>
       </c>
-      <c r="E118" t="s">
-        <v>1617</v>
-      </c>
       <c r="F118" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G118" t="s">
         <v>94</v>
       </c>
       <c r="H118" t="s">
-        <v>1533</v>
+        <v>1573</v>
       </c>
       <c r="I118" t="s">
-        <v>1618</v>
+        <v>1651</v>
       </c>
       <c r="L118" t="s">
-        <v>1619</v>
+        <v>1652</v>
       </c>
       <c r="Q118" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R118" t="s">
         <v>101</v>
       </c>
-      <c r="T118" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T118">
+        <f>V118-T118</f>
       </c>
       <c r="U118" t="s">
-        <v>1619</v>
+        <v>1652</v>
       </c>
       <c r="AC118" t="s">
-        <v>1620</v>
+        <v>1653</v>
       </c>
       <c r="AD118" t="s">
-        <v>1621</v>
+        <v>146</v>
       </c>
       <c r="AE118" t="s">
-        <v>1622</v>
-      </c>
-      <c r="BI118" t="s">
-        <v>1623</v>
-      </c>
-      <c r="BJ118" t="s">
-        <v>1624</v>
-      </c>
-      <c r="BK118" t="s">
-        <v>1625</v>
-      </c>
-      <c r="BO118" t="s">
-        <v>1626</v>
-      </c>
-      <c r="BP118" t="s">
-        <v>1627</v>
-      </c>
-      <c r="BQ118" t="s">
-        <v>1628</v>
+        <v>107</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AW118" t="s">
+        <v>1656</v>
       </c>
     </row>
-    <row r="119" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1629</v>
+        <v>1657</v>
       </c>
       <c r="D119" t="s">
         <v>91</v>
       </c>
       <c r="E119" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="F119" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G119" t="s">
         <v>94</v>
       </c>
       <c r="H119" t="s">
-        <v>1542</v>
+        <v>1563</v>
       </c>
       <c r="I119" t="s">
-        <v>1631</v>
+        <v>1659</v>
       </c>
       <c r="L119" t="s">
-        <v>918</v>
+        <v>1660</v>
       </c>
       <c r="Q119" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R119" t="s">
         <v>101</v>
       </c>
-      <c r="T119" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T119">
+        <f>V119-T119</f>
       </c>
       <c r="U119" t="s">
-        <v>918</v>
+        <v>1660</v>
       </c>
       <c r="AC119" t="s">
-        <v>1632</v>
+        <v>1661</v>
       </c>
       <c r="AD119" t="s">
-        <v>1632</v>
+        <v>1053</v>
       </c>
       <c r="AE119" t="s">
-        <v>1633</v>
+        <v>1662</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AW119" t="s">
+        <v>1665</v>
+      </c>
+      <c r="BI119" t="s">
+        <v>1666</v>
+      </c>
+      <c r="BJ119" t="s">
+        <v>1667</v>
+      </c>
+      <c r="BK119" t="s">
+        <v>1668</v>
+      </c>
+      <c r="BO119" t="s">
+        <v>1669</v>
+      </c>
+      <c r="BP119" t="s">
+        <v>1670</v>
+      </c>
+      <c r="BQ119" t="s">
+        <v>1671</v>
       </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1634</v>
+        <v>1672</v>
       </c>
       <c r="D120" t="s">
         <v>91</v>
       </c>
       <c r="E120" t="s">
-        <v>1635</v>
+        <v>1673</v>
       </c>
       <c r="F120" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G120" t="s">
         <v>94</v>
       </c>
       <c r="H120" t="s">
-        <v>1533</v>
+        <v>1573</v>
       </c>
       <c r="I120" t="s">
-        <v>1636</v>
+        <v>1674</v>
       </c>
       <c r="L120" t="s">
-        <v>1637</v>
+        <v>918</v>
       </c>
       <c r="Q120" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R120" t="s">
         <v>101</v>
       </c>
-      <c r="T120" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T120">
+        <f>V120-T120</f>
       </c>
       <c r="U120" t="s">
-        <v>1637</v>
+        <v>918</v>
       </c>
       <c r="AC120" t="s">
-        <v>1638</v>
+        <v>314</v>
       </c>
       <c r="AD120" t="s">
-        <v>1576</v>
+        <v>314</v>
       </c>
       <c r="AE120" t="s">
-        <v>1622</v>
+        <v>604</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AW120" t="s">
+        <v>1579</v>
       </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1639</v>
+        <v>1677</v>
       </c>
       <c r="D121" t="s">
         <v>91</v>
       </c>
       <c r="E121" t="s">
-        <v>1640</v>
+        <v>1678</v>
       </c>
       <c r="F121" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G121" t="s">
         <v>94</v>
       </c>
       <c r="H121" t="s">
-        <v>1533</v>
+        <v>1563</v>
       </c>
       <c r="I121" t="s">
-        <v>1641</v>
+        <v>1679</v>
       </c>
       <c r="L121" t="s">
-        <v>1642</v>
+        <v>1680</v>
       </c>
       <c r="Q121" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R121" t="s">
         <v>101</v>
       </c>
-      <c r="T121" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T121">
+        <f>V121-T121</f>
       </c>
       <c r="U121" t="s">
-        <v>1642</v>
+        <v>1680</v>
       </c>
       <c r="AC121" t="s">
-        <v>1643</v>
+        <v>690</v>
       </c>
       <c r="AD121" t="s">
-        <v>1644</v>
+        <v>1490</v>
       </c>
       <c r="AE121" t="s">
-        <v>1645</v>
-      </c>
-      <c r="BI121" t="s">
-        <v>1646</v>
-      </c>
-      <c r="BJ121" t="s">
-        <v>1647</v>
-      </c>
-      <c r="BK121" t="s">
-        <v>1648</v>
-      </c>
-      <c r="BO121" t="s">
-        <v>1649</v>
-      </c>
-      <c r="BP121" t="s">
-        <v>1650</v>
-      </c>
-      <c r="BQ121" t="s">
-        <v>1651</v>
+        <v>1662</v>
+      </c>
+      <c r="AO121" t="s">
+        <v>1681</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AU121" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AW121" t="s">
+        <v>1570</v>
       </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1652</v>
+        <v>1683</v>
       </c>
       <c r="D122" t="s">
         <v>91</v>
       </c>
       <c r="E122" t="s">
-        <v>1640</v>
+        <v>1684</v>
       </c>
       <c r="F122" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G122" t="s">
         <v>94</v>
       </c>
       <c r="H122" t="s">
-        <v>1533</v>
+        <v>1563</v>
       </c>
       <c r="I122" t="s">
-        <v>1653</v>
+        <v>1685</v>
       </c>
       <c r="L122" t="s">
-        <v>1654</v>
+        <v>1686</v>
       </c>
       <c r="Q122" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R122" t="s">
         <v>101</v>
       </c>
-      <c r="T122" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T122">
+        <f>V122-T122</f>
       </c>
       <c r="U122" t="s">
-        <v>1654</v>
+        <v>1686</v>
       </c>
       <c r="AC122" t="s">
-        <v>1655</v>
+        <v>1687</v>
       </c>
       <c r="AD122" t="s">
-        <v>1638</v>
+        <v>1688</v>
       </c>
       <c r="AE122" t="s">
-        <v>1656</v>
+        <v>1689</v>
+      </c>
+      <c r="AO122" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ122" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU122" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AW122" t="s">
+        <v>1579</v>
       </c>
       <c r="BI122" t="s">
-        <v>1657</v>
+        <v>1690</v>
       </c>
       <c r="BJ122" t="s">
-        <v>1658</v>
+        <v>1691</v>
       </c>
       <c r="BK122" t="s">
-        <v>1659</v>
+        <v>1692</v>
       </c>
       <c r="BO122" t="s">
-        <v>1660</v>
+        <v>1693</v>
       </c>
       <c r="BP122" t="s">
-        <v>1661</v>
+        <v>1694</v>
       </c>
       <c r="BQ122" t="s">
-        <v>1662</v>
+        <v>1695</v>
       </c>
     </row>
-    <row r="123" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1663</v>
+        <v>1696</v>
       </c>
       <c r="D123" t="s">
         <v>91</v>
       </c>
       <c r="E123" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="F123" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G123" t="s">
         <v>94</v>
       </c>
       <c r="H123" t="s">
-        <v>1542</v>
+        <v>1563</v>
       </c>
       <c r="I123" t="s">
-        <v>1665</v>
+        <v>1697</v>
       </c>
       <c r="L123" t="s">
-        <v>1666</v>
+        <v>1698</v>
       </c>
       <c r="Q123" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R123" t="s">
         <v>101</v>
       </c>
-      <c r="T123" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T123">
+        <f>V123-T123</f>
       </c>
       <c r="U123" t="s">
-        <v>1666</v>
+        <v>1698</v>
       </c>
       <c r="AC123" t="s">
-        <v>1667</v>
+        <v>657</v>
       </c>
       <c r="AD123" t="s">
-        <v>1668</v>
+        <v>690</v>
       </c>
       <c r="AE123" t="s">
-        <v>1669</v>
+        <v>1699</v>
+      </c>
+      <c r="AO123" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AQ123" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AU123" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AW123" t="s">
+        <v>1579</v>
       </c>
       <c r="BI123" t="s">
-        <v>1670</v>
+        <v>1702</v>
       </c>
       <c r="BJ123" t="s">
-        <v>1671</v>
+        <v>1703</v>
       </c>
       <c r="BK123" t="s">
-        <v>1672</v>
+        <v>1704</v>
       </c>
       <c r="BO123" t="s">
-        <v>1673</v>
+        <v>1705</v>
       </c>
       <c r="BP123" t="s">
-        <v>1674</v>
+        <v>1706</v>
       </c>
       <c r="BQ123" t="s">
-        <v>1675</v>
+        <v>1707</v>
       </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1676</v>
+        <v>1708</v>
       </c>
       <c r="D124" t="s">
         <v>91</v>
       </c>
       <c r="E124" t="s">
-        <v>1677</v>
+        <v>1709</v>
       </c>
       <c r="F124" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G124" t="s">
         <v>94</v>
       </c>
       <c r="H124" t="s">
-        <v>1678</v>
+        <v>1573</v>
       </c>
       <c r="I124" t="s">
-        <v>1679</v>
+        <v>1710</v>
       </c>
       <c r="L124" t="s">
-        <v>1680</v>
+        <v>1711</v>
       </c>
       <c r="Q124" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R124" t="s">
         <v>101</v>
       </c>
-      <c r="T124" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T124">
+        <f>V124-T124</f>
       </c>
       <c r="U124" t="s">
-        <v>1680</v>
+        <v>1711</v>
       </c>
       <c r="AC124" t="s">
-        <v>1681</v>
+        <v>623</v>
       </c>
       <c r="AD124" t="s">
-        <v>1681</v>
+        <v>1712</v>
       </c>
       <c r="AE124" t="s">
-        <v>1681</v>
+        <v>1713</v>
+      </c>
+      <c r="AO124" t="s">
+        <v>1714</v>
+      </c>
+      <c r="AQ124" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AU124" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AW124" t="s">
+        <v>1716</v>
       </c>
       <c r="BI124" t="s">
-        <v>1682</v>
+        <v>1717</v>
       </c>
       <c r="BJ124" t="s">
-        <v>1683</v>
+        <v>1718</v>
       </c>
       <c r="BK124" t="s">
-        <v>1684</v>
+        <v>1719</v>
       </c>
       <c r="BO124" t="s">
-        <v>193</v>
+        <v>1720</v>
       </c>
       <c r="BP124" t="s">
-        <v>318</v>
+        <v>1721</v>
       </c>
       <c r="BQ124" t="s">
-        <v>785</v>
+        <v>1722</v>
       </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1685</v>
+        <v>1723</v>
       </c>
       <c r="D125" t="s">
         <v>91</v>
       </c>
       <c r="E125" t="s">
-        <v>1686</v>
+        <v>1724</v>
       </c>
       <c r="F125" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G125" t="s">
         <v>94</v>
       </c>
       <c r="H125" t="s">
-        <v>1533</v>
+        <v>1725</v>
       </c>
       <c r="I125" t="s">
-        <v>1687</v>
+        <v>1726</v>
       </c>
       <c r="L125" t="s">
-        <v>1688</v>
+        <v>1727</v>
       </c>
       <c r="Q125" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R125" t="s">
         <v>101</v>
       </c>
-      <c r="T125" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T125">
+        <f>V125-T125</f>
       </c>
       <c r="U125" t="s">
-        <v>1688</v>
+        <v>1727</v>
       </c>
       <c r="AC125" t="s">
-        <v>1547</v>
+        <v>162</v>
       </c>
       <c r="AD125" t="s">
-        <v>1689</v>
+        <v>162</v>
       </c>
       <c r="AE125" t="s">
-        <v>1690</v>
+        <v>162</v>
+      </c>
+      <c r="AO125" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AQ125" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AU125" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AW125" t="s">
+        <v>1730</v>
+      </c>
+      <c r="BI125" t="s">
+        <v>1731</v>
+      </c>
+      <c r="BJ125" t="s">
+        <v>1732</v>
+      </c>
+      <c r="BK125" t="s">
+        <v>1733</v>
+      </c>
+      <c r="BO125" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP125" t="s">
+        <v>318</v>
+      </c>
+      <c r="BQ125" t="s">
+        <v>785</v>
       </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1691</v>
+        <v>1734</v>
       </c>
       <c r="D126" t="s">
         <v>91</v>
       </c>
       <c r="E126" t="s">
-        <v>1692</v>
+        <v>1735</v>
       </c>
       <c r="F126" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G126" t="s">
         <v>94</v>
       </c>
       <c r="H126" t="s">
-        <v>1533</v>
+        <v>1563</v>
       </c>
       <c r="I126" t="s">
-        <v>1693</v>
+        <v>1736</v>
       </c>
       <c r="L126" t="s">
-        <v>1694</v>
+        <v>1737</v>
       </c>
       <c r="Q126" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R126" t="s">
         <v>101</v>
       </c>
-      <c r="T126" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T126">
+        <f>V126-T126</f>
       </c>
       <c r="U126" t="s">
-        <v>1694</v>
+        <v>1737</v>
       </c>
       <c r="AC126" t="s">
-        <v>1545</v>
+        <v>127</v>
       </c>
       <c r="AD126" t="s">
-        <v>1695</v>
+        <v>1470</v>
       </c>
       <c r="AE126" t="s">
-        <v>1696</v>
-      </c>
-      <c r="BI126" t="s">
-        <v>1697</v>
-      </c>
-      <c r="BJ126" t="s">
-        <v>1698</v>
-      </c>
-      <c r="BK126" t="s">
-        <v>1699</v>
-      </c>
-      <c r="BO126" t="s">
-        <v>1700</v>
-      </c>
-      <c r="BP126" t="s">
-        <v>1701</v>
-      </c>
-      <c r="BQ126" t="s">
-        <v>1702</v>
+        <v>1738</v>
+      </c>
+      <c r="AO126" t="s">
+        <v>1739</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AU126" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AW126" t="s">
+        <v>1649</v>
       </c>
     </row>
-    <row r="127" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1703</v>
+        <v>1741</v>
       </c>
       <c r="D127" t="s">
         <v>91</v>
       </c>
       <c r="E127" t="s">
-        <v>1704</v>
+        <v>1742</v>
       </c>
       <c r="F127" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G127" t="s">
         <v>94</v>
       </c>
       <c r="H127" t="s">
-        <v>1533</v>
+        <v>1563</v>
       </c>
       <c r="I127" t="s">
-        <v>1705</v>
+        <v>1743</v>
       </c>
       <c r="L127" t="s">
-        <v>1706</v>
+        <v>1744</v>
       </c>
       <c r="Q127" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R127" t="s">
         <v>101</v>
       </c>
-      <c r="T127" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T127">
+        <f>V127-T127</f>
       </c>
       <c r="U127" t="s">
-        <v>1706</v>
+        <v>1744</v>
       </c>
       <c r="AC127" t="s">
-        <v>1707</v>
+        <v>106</v>
       </c>
       <c r="AD127" t="s">
-        <v>1708</v>
+        <v>344</v>
       </c>
       <c r="AE127" t="s">
-        <v>1709</v>
+        <v>1245</v>
+      </c>
+      <c r="AO127" t="s">
+        <v>1745</v>
+      </c>
+      <c r="AQ127" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AU127" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AW127" t="s">
+        <v>1747</v>
       </c>
       <c r="BI127" t="s">
-        <v>1710</v>
+        <v>1748</v>
       </c>
       <c r="BJ127" t="s">
-        <v>1711</v>
+        <v>1749</v>
       </c>
       <c r="BK127" t="s">
-        <v>1712</v>
+        <v>1750</v>
       </c>
       <c r="BO127" t="s">
-        <v>1713</v>
+        <v>1751</v>
       </c>
       <c r="BP127" t="s">
-        <v>1714</v>
+        <v>1752</v>
       </c>
       <c r="BQ127" t="s">
-        <v>1715</v>
+        <v>1753</v>
       </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1716</v>
+        <v>1754</v>
       </c>
       <c r="D128" t="s">
         <v>91</v>
       </c>
       <c r="E128" t="s">
-        <v>1717</v>
+        <v>1755</v>
       </c>
       <c r="F128" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G128" t="s">
         <v>94</v>
       </c>
       <c r="H128" t="s">
-        <v>1533</v>
+        <v>1563</v>
       </c>
       <c r="I128" t="s">
-        <v>1718</v>
+        <v>1756</v>
       </c>
       <c r="L128" t="s">
-        <v>1719</v>
+        <v>1757</v>
       </c>
       <c r="Q128" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R128" t="s">
         <v>101</v>
       </c>
-      <c r="T128" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T128">
+        <f>V128-T128</f>
       </c>
       <c r="U128" t="s">
-        <v>1719</v>
+        <v>1757</v>
       </c>
       <c r="AC128" t="s">
-        <v>1720</v>
+        <v>1101</v>
       </c>
       <c r="AD128" t="s">
-        <v>1721</v>
+        <v>521</v>
       </c>
       <c r="AE128" t="s">
-        <v>1722</v>
+        <v>622</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AU128" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AW128" t="s">
+        <v>1760</v>
+      </c>
+      <c r="BI128" t="s">
+        <v>1761</v>
+      </c>
+      <c r="BJ128" t="s">
+        <v>1762</v>
+      </c>
+      <c r="BK128" t="s">
+        <v>1763</v>
+      </c>
+      <c r="BO128" t="s">
+        <v>1764</v>
+      </c>
+      <c r="BP128" t="s">
+        <v>1765</v>
+      </c>
+      <c r="BQ128" t="s">
+        <v>1766</v>
       </c>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1723</v>
+        <v>1767</v>
       </c>
       <c r="D129" t="s">
         <v>91</v>
       </c>
       <c r="E129" t="s">
-        <v>1724</v>
+        <v>1768</v>
       </c>
       <c r="F129" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G129" t="s">
         <v>94</v>
       </c>
       <c r="H129" t="s">
-        <v>1542</v>
+        <v>1563</v>
       </c>
       <c r="I129" t="s">
-        <v>1725</v>
+        <v>1769</v>
       </c>
       <c r="L129" t="s">
-        <v>1726</v>
+        <v>1770</v>
       </c>
       <c r="Q129" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R129" t="s">
         <v>101</v>
       </c>
-      <c r="T129" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T129">
+        <f>V129-T129</f>
       </c>
       <c r="U129" t="s">
-        <v>1726</v>
+        <v>1770</v>
       </c>
       <c r="AC129" t="s">
-        <v>1569</v>
+        <v>967</v>
       </c>
       <c r="AD129" t="s">
-        <v>1727</v>
+        <v>490</v>
       </c>
       <c r="AE129" t="s">
-        <v>1728</v>
-      </c>
-      <c r="BI129" t="s">
-        <v>1729</v>
-      </c>
-      <c r="BJ129" t="s">
-        <v>1730</v>
-      </c>
-      <c r="BK129" t="s">
-        <v>1731</v>
-      </c>
-      <c r="BO129" t="s">
-        <v>1732</v>
-      </c>
-      <c r="BP129" t="s">
-        <v>1733</v>
-      </c>
-      <c r="BQ129" t="s">
-        <v>1734</v>
+        <v>1771</v>
+      </c>
+      <c r="AO129" t="s">
+        <v>1772</v>
+      </c>
+      <c r="AQ129" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AU129" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AW129" t="s">
+        <v>1656</v>
       </c>
     </row>
-    <row r="130" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1735</v>
+        <v>1774</v>
       </c>
       <c r="D130" t="s">
         <v>91</v>
       </c>
       <c r="E130" t="s">
-        <v>1736</v>
+        <v>1775</v>
+      </c>
+      <c r="F130" t="s">
+        <v>93</v>
       </c>
       <c r="G130" t="s">
         <v>94</v>
       </c>
+      <c r="H130" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1776</v>
+      </c>
       <c r="L130" t="s">
-        <v>1737</v>
+        <v>1777</v>
       </c>
       <c r="Q130" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R130" t="s">
         <v>101</v>
       </c>
-      <c r="T130" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T130">
+        <f>V130-T130</f>
       </c>
       <c r="U130" t="s">
-        <v>1737</v>
+        <v>1777</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>673</v>
+      </c>
+      <c r="AO130" t="s">
+        <v>1778</v>
+      </c>
+      <c r="AQ130" t="s">
+        <v>1779</v>
+      </c>
+      <c r="AU130" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AW130" t="s">
+        <v>1730</v>
+      </c>
+      <c r="BI130" t="s">
+        <v>1780</v>
+      </c>
+      <c r="BJ130" t="s">
+        <v>1781</v>
+      </c>
+      <c r="BK130" t="s">
+        <v>1782</v>
+      </c>
+      <c r="BO130" t="s">
+        <v>1783</v>
+      </c>
+      <c r="BP130" t="s">
+        <v>1784</v>
+      </c>
+      <c r="BQ130" t="s">
+        <v>1785</v>
       </c>
     </row>
-    <row r="131" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1738</v>
+        <v>1786</v>
       </c>
       <c r="D131" t="s">
         <v>91</v>
       </c>
       <c r="E131" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1532</v>
+        <v>1787</v>
       </c>
       <c r="G131" t="s">
         <v>94</v>
       </c>
-      <c r="H131" t="s">
-        <v>1542</v>
-      </c>
-      <c r="I131" t="s">
-        <v>1740</v>
-      </c>
       <c r="L131" t="s">
-        <v>1741</v>
+        <v>1788</v>
       </c>
       <c r="Q131" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R131" t="s">
         <v>101</v>
       </c>
-      <c r="T131" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T131">
+        <f>V131-T131</f>
       </c>
       <c r="U131" t="s">
-        <v>1741</v>
-      </c>
-      <c r="AC131" t="s">
-        <v>1742</v>
-      </c>
-      <c r="AD131" t="s">
-        <v>1655</v>
-      </c>
-      <c r="AE131" t="s">
-        <v>1743</v>
-      </c>
-      <c r="BI131" t="s">
-        <v>1744</v>
-      </c>
-      <c r="BJ131" t="s">
-        <v>1745</v>
-      </c>
-      <c r="BK131" t="s">
-        <v>1746</v>
-      </c>
-      <c r="BO131" t="s">
-        <v>1747</v>
-      </c>
-      <c r="BP131" t="s">
-        <v>1748</v>
-      </c>
-      <c r="BQ131" t="s">
-        <v>1749</v>
+        <v>1788</v>
       </c>
     </row>
-    <row r="132" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1750</v>
+        <v>1789</v>
       </c>
       <c r="D132" t="s">
         <v>91</v>
       </c>
+      <c r="E132" t="s">
+        <v>1790</v>
+      </c>
       <c r="F132" t="s">
-        <v>1532</v>
+        <v>93</v>
       </c>
       <c r="G132" t="s">
         <v>94</v>
       </c>
       <c r="H132" t="s">
-        <v>1542</v>
+        <v>1573</v>
       </c>
       <c r="I132" t="s">
-        <v>1751</v>
+        <v>1791</v>
       </c>
       <c r="L132" t="s">
-        <v>1752</v>
+        <v>1792</v>
       </c>
       <c r="Q132" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="R132" t="s">
         <v>101</v>
       </c>
-      <c r="T132" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="T132">
+        <f>V132-T132</f>
       </c>
       <c r="U132" t="s">
-        <v>1752</v>
+        <v>1792</v>
       </c>
       <c r="AC132" t="s">
-        <v>1753</v>
+        <v>1288</v>
       </c>
       <c r="AD132" t="s">
-        <v>1754</v>
+        <v>657</v>
       </c>
       <c r="AE132" t="s">
-        <v>1755</v>
+        <v>1793</v>
+      </c>
+      <c r="AO132" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AQ132" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AU132" t="s">
+        <v>1796</v>
+      </c>
+      <c r="AW132" t="s">
+        <v>1796</v>
       </c>
       <c r="BI132" t="s">
-        <v>1756</v>
+        <v>1797</v>
       </c>
       <c r="BJ132" t="s">
-        <v>1757</v>
+        <v>1798</v>
       </c>
       <c r="BK132" t="s">
-        <v>1758</v>
+        <v>1799</v>
       </c>
       <c r="BO132" t="s">
-        <v>1759</v>
+        <v>1800</v>
       </c>
       <c r="BP132" t="s">
-        <v>1760</v>
+        <v>1801</v>
       </c>
       <c r="BQ132" t="s">
-        <v>1761</v>
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="133" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D133" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" t="s">
+        <v>93</v>
+      </c>
+      <c r="G133" t="s">
+        <v>94</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1804</v>
+      </c>
+      <c r="L133" t="s">
+        <v>1805</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R133" t="s">
+        <v>101</v>
+      </c>
+      <c r="T133">
+        <f>V133-T133</f>
+      </c>
+      <c r="U133" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AO133" t="s">
+        <v>1807</v>
+      </c>
+      <c r="AQ133" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AU133" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AW133" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BI133" t="s">
+        <v>1809</v>
+      </c>
+      <c r="BJ133" t="s">
+        <v>1810</v>
+      </c>
+      <c r="BK133" t="s">
+        <v>1811</v>
+      </c>
+      <c r="BO133" t="s">
+        <v>1812</v>
+      </c>
+      <c r="BP133" t="s">
+        <v>1813</v>
+      </c>
+      <c r="BQ133" t="s">
+        <v>1814</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/archivos/ExcelResumenFactura.xlsx
+++ b/archivos/ExcelResumenFactura.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="1923">
   <si>
     <t>Factura</t>
   </si>
@@ -3703,6 +3703,15 @@
     <t>FE24321461336989</t>
   </si>
   <si>
+    <t>16.02.2024</t>
+  </si>
+  <si>
+    <t>17.03.2024</t>
+  </si>
+  <si>
+    <t>82,03</t>
+  </si>
+  <si>
     <t>FABIUSENERGYSL</t>
   </si>
   <si>
@@ -3742,6 +3751,15 @@
     <t>FE24321461336990</t>
   </si>
   <si>
+    <t>10.02.2024</t>
+  </si>
+  <si>
+    <t>07.03.2024</t>
+  </si>
+  <si>
+    <t>74,04</t>
+  </si>
+  <si>
     <t>61,19</t>
   </si>
   <si>
@@ -3760,6 +3778,9 @@
     <t>FE24321461336996</t>
   </si>
   <si>
+    <t>53,68</t>
+  </si>
+  <si>
     <t>44,36</t>
   </si>
   <si>
@@ -3799,6 +3820,15 @@
     <t>FE24321461336997</t>
   </si>
   <si>
+    <t>11.02.2024</t>
+  </si>
+  <si>
+    <t>11.03.2024</t>
+  </si>
+  <si>
+    <t>39,52</t>
+  </si>
+  <si>
     <t>32,66</t>
   </si>
   <si>
@@ -3829,6 +3859,15 @@
     <t>FE24321461336998</t>
   </si>
   <si>
+    <t>14.02.2024</t>
+  </si>
+  <si>
+    <t>12.03.2024</t>
+  </si>
+  <si>
+    <t>100,10</t>
+  </si>
+  <si>
     <t>82,73</t>
   </si>
   <si>
@@ -3868,6 +3907,12 @@
     <t>FE24321461336999</t>
   </si>
   <si>
+    <t>13.02.2024</t>
+  </si>
+  <si>
+    <t>74,73</t>
+  </si>
+  <si>
     <t>61,76</t>
   </si>
   <si>
@@ -3904,6 +3949,9 @@
     <t>FE24321461337002</t>
   </si>
   <si>
+    <t>46,67</t>
+  </si>
+  <si>
     <t>38,57</t>
   </si>
   <si>
@@ -3940,6 +3988,9 @@
     <t>FE24321461657236</t>
   </si>
   <si>
+    <t>151,03</t>
+  </si>
+  <si>
     <t>124,82</t>
   </si>
   <si>
@@ -3979,6 +4030,15 @@
     <t>FE24321461657237</t>
   </si>
   <si>
+    <t>01.03.2024</t>
+  </si>
+  <si>
+    <t>15.03.2024</t>
+  </si>
+  <si>
+    <t>34,74</t>
+  </si>
+  <si>
     <t>28,71</t>
   </si>
   <si>
@@ -4015,6 +4075,15 @@
     <t>FE24321461657238</t>
   </si>
   <si>
+    <t>04.03.2024</t>
+  </si>
+  <si>
+    <t>14.03.2024</t>
+  </si>
+  <si>
+    <t>28,68</t>
+  </si>
+  <si>
     <t>23,70</t>
   </si>
   <si>
@@ -4048,6 +4117,12 @@
     <t>FE24321461657243</t>
   </si>
   <si>
+    <t>12.02.2024</t>
+  </si>
+  <si>
+    <t>75,04</t>
+  </si>
+  <si>
     <t>62,02</t>
   </si>
   <si>
@@ -4084,6 +4159,12 @@
     <t>FE24321461657245</t>
   </si>
   <si>
+    <t>20.02.2024</t>
+  </si>
+  <si>
+    <t>55,33</t>
+  </si>
+  <si>
     <t>45,73</t>
   </si>
   <si>
@@ -4120,6 +4201,15 @@
     <t>FE24321461657246</t>
   </si>
   <si>
+    <t>23.02.2024</t>
+  </si>
+  <si>
+    <t>18.03.2024</t>
+  </si>
+  <si>
+    <t>154,77</t>
+  </si>
+  <si>
     <t>127,91</t>
   </si>
   <si>
@@ -4159,6 +4249,9 @@
     <t>FE24321461657263</t>
   </si>
   <si>
+    <t>87,47</t>
+  </si>
+  <si>
     <t>72,29</t>
   </si>
   <si>
@@ -4660,15 +4753,30 @@
     <t>61044928630</t>
   </si>
   <si>
+    <t>29.02.2024</t>
+  </si>
+  <si>
+    <t>31.03.2024</t>
+  </si>
+  <si>
     <t>78,30</t>
   </si>
   <si>
     <t>FABIUS ENERGY SL</t>
   </si>
   <si>
+    <t>64,71</t>
+  </si>
+  <si>
     <t>1,79</t>
   </si>
   <si>
+    <t>2,32</t>
+  </si>
+  <si>
+    <t>1,38</t>
+  </si>
+  <si>
     <t>1,437</t>
   </si>
   <si>
@@ -4708,9 +4816,21 @@
     <t>61039306016</t>
   </si>
   <si>
+    <t>07.10.2023</t>
+  </si>
+  <si>
+    <t>08.11.2023</t>
+  </si>
+  <si>
     <t>132,58</t>
   </si>
   <si>
+    <t>126,27</t>
+  </si>
+  <si>
+    <t>6,31</t>
+  </si>
+  <si>
     <t>205</t>
   </si>
   <si>
@@ -4738,9 +4858,21 @@
     <t>61039264556</t>
   </si>
   <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>03.11.2023</t>
+  </si>
+  <si>
     <t>31,77</t>
   </si>
   <si>
+    <t>30,26</t>
+  </si>
+  <si>
+    <t>1,51</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
@@ -4783,6 +4915,12 @@
     <t>177,38</t>
   </si>
   <si>
+    <t>168,93</t>
+  </si>
+  <si>
+    <t>8,45</t>
+  </si>
+  <si>
     <t>4,356</t>
   </si>
   <si>
@@ -4819,9 +4957,21 @@
     <t>61039324767</t>
   </si>
   <si>
+    <t>30.09.2023</t>
+  </si>
+  <si>
+    <t>05.11.2023</t>
+  </si>
+  <si>
     <t>66,15</t>
   </si>
   <si>
+    <t>63,00</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
     <t>106</t>
   </si>
   <si>
@@ -4843,9 +4993,18 @@
     <t>61039284516</t>
   </si>
   <si>
+    <t>06.11.2023</t>
+  </si>
+  <si>
     <t>78,72</t>
   </si>
   <si>
+    <t>74,97</t>
+  </si>
+  <si>
+    <t>3,75</t>
+  </si>
+  <si>
     <t>129</t>
   </si>
   <si>
@@ -4867,9 +5026,24 @@
     <t>61039284517</t>
   </si>
   <si>
+    <t>31.10.2023</t>
+  </si>
+  <si>
     <t>119,89</t>
   </si>
   <si>
+    <t>114,18</t>
+  </si>
+  <si>
+    <t>5,71</t>
+  </si>
+  <si>
+    <t>0,56</t>
+  </si>
+  <si>
+    <t>1,39</t>
+  </si>
+  <si>
     <t>239</t>
   </si>
   <si>
@@ -4918,6 +5092,15 @@
     <t>59,54</t>
   </si>
   <si>
+    <t>56,70</t>
+  </si>
+  <si>
+    <t>2,84</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
     <t>1,204</t>
   </si>
   <si>
@@ -4951,9 +5134,24 @@
     <t>61039227789</t>
   </si>
   <si>
+    <t>17.10.2023</t>
+  </si>
+  <si>
+    <t>02.11.2023</t>
+  </si>
+  <si>
     <t>16,31</t>
   </si>
   <si>
+    <t>15,53</t>
+  </si>
+  <si>
+    <t>0,08</t>
+  </si>
+  <si>
+    <t>0,43</t>
+  </si>
+  <si>
     <t>2,044</t>
   </si>
   <si>
@@ -4972,6 +5170,15 @@
     <t>39,94</t>
   </si>
   <si>
+    <t>38,04</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>0,19</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -4993,9 +5200,21 @@
     <t>61039317205</t>
   </si>
   <si>
+    <t>04.10.2023</t>
+  </si>
+  <si>
     <t>56,23</t>
   </si>
   <si>
+    <t>53,55</t>
+  </si>
+  <si>
+    <t>2,68</t>
+  </si>
+  <si>
+    <t>0,88</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
@@ -5038,6 +5257,12 @@
     <t>61039236488</t>
   </si>
   <si>
+    <t>25,32</t>
+  </si>
+  <si>
+    <t>0,12</t>
+  </si>
+  <si>
     <t>0,060</t>
   </si>
   <si>
@@ -5053,9 +5278,21 @@
     <t>61039287979</t>
   </si>
   <si>
+    <t>07.11.2023</t>
+  </si>
+  <si>
     <t>62,64</t>
   </si>
   <si>
+    <t>59,66</t>
+  </si>
+  <si>
+    <t>2,98</t>
+  </si>
+  <si>
+    <t>0,29</t>
+  </si>
+  <si>
     <t>5,012</t>
   </si>
   <si>
@@ -5071,9 +5308,21 @@
     <t>80000935688</t>
   </si>
   <si>
+    <t>21.04.2023</t>
+  </si>
+  <si>
+    <t>30.04.2023</t>
+  </si>
+  <si>
     <t>-3,66</t>
   </si>
   <si>
+    <t>-3,49</t>
+  </si>
+  <si>
+    <t>-0,17</t>
+  </si>
+  <si>
     <t>-3</t>
   </si>
   <si>
@@ -5110,6 +5359,9 @@
     <t>48,04</t>
   </si>
   <si>
+    <t>2,29</t>
+  </si>
+  <si>
     <t>143</t>
   </si>
   <si>
@@ -5146,9 +5398,18 @@
     <t>61039236485</t>
   </si>
   <si>
+    <t>28.09.2023</t>
+  </si>
+  <si>
     <t>185,15</t>
   </si>
   <si>
+    <t>153,02</t>
+  </si>
+  <si>
+    <t>1,70</t>
+  </si>
+  <si>
     <t>172</t>
   </si>
   <si>
@@ -5197,6 +5458,15 @@
     <t>35,41</t>
   </si>
   <si>
+    <t>33,72</t>
+  </si>
+  <si>
+    <t>1,69</t>
+  </si>
+  <si>
+    <t>1,30</t>
+  </si>
+  <si>
     <t>0,380</t>
   </si>
   <si>
@@ -5227,6 +5497,15 @@
     <t>68,68</t>
   </si>
   <si>
+    <t>65,41</t>
+  </si>
+  <si>
+    <t>3,27</t>
+  </si>
+  <si>
+    <t>1,04</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
@@ -5245,9 +5524,18 @@
     <t>61039304697</t>
   </si>
   <si>
+    <t>29.09.2023</t>
+  </si>
+  <si>
     <t>83,54</t>
   </si>
   <si>
+    <t>69,04</t>
+  </si>
+  <si>
+    <t>0,34</t>
+  </si>
+  <si>
     <t>1,388</t>
   </si>
   <si>
@@ -5284,9 +5572,15 @@
     <t>61039313033</t>
   </si>
   <si>
+    <t>05.10.2023</t>
+  </si>
+  <si>
     <t>63,71</t>
   </si>
   <si>
+    <t>60,68</t>
+  </si>
+  <si>
     <t>2,216</t>
   </si>
   <si>
@@ -5323,9 +5617,18 @@
     <t>61039306015</t>
   </si>
   <si>
+    <t>06.10.2023</t>
+  </si>
+  <si>
     <t>56,77</t>
   </si>
   <si>
+    <t>54,07</t>
+  </si>
+  <si>
+    <t>2,70</t>
+  </si>
+  <si>
     <t>148</t>
   </si>
   <si>
@@ -5347,6 +5650,12 @@
     <t>67,69</t>
   </si>
   <si>
+    <t>64,47</t>
+  </si>
+  <si>
+    <t>3,22</t>
+  </si>
+  <si>
     <t>1,063</t>
   </si>
   <si>
@@ -5380,6 +5689,12 @@
     <t>46,70</t>
   </si>
   <si>
+    <t>44,48</t>
+  </si>
+  <si>
+    <t>2,22</t>
+  </si>
+  <si>
     <t>repsol_8d3e5bf905cf4e589e7fef79298560a0.pdf</t>
   </si>
   <si>
@@ -5392,6 +5707,12 @@
     <t>156,51</t>
   </si>
   <si>
+    <t>129,35</t>
+  </si>
+  <si>
+    <t>0,64</t>
+  </si>
+  <si>
     <t>253</t>
   </si>
   <si>
@@ -5429,6 +5750,9 @@
   </si>
   <si>
     <t>85,26</t>
+  </si>
+  <si>
+    <t>81,20</t>
   </si>
   <si>
     <t>210</t>
@@ -13088,17 +13412,29 @@
       <c r="I84" t="s">
         <v>1229</v>
       </c>
+      <c r="J84" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1232</v>
+      </c>
       <c r="Q84" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R84" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="S84" t="s">
+        <v>1235</v>
+      </c>
+      <c r="T84" t="s">
+        <v>1236</v>
+      </c>
+      <c r="U84" t="s">
         <v>1232</v>
-      </c>
-      <c r="T84" t="s">
-        <v>1233</v>
       </c>
       <c r="AC84" t="s">
         <v>300</v>
@@ -13110,33 +13446,33 @@
         <v>554</v>
       </c>
       <c r="BI84" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="BJ84" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="BK84" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="BO84" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="BP84" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="BQ84" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="D85" t="s">
         <v>91</v>
       </c>
       <c r="E85" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="F85" t="s">
         <v>93</v>
@@ -13148,19 +13484,31 @@
         <v>1228</v>
       </c>
       <c r="I85" t="s">
-        <v>1242</v>
+        <v>1245</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1248</v>
       </c>
       <c r="Q85" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R85" t="s">
         <v>883</v>
       </c>
       <c r="S85" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="T85" t="s">
-        <v>1244</v>
+        <v>1250</v>
+      </c>
+      <c r="U85" t="s">
+        <v>1248</v>
       </c>
       <c r="AC85" t="s">
         <v>554</v>
@@ -13169,18 +13517,18 @@
         <v>554</v>
       </c>
       <c r="AE85" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="86" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="D86" t="s">
         <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="F86" t="s">
         <v>93</v>
@@ -13192,57 +13540,69 @@
         <v>1228</v>
       </c>
       <c r="I86" t="s">
-        <v>1248</v>
+        <v>1254</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1255</v>
       </c>
       <c r="Q86" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R86" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="S86" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="T86" t="s">
-        <v>1250</v>
+        <v>1257</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1255</v>
       </c>
       <c r="AC86" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
       <c r="AD86" t="s">
         <v>174</v>
       </c>
       <c r="AE86" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="BI86" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="BJ86" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="BK86" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="BO86" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
       <c r="BP86" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="BQ86" t="s">
-        <v>1258</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="87" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1259</v>
+        <v>1266</v>
       </c>
       <c r="D87" t="s">
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>1260</v>
+        <v>1267</v>
       </c>
       <c r="F87" t="s">
         <v>93</v>
@@ -13254,19 +13614,31 @@
         <v>1228</v>
       </c>
       <c r="I87" t="s">
-        <v>1261</v>
+        <v>1268</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1271</v>
       </c>
       <c r="Q87" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R87" t="s">
         <v>883</v>
       </c>
       <c r="S87" t="s">
-        <v>1262</v>
+        <v>1272</v>
       </c>
       <c r="T87" t="s">
-        <v>1263</v>
+        <v>1273</v>
+      </c>
+      <c r="U87" t="s">
+        <v>1271</v>
       </c>
       <c r="AC87" t="s">
         <v>785</v>
@@ -13278,33 +13650,33 @@
         <v>106</v>
       </c>
       <c r="BI87" t="s">
-        <v>1264</v>
+        <v>1274</v>
       </c>
       <c r="BJ87" t="s">
-        <v>1265</v>
+        <v>1275</v>
       </c>
       <c r="BK87" t="s">
-        <v>1266</v>
+        <v>1276</v>
       </c>
       <c r="BO87" t="s">
-        <v>1267</v>
+        <v>1277</v>
       </c>
       <c r="BP87" t="s">
         <v>1180</v>
       </c>
       <c r="BQ87" t="s">
-        <v>1268</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="88" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1269</v>
+        <v>1279</v>
       </c>
       <c r="D88" t="s">
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>1270</v>
+        <v>1280</v>
       </c>
       <c r="F88" t="s">
         <v>93</v>
@@ -13316,57 +13688,69 @@
         <v>1228</v>
       </c>
       <c r="I88" t="s">
-        <v>1271</v>
+        <v>1281</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1284</v>
       </c>
       <c r="Q88" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R88" t="s">
         <v>883</v>
       </c>
       <c r="S88" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
       <c r="T88" t="s">
-        <v>1273</v>
+        <v>1286</v>
+      </c>
+      <c r="U88" t="s">
+        <v>1284</v>
       </c>
       <c r="AC88" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
       <c r="AD88" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
       <c r="AE88" t="s">
         <v>299</v>
       </c>
       <c r="BI88" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
       <c r="BJ88" t="s">
-        <v>1277</v>
+        <v>1290</v>
       </c>
       <c r="BK88" t="s">
-        <v>1278</v>
+        <v>1291</v>
       </c>
       <c r="BO88" t="s">
-        <v>1279</v>
+        <v>1292</v>
       </c>
       <c r="BP88" t="s">
-        <v>1280</v>
+        <v>1293</v>
       </c>
       <c r="BQ88" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="89" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
       <c r="D89" t="s">
         <v>91</v>
       </c>
       <c r="E89" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
       <c r="F89" t="s">
         <v>93</v>
@@ -13378,57 +13762,69 @@
         <v>1228</v>
       </c>
       <c r="I89" t="s">
-        <v>1284</v>
+        <v>1297</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1299</v>
       </c>
       <c r="Q89" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R89" t="s">
         <v>883</v>
       </c>
       <c r="S89" t="s">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="T89" t="s">
-        <v>1286</v>
+        <v>1301</v>
+      </c>
+      <c r="U89" t="s">
+        <v>1299</v>
       </c>
       <c r="AC89" t="s">
-        <v>1287</v>
+        <v>1302</v>
       </c>
       <c r="AD89" t="s">
         <v>858</v>
       </c>
       <c r="AE89" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
       <c r="BI89" t="s">
-        <v>1289</v>
+        <v>1304</v>
       </c>
       <c r="BJ89" t="s">
-        <v>1290</v>
+        <v>1305</v>
       </c>
       <c r="BK89" t="s">
-        <v>1291</v>
+        <v>1306</v>
       </c>
       <c r="BO89" t="s">
-        <v>1292</v>
+        <v>1307</v>
       </c>
       <c r="BP89" t="s">
-        <v>1293</v>
+        <v>1308</v>
       </c>
       <c r="BQ89" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="90" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1294</v>
+        <v>1309</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1295</v>
+        <v>1310</v>
       </c>
       <c r="F90" t="s">
         <v>93</v>
@@ -13440,19 +13836,31 @@
         <v>1228</v>
       </c>
       <c r="I90" t="s">
-        <v>1296</v>
+        <v>1311</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1312</v>
       </c>
       <c r="Q90" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R90" t="s">
         <v>883</v>
       </c>
       <c r="S90" t="s">
-        <v>1297</v>
+        <v>1313</v>
       </c>
       <c r="T90" t="s">
-        <v>1298</v>
+        <v>1314</v>
+      </c>
+      <c r="U90" t="s">
+        <v>1312</v>
       </c>
       <c r="AC90" t="s">
         <v>571</v>
@@ -13461,22 +13869,22 @@
         <v>571</v>
       </c>
       <c r="AE90" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="BI90" t="s">
-        <v>1300</v>
+        <v>1316</v>
       </c>
       <c r="BJ90" t="s">
-        <v>1301</v>
+        <v>1317</v>
       </c>
       <c r="BK90" t="s">
-        <v>1302</v>
+        <v>1318</v>
       </c>
       <c r="BO90" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="BP90" t="s">
-        <v>1304</v>
+        <v>1320</v>
       </c>
       <c r="BQ90" t="s">
         <v>760</v>
@@ -13484,13 +13892,13 @@
     </row>
     <row r="91" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="D91" t="s">
         <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>1306</v>
+        <v>1322</v>
       </c>
       <c r="F91" t="s">
         <v>93</v>
@@ -13499,60 +13907,72 @@
         <v>94</v>
       </c>
       <c r="H91" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="I91" t="s">
-        <v>1308</v>
+        <v>1324</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1325</v>
       </c>
       <c r="Q91" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R91" t="s">
         <v>883</v>
       </c>
       <c r="S91" t="s">
-        <v>1309</v>
+        <v>1326</v>
       </c>
       <c r="T91" t="s">
-        <v>1310</v>
+        <v>1327</v>
+      </c>
+      <c r="U91" t="s">
+        <v>1325</v>
       </c>
       <c r="AC91" t="s">
-        <v>1311</v>
+        <v>1328</v>
       </c>
       <c r="AD91" t="s">
         <v>658</v>
       </c>
       <c r="AE91" t="s">
-        <v>1312</v>
+        <v>1329</v>
       </c>
       <c r="BI91" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="BJ91" t="s">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="BK91" t="s">
-        <v>1315</v>
+        <v>1332</v>
       </c>
       <c r="BO91" t="s">
-        <v>1316</v>
+        <v>1333</v>
       </c>
       <c r="BP91" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="BQ91" t="s">
-        <v>1318</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="92" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
       <c r="D92" t="s">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>1320</v>
+        <v>1337</v>
       </c>
       <c r="F92" t="s">
         <v>93</v>
@@ -13561,60 +13981,72 @@
         <v>94</v>
       </c>
       <c r="H92" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="I92" t="s">
-        <v>1321</v>
+        <v>1338</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1341</v>
       </c>
       <c r="Q92" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R92" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="S92" t="s">
-        <v>1322</v>
+        <v>1342</v>
       </c>
       <c r="T92" t="s">
-        <v>1323</v>
+        <v>1343</v>
+      </c>
+      <c r="U92" t="s">
+        <v>1341</v>
       </c>
       <c r="AC92" t="s">
-        <v>1324</v>
+        <v>1344</v>
       </c>
       <c r="AD92" t="s">
         <v>174</v>
       </c>
       <c r="AE92" t="s">
-        <v>1325</v>
+        <v>1345</v>
       </c>
       <c r="BI92" t="s">
-        <v>1326</v>
+        <v>1346</v>
       </c>
       <c r="BJ92" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="BK92" t="s">
-        <v>1328</v>
+        <v>1348</v>
       </c>
       <c r="BO92" t="s">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="BP92" t="s">
-        <v>1330</v>
+        <v>1350</v>
       </c>
       <c r="BQ92" t="s">
-        <v>1258</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="93" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1331</v>
+        <v>1351</v>
       </c>
       <c r="D93" t="s">
         <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>1332</v>
+        <v>1352</v>
       </c>
       <c r="F93" t="s">
         <v>93</v>
@@ -13623,22 +14055,34 @@
         <v>94</v>
       </c>
       <c r="H93" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="I93" t="s">
-        <v>1333</v>
+        <v>1353</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1356</v>
       </c>
       <c r="Q93" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R93" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="S93" t="s">
-        <v>1334</v>
+        <v>1357</v>
       </c>
       <c r="T93" t="s">
-        <v>1335</v>
+        <v>1358</v>
+      </c>
+      <c r="U93" t="s">
+        <v>1356</v>
       </c>
       <c r="AC93" t="s">
         <v>553</v>
@@ -13650,33 +14094,33 @@
         <v>173</v>
       </c>
       <c r="BI93" t="s">
-        <v>1336</v>
+        <v>1359</v>
       </c>
       <c r="BJ93" t="s">
-        <v>1337</v>
+        <v>1360</v>
       </c>
       <c r="BK93" t="s">
-        <v>1338</v>
+        <v>1361</v>
       </c>
       <c r="BO93" t="s">
-        <v>1339</v>
+        <v>1362</v>
       </c>
       <c r="BP93" t="s">
-        <v>1340</v>
+        <v>1363</v>
       </c>
       <c r="BQ93" t="s">
-        <v>1341</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="94" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="D94" t="s">
         <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="F94" t="s">
         <v>93</v>
@@ -13685,60 +14129,72 @@
         <v>94</v>
       </c>
       <c r="H94" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="I94" t="s">
-        <v>1344</v>
+        <v>1367</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1369</v>
       </c>
       <c r="Q94" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R94" t="s">
         <v>883</v>
       </c>
       <c r="S94" t="s">
-        <v>1345</v>
+        <v>1370</v>
       </c>
       <c r="T94" t="s">
-        <v>1346</v>
+        <v>1371</v>
+      </c>
+      <c r="U94" t="s">
+        <v>1369</v>
       </c>
       <c r="AC94" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="AD94" t="s">
         <v>538</v>
       </c>
       <c r="AE94" t="s">
-        <v>1347</v>
+        <v>1372</v>
       </c>
       <c r="BI94" t="s">
-        <v>1348</v>
+        <v>1373</v>
       </c>
       <c r="BJ94" t="s">
-        <v>1349</v>
+        <v>1374</v>
       </c>
       <c r="BK94" t="s">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="BO94" t="s">
-        <v>1351</v>
+        <v>1376</v>
       </c>
       <c r="BP94" t="s">
-        <v>1352</v>
+        <v>1377</v>
       </c>
       <c r="BQ94" t="s">
-        <v>1353</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="95" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1354</v>
+        <v>1379</v>
       </c>
       <c r="D95" t="s">
         <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>1355</v>
+        <v>1380</v>
       </c>
       <c r="F95" t="s">
         <v>93</v>
@@ -13747,60 +14203,72 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="I95" t="s">
-        <v>1356</v>
+        <v>1381</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1383</v>
       </c>
       <c r="Q95" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R95" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="S95" t="s">
-        <v>1357</v>
+        <v>1384</v>
       </c>
       <c r="T95" t="s">
-        <v>1358</v>
+        <v>1385</v>
+      </c>
+      <c r="U95" t="s">
+        <v>1383</v>
       </c>
       <c r="AC95" t="s">
         <v>359</v>
       </c>
       <c r="AD95" t="s">
-        <v>1359</v>
+        <v>1386</v>
       </c>
       <c r="AE95" t="s">
         <v>521</v>
       </c>
       <c r="BI95" t="s">
-        <v>1360</v>
+        <v>1387</v>
       </c>
       <c r="BJ95" t="s">
-        <v>1361</v>
+        <v>1388</v>
       </c>
       <c r="BK95" t="s">
-        <v>1362</v>
+        <v>1389</v>
       </c>
       <c r="BO95" t="s">
-        <v>1363</v>
+        <v>1390</v>
       </c>
       <c r="BP95" t="s">
-        <v>1364</v>
+        <v>1391</v>
       </c>
       <c r="BQ95" t="s">
-        <v>1365</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="96" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1366</v>
+        <v>1393</v>
       </c>
       <c r="D96" t="s">
         <v>91</v>
       </c>
       <c r="E96" t="s">
-        <v>1367</v>
+        <v>1394</v>
       </c>
       <c r="F96" t="s">
         <v>93</v>
@@ -13809,60 +14277,72 @@
         <v>94</v>
       </c>
       <c r="H96" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="I96" t="s">
-        <v>1368</v>
+        <v>1395</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1398</v>
       </c>
       <c r="Q96" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R96" t="s">
         <v>883</v>
       </c>
       <c r="S96" t="s">
-        <v>1369</v>
+        <v>1399</v>
       </c>
       <c r="T96" t="s">
-        <v>1370</v>
+        <v>1400</v>
+      </c>
+      <c r="U96" t="s">
+        <v>1398</v>
       </c>
       <c r="AC96" t="s">
-        <v>1371</v>
+        <v>1401</v>
       </c>
       <c r="AD96" t="s">
         <v>330</v>
       </c>
       <c r="AE96" t="s">
-        <v>1372</v>
+        <v>1402</v>
       </c>
       <c r="BI96" t="s">
-        <v>1373</v>
+        <v>1403</v>
       </c>
       <c r="BJ96" t="s">
-        <v>1374</v>
+        <v>1404</v>
       </c>
       <c r="BK96" t="s">
-        <v>1375</v>
+        <v>1405</v>
       </c>
       <c r="BO96" t="s">
-        <v>1376</v>
+        <v>1406</v>
       </c>
       <c r="BP96" t="s">
-        <v>1377</v>
+        <v>1407</v>
       </c>
       <c r="BQ96" t="s">
-        <v>1378</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="97" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1379</v>
+        <v>1409</v>
       </c>
       <c r="D97" t="s">
         <v>91</v>
       </c>
       <c r="E97" t="s">
-        <v>1380</v>
+        <v>1410</v>
       </c>
       <c r="F97" t="s">
         <v>93</v>
@@ -13871,22 +14351,34 @@
         <v>94</v>
       </c>
       <c r="H97" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="I97" t="s">
-        <v>1381</v>
+        <v>1411</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1412</v>
       </c>
       <c r="Q97" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="R97" t="s">
         <v>883</v>
       </c>
       <c r="S97" t="s">
-        <v>1382</v>
+        <v>1413</v>
       </c>
       <c r="T97" t="s">
-        <v>1383</v>
+        <v>1414</v>
+      </c>
+      <c r="U97" t="s">
+        <v>1412</v>
       </c>
       <c r="AC97" t="s">
         <v>173</v>
@@ -13895,39 +14387,39 @@
         <v>358</v>
       </c>
       <c r="AE97" t="s">
-        <v>1384</v>
+        <v>1415</v>
       </c>
       <c r="BI97" t="s">
-        <v>1385</v>
+        <v>1416</v>
       </c>
       <c r="BJ97" t="s">
-        <v>1386</v>
+        <v>1417</v>
       </c>
       <c r="BK97" t="s">
-        <v>1387</v>
+        <v>1418</v>
       </c>
       <c r="BO97" t="s">
-        <v>1388</v>
+        <v>1419</v>
       </c>
       <c r="BP97" t="s">
-        <v>1389</v>
+        <v>1420</v>
       </c>
       <c r="BQ97" t="s">
-        <v>1390</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="98" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1391</v>
+        <v>1422</v>
       </c>
       <c r="D98" t="s">
         <v>91</v>
       </c>
       <c r="E98" t="s">
-        <v>1392</v>
+        <v>1423</v>
       </c>
       <c r="F98" t="s">
-        <v>1393</v>
+        <v>1424</v>
       </c>
       <c r="G98" t="s">
         <v>94</v>
@@ -13936,7 +14428,7 @@
         <v>914</v>
       </c>
       <c r="I98" t="s">
-        <v>1394</v>
+        <v>1425</v>
       </c>
       <c r="J98" t="s">
         <v>833</v>
@@ -13945,10 +14437,10 @@
         <v>581</v>
       </c>
       <c r="L98" t="s">
-        <v>1395</v>
+        <v>1426</v>
       </c>
       <c r="Q98" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R98" t="s">
         <v>101</v>
@@ -13957,39 +14449,39 @@
         <f>W98+X98+Y98+Z98+AA98+AB98+AC98</f>
       </c>
       <c r="T98" t="s">
-        <v>1397</v>
+        <v>1428</v>
       </c>
       <c r="U98" t="s">
-        <v>1395</v>
+        <v>1426</v>
       </c>
       <c r="V98" t="s">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="W98" t="s">
-        <v>1399</v>
+        <v>1430</v>
       </c>
       <c r="Y98" t="s">
-        <v>1400</v>
+        <v>1431</v>
       </c>
       <c r="Z98" t="s">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="AA98" t="s">
-        <v>1398</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="99" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1401</v>
+        <v>1432</v>
       </c>
       <c r="D99" t="s">
         <v>91</v>
       </c>
       <c r="E99" t="s">
-        <v>1392</v>
+        <v>1423</v>
       </c>
       <c r="F99" t="s">
-        <v>1393</v>
+        <v>1424</v>
       </c>
       <c r="G99" t="s">
         <v>94</v>
@@ -13998,19 +14490,19 @@
         <v>914</v>
       </c>
       <c r="I99" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
       <c r="J99" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K99" t="s">
         <v>582</v>
       </c>
       <c r="L99" t="s">
-        <v>1404</v>
+        <v>1435</v>
       </c>
       <c r="Q99" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R99" t="s">
         <v>101</v>
@@ -14019,25 +14511,25 @@
         <f>W99+X99+Y99+Z99+AA99+AB99+AC99</f>
       </c>
       <c r="T99" t="s">
-        <v>1405</v>
+        <v>1436</v>
       </c>
       <c r="U99" t="s">
-        <v>1404</v>
+        <v>1435</v>
       </c>
       <c r="V99" t="s">
-        <v>1406</v>
+        <v>1437</v>
       </c>
       <c r="W99" t="s">
-        <v>1407</v>
+        <v>1438</v>
       </c>
       <c r="X99" t="s">
         <v>1141</v>
       </c>
       <c r="Y99" t="s">
-        <v>1408</v>
+        <v>1439</v>
       </c>
       <c r="Z99" t="s">
-        <v>1409</v>
+        <v>1440</v>
       </c>
       <c r="AA99" t="s">
         <v>1141</v>
@@ -14045,16 +14537,16 @@
     </row>
     <row r="100" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1410</v>
+        <v>1441</v>
       </c>
       <c r="D100" t="s">
         <v>91</v>
       </c>
       <c r="E100" t="s">
-        <v>1411</v>
+        <v>1442</v>
       </c>
       <c r="F100" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="G100" t="s">
         <v>94</v>
@@ -14063,19 +14555,19 @@
         <v>881</v>
       </c>
       <c r="I100" t="s">
-        <v>1413</v>
+        <v>1444</v>
       </c>
       <c r="J100" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K100" t="s">
         <v>582</v>
       </c>
       <c r="L100" t="s">
-        <v>1414</v>
+        <v>1445</v>
       </c>
       <c r="Q100" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R100" t="s">
         <v>101</v>
@@ -14084,31 +14576,31 @@
         <f>W100+X100+Y100+Z100+AA100+AB100+AC100</f>
       </c>
       <c r="T100" t="s">
-        <v>1415</v>
+        <v>1446</v>
       </c>
       <c r="U100" t="s">
-        <v>1414</v>
+        <v>1445</v>
       </c>
       <c r="V100" t="s">
-        <v>1416</v>
+        <v>1447</v>
       </c>
       <c r="W100" t="s">
-        <v>1417</v>
+        <v>1448</v>
       </c>
       <c r="Y100" t="s">
-        <v>1418</v>
+        <v>1449</v>
       </c>
       <c r="Z100" t="s">
-        <v>1409</v>
+        <v>1440</v>
       </c>
       <c r="AA100" t="s">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="AC100" t="s">
         <v>209</v>
       </c>
       <c r="AD100" t="s">
-        <v>1419</v>
+        <v>1450</v>
       </c>
       <c r="AE100" t="s">
         <v>162</v>
@@ -14120,75 +14612,75 @@
         <v>162</v>
       </c>
       <c r="AH100" t="s">
-        <v>1420</v>
+        <v>1451</v>
       </c>
       <c r="BI100" t="s">
-        <v>1421</v>
+        <v>1452</v>
       </c>
       <c r="BJ100" t="s">
-        <v>1422</v>
+        <v>1453</v>
       </c>
       <c r="BK100" t="s">
-        <v>1423</v>
+        <v>1454</v>
       </c>
       <c r="BL100" t="s">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="BM100" t="s">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="BN100" t="s">
-        <v>1426</v>
+        <v>1457</v>
       </c>
       <c r="BO100" t="s">
-        <v>1427</v>
+        <v>1458</v>
       </c>
       <c r="BP100" t="s">
-        <v>1428</v>
+        <v>1459</v>
       </c>
       <c r="BQ100" t="s">
-        <v>1423</v>
+        <v>1454</v>
       </c>
       <c r="BR100" t="s">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="BS100" t="s">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="BT100" t="s">
-        <v>1429</v>
+        <v>1460</v>
       </c>
       <c r="CA100" t="s">
-        <v>1427</v>
+        <v>1458</v>
       </c>
       <c r="CB100" t="s">
-        <v>1428</v>
+        <v>1459</v>
       </c>
       <c r="CC100" t="s">
-        <v>1423</v>
+        <v>1454</v>
       </c>
       <c r="CD100" t="s">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="CE100" t="s">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="CF100" t="s">
-        <v>1429</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="101" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1430</v>
+        <v>1461</v>
       </c>
       <c r="D101" t="s">
         <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>1431</v>
+        <v>1462</v>
       </c>
       <c r="F101" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="G101" t="s">
         <v>94</v>
@@ -14197,19 +14689,19 @@
         <v>157</v>
       </c>
       <c r="I101" t="s">
-        <v>1432</v>
+        <v>1463</v>
       </c>
       <c r="J101" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K101" t="s">
         <v>582</v>
       </c>
       <c r="L101" t="s">
-        <v>1433</v>
+        <v>1464</v>
       </c>
       <c r="Q101" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R101" t="s">
         <v>101</v>
@@ -14218,31 +14710,31 @@
         <f>W101+X101+Y101+Z101+AA101+AB101+AC101</f>
       </c>
       <c r="T101" t="s">
-        <v>1434</v>
+        <v>1465</v>
       </c>
       <c r="U101" t="s">
-        <v>1433</v>
+        <v>1464</v>
       </c>
       <c r="V101" t="s">
-        <v>1435</v>
+        <v>1466</v>
       </c>
       <c r="W101" t="s">
-        <v>1436</v>
+        <v>1467</v>
       </c>
       <c r="Y101" t="s">
-        <v>1437</v>
+        <v>1468</v>
       </c>
       <c r="Z101" t="s">
-        <v>1438</v>
+        <v>1469</v>
       </c>
       <c r="AA101" t="s">
-        <v>1439</v>
+        <v>1470</v>
       </c>
       <c r="AC101" t="s">
-        <v>1440</v>
+        <v>1471</v>
       </c>
       <c r="AD101" t="s">
-        <v>1441</v>
+        <v>1472</v>
       </c>
       <c r="AE101" t="s">
         <v>162</v>
@@ -14254,75 +14746,75 @@
         <v>162</v>
       </c>
       <c r="AH101" t="s">
-        <v>1442</v>
+        <v>1473</v>
       </c>
       <c r="BI101" t="s">
-        <v>1443</v>
+        <v>1474</v>
       </c>
       <c r="BJ101" t="s">
-        <v>1444</v>
+        <v>1475</v>
       </c>
       <c r="BK101" t="s">
-        <v>1445</v>
+        <v>1476</v>
       </c>
       <c r="BL101" t="s">
-        <v>1446</v>
+        <v>1477</v>
       </c>
       <c r="BM101" t="s">
-        <v>1447</v>
+        <v>1478</v>
       </c>
       <c r="BN101" t="s">
-        <v>1448</v>
+        <v>1479</v>
       </c>
       <c r="BO101" t="s">
-        <v>1449</v>
+        <v>1480</v>
       </c>
       <c r="BP101" t="s">
-        <v>1450</v>
+        <v>1481</v>
       </c>
       <c r="BQ101" t="s">
-        <v>1445</v>
+        <v>1476</v>
       </c>
       <c r="BR101" t="s">
-        <v>1446</v>
+        <v>1477</v>
       </c>
       <c r="BS101" t="s">
-        <v>1447</v>
+        <v>1478</v>
       </c>
       <c r="BT101" t="s">
-        <v>1451</v>
+        <v>1482</v>
       </c>
       <c r="CA101" t="s">
-        <v>1449</v>
+        <v>1480</v>
       </c>
       <c r="CB101" t="s">
-        <v>1450</v>
+        <v>1481</v>
       </c>
       <c r="CC101" t="s">
-        <v>1445</v>
+        <v>1476</v>
       </c>
       <c r="CD101" t="s">
-        <v>1446</v>
+        <v>1477</v>
       </c>
       <c r="CE101" t="s">
-        <v>1447</v>
+        <v>1478</v>
       </c>
       <c r="CF101" t="s">
-        <v>1451</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="102" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1452</v>
+        <v>1483</v>
       </c>
       <c r="D102" t="s">
         <v>91</v>
       </c>
       <c r="E102" t="s">
-        <v>1453</v>
+        <v>1484</v>
       </c>
       <c r="F102" t="s">
-        <v>1393</v>
+        <v>1424</v>
       </c>
       <c r="G102" t="s">
         <v>94</v>
@@ -14331,19 +14823,19 @@
         <v>157</v>
       </c>
       <c r="I102" t="s">
-        <v>1454</v>
+        <v>1485</v>
       </c>
       <c r="J102" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K102" t="s">
         <v>582</v>
       </c>
       <c r="L102" t="s">
-        <v>1455</v>
+        <v>1486</v>
       </c>
       <c r="Q102" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R102" t="s">
         <v>101</v>
@@ -14352,42 +14844,42 @@
         <f>W102+X102+Y102+Z102+AA102+AB102+AC102</f>
       </c>
       <c r="T102" t="s">
-        <v>1456</v>
+        <v>1487</v>
       </c>
       <c r="U102" t="s">
-        <v>1455</v>
+        <v>1486</v>
       </c>
       <c r="V102" t="s">
-        <v>1457</v>
+        <v>1488</v>
       </c>
       <c r="W102" t="s">
-        <v>1458</v>
+        <v>1489</v>
       </c>
       <c r="X102" t="s">
-        <v>1459</v>
+        <v>1490</v>
       </c>
       <c r="Y102" t="s">
-        <v>1460</v>
+        <v>1491</v>
       </c>
       <c r="Z102" t="s">
-        <v>1461</v>
+        <v>1492</v>
       </c>
       <c r="AA102" t="s">
-        <v>1459</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="103" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1462</v>
+        <v>1493</v>
       </c>
       <c r="D103" t="s">
         <v>91</v>
       </c>
       <c r="E103" t="s">
-        <v>1463</v>
+        <v>1494</v>
       </c>
       <c r="F103" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="G103" t="s">
         <v>94</v>
@@ -14396,19 +14888,19 @@
         <v>157</v>
       </c>
       <c r="I103" t="s">
-        <v>1464</v>
+        <v>1495</v>
       </c>
       <c r="J103" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K103" t="s">
         <v>582</v>
       </c>
       <c r="L103" t="s">
-        <v>1465</v>
+        <v>1496</v>
       </c>
       <c r="Q103" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R103" t="s">
         <v>101</v>
@@ -14420,25 +14912,25 @@
         <v>585</v>
       </c>
       <c r="U103" t="s">
-        <v>1465</v>
+        <v>1496</v>
       </c>
       <c r="V103" t="s">
-        <v>1466</v>
+        <v>1497</v>
       </c>
       <c r="W103" t="s">
-        <v>1467</v>
+        <v>1498</v>
       </c>
       <c r="Y103" t="s">
-        <v>1468</v>
+        <v>1499</v>
       </c>
       <c r="Z103" t="s">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="AA103" t="s">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="AC103" t="s">
-        <v>1470</v>
+        <v>1501</v>
       </c>
       <c r="AD103" t="s">
         <v>849</v>
@@ -14453,75 +14945,75 @@
         <v>162</v>
       </c>
       <c r="AH103" t="s">
-        <v>1471</v>
+        <v>1502</v>
       </c>
       <c r="BI103" t="s">
-        <v>1472</v>
+        <v>1503</v>
       </c>
       <c r="BJ103" t="s">
-        <v>1473</v>
+        <v>1504</v>
       </c>
       <c r="BK103" t="s">
-        <v>1474</v>
+        <v>1505</v>
       </c>
       <c r="BL103" t="s">
-        <v>1475</v>
+        <v>1506</v>
       </c>
       <c r="BM103" t="s">
-        <v>1476</v>
+        <v>1507</v>
       </c>
       <c r="BN103" t="s">
-        <v>1477</v>
+        <v>1508</v>
       </c>
       <c r="BO103" t="s">
-        <v>1478</v>
+        <v>1509</v>
       </c>
       <c r="BP103" t="s">
-        <v>1479</v>
+        <v>1510</v>
       </c>
       <c r="BQ103" t="s">
-        <v>1474</v>
+        <v>1505</v>
       </c>
       <c r="BR103" t="s">
-        <v>1475</v>
+        <v>1506</v>
       </c>
       <c r="BS103" t="s">
-        <v>1476</v>
+        <v>1507</v>
       </c>
       <c r="BT103" t="s">
-        <v>1480</v>
+        <v>1511</v>
       </c>
       <c r="CA103" t="s">
-        <v>1478</v>
+        <v>1509</v>
       </c>
       <c r="CB103" t="s">
-        <v>1479</v>
+        <v>1510</v>
       </c>
       <c r="CC103" t="s">
-        <v>1474</v>
+        <v>1505</v>
       </c>
       <c r="CD103" t="s">
-        <v>1475</v>
+        <v>1506</v>
       </c>
       <c r="CE103" t="s">
-        <v>1476</v>
+        <v>1507</v>
       </c>
       <c r="CF103" t="s">
-        <v>1480</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="104" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1481</v>
+        <v>1512</v>
       </c>
       <c r="D104" t="s">
         <v>91</v>
       </c>
       <c r="E104" t="s">
-        <v>1482</v>
+        <v>1513</v>
       </c>
       <c r="F104" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="G104" t="s">
         <v>94</v>
@@ -14530,19 +15022,19 @@
         <v>157</v>
       </c>
       <c r="I104" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="J104" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K104" t="s">
         <v>582</v>
       </c>
       <c r="L104" t="s">
-        <v>1484</v>
+        <v>1515</v>
       </c>
       <c r="Q104" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R104" t="s">
         <v>101</v>
@@ -14551,31 +15043,31 @@
         <f>W104+X104+Y104+Z104+AA104+AB104+AC104</f>
       </c>
       <c r="T104" t="s">
-        <v>1485</v>
+        <v>1516</v>
       </c>
       <c r="U104" t="s">
-        <v>1484</v>
+        <v>1515</v>
       </c>
       <c r="V104" t="s">
-        <v>1486</v>
+        <v>1517</v>
       </c>
       <c r="W104" t="s">
-        <v>1487</v>
+        <v>1518</v>
       </c>
       <c r="Y104" t="s">
-        <v>1488</v>
+        <v>1519</v>
       </c>
       <c r="Z104" t="s">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="AA104" t="s">
-        <v>1489</v>
+        <v>1520</v>
       </c>
       <c r="AC104" t="s">
-        <v>1490</v>
+        <v>1521</v>
       </c>
       <c r="AD104" t="s">
-        <v>1324</v>
+        <v>1344</v>
       </c>
       <c r="AE104" t="s">
         <v>162</v>
@@ -14590,72 +15082,72 @@
         <v>147</v>
       </c>
       <c r="BI104" t="s">
-        <v>1491</v>
+        <v>1522</v>
       </c>
       <c r="BJ104" t="s">
-        <v>1492</v>
+        <v>1523</v>
       </c>
       <c r="BK104" t="s">
-        <v>1493</v>
+        <v>1524</v>
       </c>
       <c r="BL104" t="s">
-        <v>1494</v>
+        <v>1525</v>
       </c>
       <c r="BM104" t="s">
         <v>905</v>
       </c>
       <c r="BN104" t="s">
-        <v>1495</v>
+        <v>1526</v>
       </c>
       <c r="BO104" t="s">
-        <v>1496</v>
+        <v>1527</v>
       </c>
       <c r="BP104" t="s">
-        <v>1497</v>
+        <v>1528</v>
       </c>
       <c r="BQ104" t="s">
-        <v>1493</v>
+        <v>1524</v>
       </c>
       <c r="BR104" t="s">
-        <v>1494</v>
+        <v>1525</v>
       </c>
       <c r="BS104" t="s">
         <v>905</v>
       </c>
       <c r="BT104" t="s">
-        <v>1498</v>
+        <v>1529</v>
       </c>
       <c r="CA104" t="s">
-        <v>1496</v>
+        <v>1527</v>
       </c>
       <c r="CB104" t="s">
-        <v>1497</v>
+        <v>1528</v>
       </c>
       <c r="CC104" t="s">
-        <v>1493</v>
+        <v>1524</v>
       </c>
       <c r="CD104" t="s">
-        <v>1494</v>
+        <v>1525</v>
       </c>
       <c r="CE104" t="s">
         <v>905</v>
       </c>
       <c r="CF104" t="s">
-        <v>1498</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="105" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1499</v>
+        <v>1530</v>
       </c>
       <c r="D105" t="s">
         <v>91</v>
       </c>
       <c r="E105" t="s">
-        <v>1500</v>
+        <v>1531</v>
       </c>
       <c r="F105" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="G105" t="s">
         <v>94</v>
@@ -14664,19 +15156,19 @@
         <v>157</v>
       </c>
       <c r="I105" t="s">
-        <v>1501</v>
+        <v>1532</v>
       </c>
       <c r="J105" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K105" t="s">
         <v>582</v>
       </c>
       <c r="L105" t="s">
-        <v>1502</v>
+        <v>1533</v>
       </c>
       <c r="Q105" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R105" t="s">
         <v>101</v>
@@ -14685,31 +15177,31 @@
         <f>W105+X105+Y105+Z105+AA105+AB105+AC105</f>
       </c>
       <c r="T105" t="s">
-        <v>1503</v>
+        <v>1534</v>
       </c>
       <c r="U105" t="s">
-        <v>1502</v>
+        <v>1533</v>
       </c>
       <c r="V105" t="s">
-        <v>1504</v>
+        <v>1535</v>
       </c>
       <c r="W105" t="s">
-        <v>1505</v>
+        <v>1536</v>
       </c>
       <c r="X105" t="s">
-        <v>1506</v>
+        <v>1537</v>
       </c>
       <c r="Y105" t="s">
-        <v>1507</v>
+        <v>1538</v>
       </c>
       <c r="Z105" t="s">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="AA105" t="s">
-        <v>1506</v>
+        <v>1537</v>
       </c>
       <c r="AC105" t="s">
-        <v>1470</v>
+        <v>1501</v>
       </c>
       <c r="AD105" t="s">
         <v>317</v>
@@ -14724,58 +15216,58 @@
         <v>162</v>
       </c>
       <c r="AH105" t="s">
-        <v>1508</v>
+        <v>1539</v>
       </c>
       <c r="BI105" t="s">
-        <v>1509</v>
+        <v>1540</v>
       </c>
       <c r="BJ105" t="s">
-        <v>1510</v>
+        <v>1541</v>
       </c>
       <c r="BK105" t="s">
-        <v>1511</v>
+        <v>1542</v>
       </c>
       <c r="BL105" t="s">
-        <v>1512</v>
+        <v>1543</v>
       </c>
       <c r="BM105" t="s">
-        <v>1513</v>
+        <v>1544</v>
       </c>
       <c r="BN105" t="s">
-        <v>1514</v>
+        <v>1545</v>
       </c>
       <c r="BO105" t="s">
-        <v>1515</v>
+        <v>1546</v>
       </c>
       <c r="BP105" t="s">
-        <v>1516</v>
+        <v>1547</v>
       </c>
       <c r="BQ105" t="s">
-        <v>1511</v>
+        <v>1542</v>
       </c>
       <c r="BR105" t="s">
-        <v>1512</v>
+        <v>1543</v>
       </c>
       <c r="BS105" t="s">
-        <v>1513</v>
+        <v>1544</v>
       </c>
       <c r="BT105" t="s">
         <v>922</v>
       </c>
       <c r="CA105" t="s">
-        <v>1515</v>
+        <v>1546</v>
       </c>
       <c r="CB105" t="s">
-        <v>1516</v>
+        <v>1547</v>
       </c>
       <c r="CC105" t="s">
-        <v>1511</v>
+        <v>1542</v>
       </c>
       <c r="CD105" t="s">
-        <v>1512</v>
+        <v>1543</v>
       </c>
       <c r="CE105" t="s">
-        <v>1513</v>
+        <v>1544</v>
       </c>
       <c r="CF105" t="s">
         <v>922</v>
@@ -14783,16 +15275,16 @@
     </row>
     <row r="106" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1517</v>
+        <v>1548</v>
       </c>
       <c r="D106" t="s">
         <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>1518</v>
+        <v>1549</v>
       </c>
       <c r="F106" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="G106" t="s">
         <v>94</v>
@@ -14801,19 +15293,19 @@
         <v>157</v>
       </c>
       <c r="I106" t="s">
-        <v>1519</v>
+        <v>1550</v>
       </c>
       <c r="J106" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K106" t="s">
         <v>582</v>
       </c>
       <c r="L106" t="s">
-        <v>1520</v>
+        <v>1551</v>
       </c>
       <c r="Q106" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R106" t="s">
         <v>101</v>
@@ -14822,25 +15314,25 @@
         <f>W106+X106+Y106+Z106+AA106+AB106+AC106</f>
       </c>
       <c r="T106" t="s">
-        <v>1521</v>
+        <v>1552</v>
       </c>
       <c r="U106" t="s">
-        <v>1520</v>
+        <v>1551</v>
       </c>
       <c r="V106" t="s">
-        <v>1522</v>
+        <v>1553</v>
       </c>
       <c r="W106" t="s">
-        <v>1523</v>
+        <v>1554</v>
       </c>
       <c r="X106" t="s">
-        <v>1524</v>
+        <v>1555</v>
       </c>
       <c r="Y106" t="s">
-        <v>1525</v>
+        <v>1556</v>
       </c>
       <c r="Z106" t="s">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="AA106" t="s">
         <v>469</v>
@@ -14864,55 +15356,55 @@
         <v>968</v>
       </c>
       <c r="BI106" t="s">
-        <v>1526</v>
+        <v>1557</v>
       </c>
       <c r="BJ106" t="s">
-        <v>1527</v>
+        <v>1558</v>
       </c>
       <c r="BK106" t="s">
-        <v>1528</v>
+        <v>1559</v>
       </c>
       <c r="BL106" t="s">
-        <v>1529</v>
+        <v>1560</v>
       </c>
       <c r="BM106" t="s">
-        <v>1530</v>
+        <v>1561</v>
       </c>
       <c r="BN106" t="s">
-        <v>1531</v>
+        <v>1562</v>
       </c>
       <c r="BO106" t="s">
-        <v>1532</v>
+        <v>1563</v>
       </c>
       <c r="BP106" t="s">
-        <v>1533</v>
+        <v>1564</v>
       </c>
       <c r="BQ106" t="s">
-        <v>1528</v>
+        <v>1559</v>
       </c>
       <c r="BR106" t="s">
-        <v>1529</v>
+        <v>1560</v>
       </c>
       <c r="BS106" t="s">
-        <v>1530</v>
+        <v>1561</v>
       </c>
       <c r="BT106" t="s">
         <v>509</v>
       </c>
       <c r="CA106" t="s">
-        <v>1532</v>
+        <v>1563</v>
       </c>
       <c r="CB106" t="s">
-        <v>1533</v>
+        <v>1564</v>
       </c>
       <c r="CC106" t="s">
-        <v>1528</v>
+        <v>1559</v>
       </c>
       <c r="CD106" t="s">
-        <v>1529</v>
+        <v>1560</v>
       </c>
       <c r="CE106" t="s">
-        <v>1530</v>
+        <v>1561</v>
       </c>
       <c r="CF106" t="s">
         <v>509</v>
@@ -14920,16 +15412,16 @@
     </row>
     <row r="107" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1534</v>
+        <v>1565</v>
       </c>
       <c r="D107" t="s">
         <v>91</v>
       </c>
       <c r="E107" t="s">
-        <v>1411</v>
+        <v>1442</v>
       </c>
       <c r="F107" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="G107" t="s">
         <v>94</v>
@@ -14938,19 +15430,19 @@
         <v>881</v>
       </c>
       <c r="I107" t="s">
-        <v>1413</v>
+        <v>1444</v>
       </c>
       <c r="J107" t="s">
-        <v>1403</v>
+        <v>1434</v>
       </c>
       <c r="K107" t="s">
         <v>582</v>
       </c>
       <c r="L107" t="s">
-        <v>1414</v>
+        <v>1445</v>
       </c>
       <c r="Q107" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R107" t="s">
         <v>101</v>
@@ -14959,31 +15451,31 @@
         <f>W107+X107+Y107+Z107+AA107+AB107+AC107</f>
       </c>
       <c r="T107" t="s">
-        <v>1415</v>
+        <v>1446</v>
       </c>
       <c r="U107" t="s">
-        <v>1414</v>
+        <v>1445</v>
       </c>
       <c r="V107" t="s">
-        <v>1416</v>
+        <v>1447</v>
       </c>
       <c r="W107" t="s">
-        <v>1417</v>
+        <v>1448</v>
       </c>
       <c r="Y107" t="s">
-        <v>1418</v>
+        <v>1449</v>
       </c>
       <c r="Z107" t="s">
-        <v>1409</v>
+        <v>1440</v>
       </c>
       <c r="AA107" t="s">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="AC107" t="s">
         <v>209</v>
       </c>
       <c r="AD107" t="s">
-        <v>1419</v>
+        <v>1450</v>
       </c>
       <c r="AE107" t="s">
         <v>162</v>
@@ -14995,75 +15487,75 @@
         <v>162</v>
       </c>
       <c r="AH107" t="s">
-        <v>1420</v>
+        <v>1451</v>
       </c>
       <c r="BI107" t="s">
-        <v>1421</v>
+        <v>1452</v>
       </c>
       <c r="BJ107" t="s">
-        <v>1422</v>
+        <v>1453</v>
       </c>
       <c r="BK107" t="s">
-        <v>1423</v>
+        <v>1454</v>
       </c>
       <c r="BL107" t="s">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="BM107" t="s">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="BN107" t="s">
-        <v>1426</v>
+        <v>1457</v>
       </c>
       <c r="BO107" t="s">
-        <v>1427</v>
+        <v>1458</v>
       </c>
       <c r="BP107" t="s">
-        <v>1428</v>
+        <v>1459</v>
       </c>
       <c r="BQ107" t="s">
-        <v>1423</v>
+        <v>1454</v>
       </c>
       <c r="BR107" t="s">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="BS107" t="s">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="BT107" t="s">
-        <v>1429</v>
+        <v>1460</v>
       </c>
       <c r="CA107" t="s">
-        <v>1427</v>
+        <v>1458</v>
       </c>
       <c r="CB107" t="s">
-        <v>1428</v>
+        <v>1459</v>
       </c>
       <c r="CC107" t="s">
-        <v>1423</v>
+        <v>1454</v>
       </c>
       <c r="CD107" t="s">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="CE107" t="s">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="CF107" t="s">
-        <v>1429</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="108" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1535</v>
+        <v>1566</v>
       </c>
       <c r="D108" t="s">
         <v>91</v>
       </c>
       <c r="E108" t="s">
-        <v>1536</v>
+        <v>1567</v>
       </c>
       <c r="F108" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="G108" t="s">
         <v>94</v>
@@ -15072,19 +15564,19 @@
         <v>166</v>
       </c>
       <c r="I108" t="s">
-        <v>1537</v>
+        <v>1568</v>
       </c>
       <c r="J108" t="s">
-        <v>1538</v>
+        <v>1569</v>
       </c>
       <c r="K108" t="s">
         <v>581</v>
       </c>
       <c r="L108" t="s">
-        <v>1539</v>
+        <v>1570</v>
       </c>
       <c r="Q108" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="R108" t="s">
         <v>101</v>
@@ -15093,25 +15585,25 @@
         <f>W108+X108+Y108+Z108+AA108+AB108+AC108</f>
       </c>
       <c r="T108" t="s">
-        <v>1540</v>
+        <v>1571</v>
       </c>
       <c r="U108" t="s">
-        <v>1539</v>
+        <v>1570</v>
       </c>
       <c r="V108" t="s">
-        <v>1541</v>
+        <v>1572</v>
       </c>
       <c r="W108" t="s">
-        <v>1542</v>
+        <v>1573</v>
       </c>
       <c r="X108" t="s">
         <v>1059</v>
       </c>
       <c r="Y108" t="s">
-        <v>1543</v>
+        <v>1574</v>
       </c>
       <c r="Z108" t="s">
-        <v>1544</v>
+        <v>1575</v>
       </c>
       <c r="AA108" t="s">
         <v>1059</v>
@@ -15191,13 +15683,13 @@
     </row>
     <row r="109" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1545</v>
+        <v>1576</v>
       </c>
       <c r="D109" t="s">
         <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>1546</v>
+        <v>1577</v>
       </c>
       <c r="F109" t="s">
         <v>93</v>
@@ -15206,72 +15698,84 @@
         <v>94</v>
       </c>
       <c r="H109" t="s">
-        <v>1547</v>
+        <v>1578</v>
       </c>
       <c r="I109" t="s">
-        <v>1548</v>
+        <v>1579</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1581</v>
       </c>
       <c r="L109" t="s">
-        <v>1549</v>
+        <v>1582</v>
       </c>
       <c r="Q109" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R109" t="s">
         <v>101</v>
       </c>
-      <c r="T109">
-        <f>V109-T109</f>
+      <c r="S109" t="s">
+        <v>1584</v>
       </c>
       <c r="U109" t="s">
-        <v>1549</v>
+        <v>1582</v>
       </c>
       <c r="W109" t="s">
         <v>823</v>
       </c>
       <c r="X109" t="s">
-        <v>1551</v>
+        <v>1585</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>1586</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>1587</v>
       </c>
       <c r="AO109" t="s">
-        <v>1552</v>
+        <v>1588</v>
       </c>
       <c r="AQ109" t="s">
-        <v>1553</v>
+        <v>1589</v>
       </c>
       <c r="AU109" t="s">
-        <v>1554</v>
+        <v>1590</v>
       </c>
       <c r="AW109" t="s">
-        <v>1554</v>
+        <v>1590</v>
       </c>
       <c r="BI109" t="s">
-        <v>1555</v>
+        <v>1591</v>
       </c>
       <c r="BJ109" t="s">
-        <v>1556</v>
+        <v>1592</v>
       </c>
       <c r="BK109" t="s">
-        <v>1557</v>
+        <v>1593</v>
       </c>
       <c r="BO109" t="s">
-        <v>1558</v>
+        <v>1594</v>
       </c>
       <c r="BP109" t="s">
-        <v>1559</v>
+        <v>1595</v>
       </c>
       <c r="BQ109" t="s">
-        <v>1560</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="110" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1561</v>
+        <v>1597</v>
       </c>
       <c r="D110" t="s">
         <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>1562</v>
+        <v>1598</v>
       </c>
       <c r="F110" t="s">
         <v>93</v>
@@ -15280,57 +15784,69 @@
         <v>94</v>
       </c>
       <c r="H110" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I110" t="s">
-        <v>1564</v>
+        <v>1600</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1602</v>
       </c>
       <c r="L110" t="s">
-        <v>1565</v>
+        <v>1603</v>
       </c>
       <c r="Q110" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R110" t="s">
         <v>101</v>
       </c>
-      <c r="T110">
-        <f>V110-T110</f>
+      <c r="S110" t="s">
+        <v>1604</v>
+      </c>
+      <c r="T110" t="s">
+        <v>1605</v>
       </c>
       <c r="U110" t="s">
-        <v>1565</v>
+        <v>1603</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>687</v>
       </c>
       <c r="AC110" t="s">
-        <v>1566</v>
+        <v>1606</v>
       </c>
       <c r="AD110" t="s">
         <v>334</v>
       </c>
       <c r="AE110" t="s">
-        <v>1567</v>
+        <v>1607</v>
       </c>
       <c r="AO110" t="s">
-        <v>1568</v>
+        <v>1608</v>
       </c>
       <c r="AQ110" t="s">
-        <v>1569</v>
+        <v>1609</v>
       </c>
       <c r="AU110" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
       <c r="AW110" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="111" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1571</v>
+        <v>1611</v>
       </c>
       <c r="D111" t="s">
         <v>91</v>
       </c>
       <c r="E111" t="s">
-        <v>1572</v>
+        <v>1612</v>
       </c>
       <c r="F111" t="s">
         <v>93</v>
@@ -15339,75 +15855,87 @@
         <v>94</v>
       </c>
       <c r="H111" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I111" t="s">
-        <v>1574</v>
+        <v>1614</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1616</v>
       </c>
       <c r="L111" t="s">
-        <v>1575</v>
+        <v>1617</v>
       </c>
       <c r="Q111" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R111" t="s">
         <v>101</v>
       </c>
-      <c r="T111">
-        <f>V111-T111</f>
+      <c r="S111" t="s">
+        <v>1618</v>
+      </c>
+      <c r="T111" t="s">
+        <v>1619</v>
       </c>
       <c r="U111" t="s">
-        <v>1575</v>
+        <v>1617</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>738</v>
       </c>
       <c r="AC111" t="s">
         <v>106</v>
       </c>
       <c r="AD111" t="s">
-        <v>1576</v>
+        <v>1620</v>
       </c>
       <c r="AE111" t="s">
         <v>127</v>
       </c>
       <c r="AO111" t="s">
-        <v>1577</v>
+        <v>1621</v>
       </c>
       <c r="AQ111" t="s">
-        <v>1578</v>
+        <v>1622</v>
       </c>
       <c r="AU111" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="AW111" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="BI111" t="s">
-        <v>1580</v>
+        <v>1624</v>
       </c>
       <c r="BJ111" t="s">
-        <v>1581</v>
+        <v>1625</v>
       </c>
       <c r="BK111" t="s">
-        <v>1582</v>
+        <v>1626</v>
       </c>
       <c r="BO111" t="s">
-        <v>1583</v>
+        <v>1627</v>
       </c>
       <c r="BP111" t="s">
-        <v>1584</v>
+        <v>1628</v>
       </c>
       <c r="BQ111" t="s">
-        <v>1585</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="112" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1586</v>
+        <v>1630</v>
       </c>
       <c r="D112" t="s">
         <v>91</v>
       </c>
       <c r="E112" t="s">
-        <v>1587</v>
+        <v>1631</v>
       </c>
       <c r="F112" t="s">
         <v>93</v>
@@ -15416,66 +15944,78 @@
         <v>94</v>
       </c>
       <c r="H112" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I112" t="s">
-        <v>1588</v>
+        <v>1632</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1602</v>
       </c>
       <c r="L112" t="s">
-        <v>1589</v>
+        <v>1633</v>
       </c>
       <c r="Q112" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R112" t="s">
         <v>101</v>
       </c>
-      <c r="T112">
-        <f>V112-T112</f>
+      <c r="S112" t="s">
+        <v>1634</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1635</v>
       </c>
       <c r="U112" t="s">
-        <v>1589</v>
+        <v>1633</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>687</v>
       </c>
       <c r="AO112" t="s">
-        <v>1590</v>
+        <v>1636</v>
       </c>
       <c r="AQ112" t="s">
-        <v>1591</v>
+        <v>1637</v>
       </c>
       <c r="AU112" t="s">
-        <v>1592</v>
+        <v>1638</v>
       </c>
       <c r="AW112" t="s">
-        <v>1592</v>
+        <v>1638</v>
       </c>
       <c r="BI112" t="s">
-        <v>1593</v>
+        <v>1639</v>
       </c>
       <c r="BJ112" t="s">
-        <v>1594</v>
+        <v>1640</v>
       </c>
       <c r="BK112" t="s">
-        <v>1595</v>
+        <v>1641</v>
       </c>
       <c r="BO112" t="s">
-        <v>1596</v>
+        <v>1642</v>
       </c>
       <c r="BP112" t="s">
-        <v>1597</v>
+        <v>1643</v>
       </c>
       <c r="BQ112" t="s">
-        <v>1598</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="113" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1599</v>
+        <v>1645</v>
       </c>
       <c r="D113" t="s">
         <v>91</v>
       </c>
       <c r="E113" t="s">
-        <v>1600</v>
+        <v>1646</v>
       </c>
       <c r="F113" t="s">
         <v>93</v>
@@ -15484,57 +16024,72 @@
         <v>94</v>
       </c>
       <c r="H113" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I113" t="s">
-        <v>1601</v>
+        <v>1647</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1649</v>
       </c>
       <c r="L113" t="s">
-        <v>1602</v>
+        <v>1650</v>
       </c>
       <c r="Q113" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R113" t="s">
         <v>101</v>
       </c>
-      <c r="T113">
-        <f>V113-T113</f>
+      <c r="S113" t="s">
+        <v>1651</v>
+      </c>
+      <c r="T113" t="s">
+        <v>324</v>
       </c>
       <c r="U113" t="s">
-        <v>1602</v>
+        <v>1650</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>1652</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>123</v>
       </c>
       <c r="AC113" t="s">
-        <v>1603</v>
+        <v>1653</v>
       </c>
       <c r="AD113" t="s">
         <v>1175</v>
       </c>
       <c r="AE113" t="s">
-        <v>1604</v>
+        <v>1654</v>
       </c>
       <c r="AO113" t="s">
-        <v>1605</v>
+        <v>1655</v>
       </c>
       <c r="AQ113" t="s">
-        <v>1606</v>
+        <v>1656</v>
       </c>
       <c r="AU113" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
       <c r="AW113" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="114" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1607</v>
+        <v>1657</v>
       </c>
       <c r="D114" t="s">
         <v>91</v>
       </c>
       <c r="E114" t="s">
-        <v>1608</v>
+        <v>1658</v>
       </c>
       <c r="F114" t="s">
         <v>93</v>
@@ -15543,57 +16098,72 @@
         <v>94</v>
       </c>
       <c r="H114" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I114" t="s">
-        <v>1609</v>
+        <v>1659</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1660</v>
       </c>
       <c r="L114" t="s">
-        <v>1610</v>
+        <v>1661</v>
       </c>
       <c r="Q114" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R114" t="s">
         <v>101</v>
       </c>
-      <c r="T114">
-        <f>V114-T114</f>
+      <c r="S114" t="s">
+        <v>1662</v>
+      </c>
+      <c r="T114" t="s">
+        <v>1663</v>
       </c>
       <c r="U114" t="s">
-        <v>1610</v>
+        <v>1661</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>815</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>161</v>
       </c>
       <c r="AC114" t="s">
         <v>264</v>
       </c>
       <c r="AD114" t="s">
-        <v>1490</v>
+        <v>1521</v>
       </c>
       <c r="AE114" t="s">
-        <v>1611</v>
+        <v>1664</v>
       </c>
       <c r="AO114" t="s">
-        <v>1612</v>
+        <v>1665</v>
       </c>
       <c r="AQ114" t="s">
-        <v>1613</v>
+        <v>1666</v>
       </c>
       <c r="AU114" t="s">
-        <v>1614</v>
+        <v>1667</v>
       </c>
       <c r="AW114" t="s">
-        <v>1614</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="115" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1615</v>
+        <v>1668</v>
       </c>
       <c r="D115" t="s">
         <v>91</v>
       </c>
       <c r="E115" t="s">
-        <v>1616</v>
+        <v>1669</v>
       </c>
       <c r="F115" t="s">
         <v>93</v>
@@ -15602,75 +16172,90 @@
         <v>94</v>
       </c>
       <c r="H115" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I115" t="s">
-        <v>1617</v>
+        <v>1670</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1671</v>
       </c>
       <c r="L115" t="s">
-        <v>1618</v>
+        <v>1672</v>
       </c>
       <c r="Q115" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R115" t="s">
         <v>101</v>
       </c>
-      <c r="T115">
-        <f>V115-T115</f>
+      <c r="S115" t="s">
+        <v>1673</v>
+      </c>
+      <c r="T115" t="s">
+        <v>1674</v>
       </c>
       <c r="U115" t="s">
-        <v>1618</v>
+        <v>1672</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>1676</v>
       </c>
       <c r="AC115" t="s">
-        <v>1619</v>
+        <v>1677</v>
       </c>
       <c r="AD115" t="s">
-        <v>1620</v>
+        <v>1678</v>
       </c>
       <c r="AE115" t="s">
-        <v>1621</v>
+        <v>1679</v>
       </c>
       <c r="AO115" t="s">
-        <v>1622</v>
+        <v>1680</v>
       </c>
       <c r="AQ115" t="s">
-        <v>1623</v>
+        <v>1681</v>
       </c>
       <c r="AU115" t="s">
-        <v>1624</v>
+        <v>1682</v>
       </c>
       <c r="AW115" t="s">
-        <v>1624</v>
+        <v>1682</v>
       </c>
       <c r="BI115" t="s">
-        <v>1625</v>
+        <v>1683</v>
       </c>
       <c r="BJ115" t="s">
-        <v>1626</v>
+        <v>1684</v>
       </c>
       <c r="BK115" t="s">
-        <v>1627</v>
+        <v>1685</v>
       </c>
       <c r="BO115" t="s">
-        <v>1628</v>
+        <v>1686</v>
       </c>
       <c r="BP115" t="s">
-        <v>1629</v>
+        <v>1687</v>
       </c>
       <c r="BQ115" t="s">
-        <v>1630</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="116" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1631</v>
+        <v>1689</v>
       </c>
       <c r="D116" t="s">
         <v>91</v>
       </c>
       <c r="E116" t="s">
-        <v>1632</v>
+        <v>1690</v>
       </c>
       <c r="F116" t="s">
         <v>93</v>
@@ -15679,25 +16264,40 @@
         <v>94</v>
       </c>
       <c r="H116" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I116" t="s">
-        <v>1633</v>
+        <v>1691</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1671</v>
       </c>
       <c r="L116" t="s">
-        <v>1634</v>
+        <v>1692</v>
       </c>
       <c r="Q116" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R116" t="s">
         <v>101</v>
       </c>
-      <c r="T116">
-        <f>V116-T116</f>
+      <c r="S116" t="s">
+        <v>1693</v>
+      </c>
+      <c r="T116" t="s">
+        <v>1694</v>
       </c>
       <c r="U116" t="s">
-        <v>1634</v>
+        <v>1692</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>1676</v>
       </c>
       <c r="AC116" t="s">
         <v>849</v>
@@ -15709,45 +16309,45 @@
         <v>1074</v>
       </c>
       <c r="AO116" t="s">
-        <v>1635</v>
+        <v>1696</v>
       </c>
       <c r="AQ116" t="s">
-        <v>1636</v>
+        <v>1697</v>
       </c>
       <c r="AU116" t="s">
-        <v>1637</v>
+        <v>1698</v>
       </c>
       <c r="AW116" t="s">
-        <v>1637</v>
+        <v>1698</v>
       </c>
       <c r="BI116" t="s">
-        <v>1638</v>
+        <v>1699</v>
       </c>
       <c r="BJ116" t="s">
-        <v>1639</v>
+        <v>1700</v>
       </c>
       <c r="BK116" t="s">
-        <v>1640</v>
+        <v>1701</v>
       </c>
       <c r="BO116" t="s">
-        <v>1641</v>
+        <v>1702</v>
       </c>
       <c r="BP116" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="BQ116" t="s">
-        <v>1642</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="117" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1643</v>
+        <v>1704</v>
       </c>
       <c r="D117" t="s">
         <v>91</v>
       </c>
       <c r="E117" t="s">
-        <v>1644</v>
+        <v>1705</v>
       </c>
       <c r="F117" t="s">
         <v>93</v>
@@ -15756,25 +16356,40 @@
         <v>94</v>
       </c>
       <c r="H117" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I117" t="s">
-        <v>1645</v>
+        <v>1706</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1708</v>
       </c>
       <c r="L117" t="s">
-        <v>1646</v>
+        <v>1709</v>
       </c>
       <c r="Q117" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R117" t="s">
         <v>101</v>
       </c>
-      <c r="T117">
-        <f>V117-T117</f>
+      <c r="S117" t="s">
+        <v>1710</v>
+      </c>
+      <c r="T117" t="s">
+        <v>1059</v>
       </c>
       <c r="U117" t="s">
-        <v>1646</v>
+        <v>1709</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>1711</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>1712</v>
       </c>
       <c r="AC117" t="s">
         <v>553</v>
@@ -15786,21 +16401,21 @@
         <v>554</v>
       </c>
       <c r="AO117" t="s">
-        <v>1647</v>
+        <v>1713</v>
       </c>
       <c r="AQ117" t="s">
-        <v>1648</v>
+        <v>1714</v>
       </c>
       <c r="AU117" t="s">
-        <v>1649</v>
+        <v>1715</v>
       </c>
       <c r="AW117" t="s">
-        <v>1649</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="118" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1650</v>
+        <v>1716</v>
       </c>
       <c r="D118" t="s">
         <v>91</v>
@@ -15812,28 +16427,43 @@
         <v>94</v>
       </c>
       <c r="H118" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I118" t="s">
-        <v>1651</v>
+        <v>1717</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1671</v>
       </c>
       <c r="L118" t="s">
-        <v>1652</v>
+        <v>1718</v>
       </c>
       <c r="Q118" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R118" t="s">
         <v>101</v>
       </c>
-      <c r="T118">
-        <f>V118-T118</f>
+      <c r="S118" t="s">
+        <v>1719</v>
+      </c>
+      <c r="T118" t="s">
+        <v>1720</v>
       </c>
       <c r="U118" t="s">
-        <v>1652</v>
+        <v>1718</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>1721</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>1058</v>
       </c>
       <c r="AC118" t="s">
-        <v>1653</v>
+        <v>1722</v>
       </c>
       <c r="AD118" t="s">
         <v>146</v>
@@ -15842,27 +16472,27 @@
         <v>107</v>
       </c>
       <c r="AO118" t="s">
-        <v>1654</v>
+        <v>1723</v>
       </c>
       <c r="AQ118" t="s">
-        <v>1655</v>
+        <v>1724</v>
       </c>
       <c r="AU118" t="s">
-        <v>1656</v>
+        <v>1725</v>
       </c>
       <c r="AW118" t="s">
-        <v>1656</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="119" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1657</v>
+        <v>1726</v>
       </c>
       <c r="D119" t="s">
         <v>91</v>
       </c>
       <c r="E119" t="s">
-        <v>1658</v>
+        <v>1727</v>
       </c>
       <c r="F119" t="s">
         <v>93</v>
@@ -15871,75 +16501,87 @@
         <v>94</v>
       </c>
       <c r="H119" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I119" t="s">
-        <v>1659</v>
+        <v>1728</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1660</v>
       </c>
       <c r="L119" t="s">
-        <v>1660</v>
+        <v>1730</v>
       </c>
       <c r="Q119" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R119" t="s">
         <v>101</v>
       </c>
-      <c r="T119">
-        <f>V119-T119</f>
+      <c r="S119" t="s">
+        <v>1731</v>
+      </c>
+      <c r="T119" t="s">
+        <v>1732</v>
       </c>
       <c r="U119" t="s">
-        <v>1660</v>
+        <v>1730</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>1733</v>
       </c>
       <c r="AC119" t="s">
-        <v>1661</v>
+        <v>1734</v>
       </c>
       <c r="AD119" t="s">
         <v>1053</v>
       </c>
       <c r="AE119" t="s">
-        <v>1662</v>
+        <v>1735</v>
       </c>
       <c r="AO119" t="s">
-        <v>1663</v>
+        <v>1736</v>
       </c>
       <c r="AQ119" t="s">
-        <v>1664</v>
+        <v>1737</v>
       </c>
       <c r="AU119" t="s">
-        <v>1665</v>
+        <v>1738</v>
       </c>
       <c r="AW119" t="s">
-        <v>1665</v>
+        <v>1738</v>
       </c>
       <c r="BI119" t="s">
-        <v>1666</v>
+        <v>1739</v>
       </c>
       <c r="BJ119" t="s">
-        <v>1667</v>
+        <v>1740</v>
       </c>
       <c r="BK119" t="s">
-        <v>1668</v>
+        <v>1741</v>
       </c>
       <c r="BO119" t="s">
-        <v>1669</v>
+        <v>1742</v>
       </c>
       <c r="BP119" t="s">
-        <v>1670</v>
+        <v>1743</v>
       </c>
       <c r="BQ119" t="s">
-        <v>1671</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="120" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1672</v>
+        <v>1745</v>
       </c>
       <c r="D120" t="s">
         <v>91</v>
       </c>
       <c r="E120" t="s">
-        <v>1673</v>
+        <v>1746</v>
       </c>
       <c r="F120" t="s">
         <v>93</v>
@@ -15948,26 +16590,41 @@
         <v>94</v>
       </c>
       <c r="H120" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I120" t="s">
-        <v>1674</v>
+        <v>1747</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1649</v>
       </c>
       <c r="L120" t="s">
         <v>918</v>
       </c>
       <c r="Q120" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R120" t="s">
         <v>101</v>
       </c>
-      <c r="T120">
-        <f>V120-T120</f>
+      <c r="S120" t="s">
+        <v>1748</v>
+      </c>
+      <c r="T120" t="s">
+        <v>105</v>
       </c>
       <c r="U120" t="s">
         <v>918</v>
       </c>
+      <c r="Y120" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>123</v>
+      </c>
       <c r="AC120" t="s">
         <v>314</v>
       </c>
@@ -15978,27 +16635,27 @@
         <v>604</v>
       </c>
       <c r="AO120" t="s">
-        <v>1675</v>
+        <v>1750</v>
       </c>
       <c r="AQ120" t="s">
-        <v>1676</v>
+        <v>1751</v>
       </c>
       <c r="AU120" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="AW120" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="121" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1677</v>
+        <v>1752</v>
       </c>
       <c r="D121" t="s">
         <v>91</v>
       </c>
       <c r="E121" t="s">
-        <v>1678</v>
+        <v>1753</v>
       </c>
       <c r="F121" t="s">
         <v>93</v>
@@ -16007,57 +16664,72 @@
         <v>94</v>
       </c>
       <c r="H121" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I121" t="s">
-        <v>1679</v>
+        <v>1754</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1755</v>
       </c>
       <c r="L121" t="s">
-        <v>1680</v>
+        <v>1756</v>
       </c>
       <c r="Q121" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R121" t="s">
         <v>101</v>
       </c>
-      <c r="T121">
-        <f>V121-T121</f>
+      <c r="S121" t="s">
+        <v>1757</v>
+      </c>
+      <c r="T121" t="s">
+        <v>1758</v>
       </c>
       <c r="U121" t="s">
-        <v>1680</v>
+        <v>1756</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>1759</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>1058</v>
       </c>
       <c r="AC121" t="s">
         <v>690</v>
       </c>
       <c r="AD121" t="s">
-        <v>1490</v>
+        <v>1521</v>
       </c>
       <c r="AE121" t="s">
-        <v>1662</v>
+        <v>1735</v>
       </c>
       <c r="AO121" t="s">
-        <v>1681</v>
+        <v>1760</v>
       </c>
       <c r="AQ121" t="s">
-        <v>1682</v>
+        <v>1761</v>
       </c>
       <c r="AU121" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
       <c r="AW121" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="122" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1683</v>
+        <v>1762</v>
       </c>
       <c r="D122" t="s">
         <v>91</v>
       </c>
       <c r="E122" t="s">
-        <v>1684</v>
+        <v>1763</v>
       </c>
       <c r="F122" t="s">
         <v>93</v>
@@ -16066,34 +16738,43 @@
         <v>94</v>
       </c>
       <c r="H122" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I122" t="s">
-        <v>1685</v>
+        <v>1764</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1766</v>
       </c>
       <c r="L122" t="s">
-        <v>1686</v>
+        <v>1767</v>
       </c>
       <c r="Q122" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R122" t="s">
         <v>101</v>
       </c>
-      <c r="T122">
-        <f>V122-T122</f>
+      <c r="S122" t="s">
+        <v>1768</v>
+      </c>
+      <c r="T122" t="s">
+        <v>1769</v>
       </c>
       <c r="U122" t="s">
-        <v>1686</v>
+        <v>1767</v>
       </c>
       <c r="AC122" t="s">
-        <v>1687</v>
+        <v>1770</v>
       </c>
       <c r="AD122" t="s">
-        <v>1688</v>
+        <v>1771</v>
       </c>
       <c r="AE122" t="s">
-        <v>1689</v>
+        <v>1772</v>
       </c>
       <c r="AO122" t="s">
         <v>162</v>
@@ -16102,39 +16783,39 @@
         <v>162</v>
       </c>
       <c r="AU122" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="AW122" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="BI122" t="s">
-        <v>1690</v>
+        <v>1773</v>
       </c>
       <c r="BJ122" t="s">
-        <v>1691</v>
+        <v>1774</v>
       </c>
       <c r="BK122" t="s">
-        <v>1692</v>
+        <v>1775</v>
       </c>
       <c r="BO122" t="s">
-        <v>1693</v>
+        <v>1776</v>
       </c>
       <c r="BP122" t="s">
-        <v>1694</v>
+        <v>1777</v>
       </c>
       <c r="BQ122" t="s">
-        <v>1695</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="123" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1696</v>
+        <v>1779</v>
       </c>
       <c r="D123" t="s">
         <v>91</v>
       </c>
       <c r="E123" t="s">
-        <v>1684</v>
+        <v>1763</v>
       </c>
       <c r="F123" t="s">
         <v>93</v>
@@ -16143,25 +16824,34 @@
         <v>94</v>
       </c>
       <c r="H123" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I123" t="s">
-        <v>1697</v>
+        <v>1780</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1671</v>
       </c>
       <c r="L123" t="s">
-        <v>1698</v>
+        <v>1781</v>
       </c>
       <c r="Q123" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R123" t="s">
         <v>101</v>
       </c>
-      <c r="T123">
-        <f>V123-T123</f>
+      <c r="T123" t="s">
+        <v>1782</v>
       </c>
       <c r="U123" t="s">
-        <v>1698</v>
+        <v>1781</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>1058</v>
       </c>
       <c r="AC123" t="s">
         <v>657</v>
@@ -16170,48 +16860,48 @@
         <v>690</v>
       </c>
       <c r="AE123" t="s">
-        <v>1699</v>
+        <v>1783</v>
       </c>
       <c r="AO123" t="s">
-        <v>1700</v>
+        <v>1784</v>
       </c>
       <c r="AQ123" t="s">
-        <v>1701</v>
+        <v>1785</v>
       </c>
       <c r="AU123" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="AW123" t="s">
-        <v>1579</v>
+        <v>1623</v>
       </c>
       <c r="BI123" t="s">
-        <v>1702</v>
+        <v>1786</v>
       </c>
       <c r="BJ123" t="s">
-        <v>1703</v>
+        <v>1787</v>
       </c>
       <c r="BK123" t="s">
-        <v>1704</v>
+        <v>1788</v>
       </c>
       <c r="BO123" t="s">
-        <v>1705</v>
+        <v>1789</v>
       </c>
       <c r="BP123" t="s">
-        <v>1706</v>
+        <v>1790</v>
       </c>
       <c r="BQ123" t="s">
-        <v>1707</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="124" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1708</v>
+        <v>1792</v>
       </c>
       <c r="D124" t="s">
         <v>91</v>
       </c>
       <c r="E124" t="s">
-        <v>1709</v>
+        <v>1793</v>
       </c>
       <c r="F124" t="s">
         <v>93</v>
@@ -16220,75 +16910,84 @@
         <v>94</v>
       </c>
       <c r="H124" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I124" t="s">
-        <v>1710</v>
+        <v>1794</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1649</v>
       </c>
       <c r="L124" t="s">
-        <v>1711</v>
+        <v>1796</v>
       </c>
       <c r="Q124" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R124" t="s">
         <v>101</v>
       </c>
-      <c r="T124">
-        <f>V124-T124</f>
+      <c r="S124" t="s">
+        <v>1797</v>
       </c>
       <c r="U124" t="s">
-        <v>1711</v>
+        <v>1796</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>1798</v>
       </c>
       <c r="AC124" t="s">
         <v>623</v>
       </c>
       <c r="AD124" t="s">
-        <v>1712</v>
+        <v>1799</v>
       </c>
       <c r="AE124" t="s">
-        <v>1713</v>
+        <v>1800</v>
       </c>
       <c r="AO124" t="s">
-        <v>1714</v>
+        <v>1801</v>
       </c>
       <c r="AQ124" t="s">
-        <v>1715</v>
+        <v>1802</v>
       </c>
       <c r="AU124" t="s">
-        <v>1716</v>
+        <v>1803</v>
       </c>
       <c r="AW124" t="s">
-        <v>1716</v>
+        <v>1803</v>
       </c>
       <c r="BI124" t="s">
-        <v>1717</v>
+        <v>1804</v>
       </c>
       <c r="BJ124" t="s">
-        <v>1718</v>
+        <v>1805</v>
       </c>
       <c r="BK124" t="s">
-        <v>1719</v>
+        <v>1806</v>
       </c>
       <c r="BO124" t="s">
-        <v>1720</v>
+        <v>1807</v>
       </c>
       <c r="BP124" t="s">
-        <v>1721</v>
+        <v>1808</v>
       </c>
       <c r="BQ124" t="s">
-        <v>1722</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="125" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1723</v>
+        <v>1810</v>
       </c>
       <c r="D125" t="s">
         <v>91</v>
       </c>
       <c r="E125" t="s">
-        <v>1724</v>
+        <v>1811</v>
       </c>
       <c r="F125" t="s">
         <v>93</v>
@@ -16297,25 +16996,37 @@
         <v>94</v>
       </c>
       <c r="H125" t="s">
-        <v>1725</v>
+        <v>1812</v>
       </c>
       <c r="I125" t="s">
-        <v>1726</v>
+        <v>1813</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1649</v>
       </c>
       <c r="L125" t="s">
-        <v>1727</v>
+        <v>1814</v>
       </c>
       <c r="Q125" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R125" t="s">
         <v>101</v>
       </c>
-      <c r="T125">
-        <f>V125-T125</f>
+      <c r="S125" t="s">
+        <v>1815</v>
+      </c>
+      <c r="T125" t="s">
+        <v>1816</v>
       </c>
       <c r="U125" t="s">
-        <v>1727</v>
+        <v>1814</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>1817</v>
       </c>
       <c r="AC125" t="s">
         <v>162</v>
@@ -16327,25 +17038,25 @@
         <v>162</v>
       </c>
       <c r="AO125" t="s">
-        <v>1728</v>
+        <v>1818</v>
       </c>
       <c r="AQ125" t="s">
-        <v>1729</v>
+        <v>1819</v>
       </c>
       <c r="AU125" t="s">
-        <v>1730</v>
+        <v>1820</v>
       </c>
       <c r="AW125" t="s">
-        <v>1730</v>
+        <v>1820</v>
       </c>
       <c r="BI125" t="s">
-        <v>1731</v>
+        <v>1821</v>
       </c>
       <c r="BJ125" t="s">
-        <v>1732</v>
+        <v>1822</v>
       </c>
       <c r="BK125" t="s">
-        <v>1733</v>
+        <v>1823</v>
       </c>
       <c r="BO125" t="s">
         <v>193</v>
@@ -16359,13 +17070,13 @@
     </row>
     <row r="126" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1734</v>
+        <v>1824</v>
       </c>
       <c r="D126" t="s">
         <v>91</v>
       </c>
       <c r="E126" t="s">
-        <v>1735</v>
+        <v>1825</v>
       </c>
       <c r="F126" t="s">
         <v>93</v>
@@ -16374,57 +17085,69 @@
         <v>94</v>
       </c>
       <c r="H126" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I126" t="s">
-        <v>1736</v>
+        <v>1826</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1660</v>
       </c>
       <c r="L126" t="s">
-        <v>1737</v>
+        <v>1827</v>
       </c>
       <c r="Q126" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R126" t="s">
         <v>101</v>
       </c>
-      <c r="T126">
-        <f>V126-T126</f>
+      <c r="S126" t="s">
+        <v>1828</v>
+      </c>
+      <c r="T126" t="s">
+        <v>1829</v>
       </c>
       <c r="U126" t="s">
-        <v>1737</v>
+        <v>1827</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>1830</v>
       </c>
       <c r="AC126" t="s">
         <v>127</v>
       </c>
       <c r="AD126" t="s">
-        <v>1470</v>
+        <v>1501</v>
       </c>
       <c r="AE126" t="s">
-        <v>1738</v>
+        <v>1831</v>
       </c>
       <c r="AO126" t="s">
-        <v>1739</v>
+        <v>1832</v>
       </c>
       <c r="AQ126" t="s">
-        <v>1740</v>
+        <v>1833</v>
       </c>
       <c r="AU126" t="s">
-        <v>1649</v>
+        <v>1715</v>
       </c>
       <c r="AW126" t="s">
-        <v>1649</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="127" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1741</v>
+        <v>1834</v>
       </c>
       <c r="D127" t="s">
         <v>91</v>
       </c>
       <c r="E127" t="s">
-        <v>1742</v>
+        <v>1835</v>
       </c>
       <c r="F127" t="s">
         <v>93</v>
@@ -16433,25 +17156,37 @@
         <v>94</v>
       </c>
       <c r="H127" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I127" t="s">
-        <v>1743</v>
+        <v>1836</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1837</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1660</v>
       </c>
       <c r="L127" t="s">
-        <v>1744</v>
+        <v>1838</v>
       </c>
       <c r="Q127" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R127" t="s">
         <v>101</v>
       </c>
-      <c r="T127">
-        <f>V127-T127</f>
+      <c r="S127" t="s">
+        <v>1839</v>
       </c>
       <c r="U127" t="s">
-        <v>1744</v>
+        <v>1838</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>1840</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>1798</v>
       </c>
       <c r="AC127" t="s">
         <v>106</v>
@@ -16460,48 +17195,48 @@
         <v>344</v>
       </c>
       <c r="AE127" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="AO127" t="s">
-        <v>1745</v>
+        <v>1841</v>
       </c>
       <c r="AQ127" t="s">
-        <v>1746</v>
+        <v>1842</v>
       </c>
       <c r="AU127" t="s">
-        <v>1747</v>
+        <v>1843</v>
       </c>
       <c r="AW127" t="s">
-        <v>1747</v>
+        <v>1843</v>
       </c>
       <c r="BI127" t="s">
-        <v>1748</v>
+        <v>1844</v>
       </c>
       <c r="BJ127" t="s">
-        <v>1749</v>
+        <v>1845</v>
       </c>
       <c r="BK127" t="s">
-        <v>1750</v>
+        <v>1846</v>
       </c>
       <c r="BO127" t="s">
-        <v>1751</v>
+        <v>1847</v>
       </c>
       <c r="BP127" t="s">
-        <v>1752</v>
+        <v>1848</v>
       </c>
       <c r="BQ127" t="s">
-        <v>1753</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="128" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1754</v>
+        <v>1850</v>
       </c>
       <c r="D128" t="s">
         <v>91</v>
       </c>
       <c r="E128" t="s">
-        <v>1755</v>
+        <v>1851</v>
       </c>
       <c r="F128" t="s">
         <v>93</v>
@@ -16510,25 +17245,37 @@
         <v>94</v>
       </c>
       <c r="H128" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I128" t="s">
-        <v>1756</v>
+        <v>1852</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1660</v>
       </c>
       <c r="L128" t="s">
-        <v>1757</v>
+        <v>1854</v>
       </c>
       <c r="Q128" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R128" t="s">
         <v>101</v>
       </c>
-      <c r="T128">
-        <f>V128-T128</f>
+      <c r="S128" t="s">
+        <v>1855</v>
+      </c>
+      <c r="T128" t="s">
+        <v>609</v>
       </c>
       <c r="U128" t="s">
-        <v>1757</v>
+        <v>1854</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>407</v>
       </c>
       <c r="AC128" t="s">
         <v>1101</v>
@@ -16540,45 +17287,45 @@
         <v>622</v>
       </c>
       <c r="AO128" t="s">
-        <v>1758</v>
+        <v>1856</v>
       </c>
       <c r="AQ128" t="s">
-        <v>1759</v>
+        <v>1857</v>
       </c>
       <c r="AU128" t="s">
-        <v>1760</v>
+        <v>1858</v>
       </c>
       <c r="AW128" t="s">
-        <v>1760</v>
+        <v>1858</v>
       </c>
       <c r="BI128" t="s">
-        <v>1761</v>
+        <v>1859</v>
       </c>
       <c r="BJ128" t="s">
-        <v>1762</v>
+        <v>1860</v>
       </c>
       <c r="BK128" t="s">
-        <v>1763</v>
+        <v>1861</v>
       </c>
       <c r="BO128" t="s">
-        <v>1764</v>
+        <v>1862</v>
       </c>
       <c r="BP128" t="s">
-        <v>1765</v>
+        <v>1863</v>
       </c>
       <c r="BQ128" t="s">
-        <v>1766</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="129" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1767</v>
+        <v>1865</v>
       </c>
       <c r="D129" t="s">
         <v>91</v>
       </c>
       <c r="E129" t="s">
-        <v>1768</v>
+        <v>1866</v>
       </c>
       <c r="F129" t="s">
         <v>93</v>
@@ -16587,25 +17334,40 @@
         <v>94</v>
       </c>
       <c r="H129" t="s">
-        <v>1563</v>
+        <v>1599</v>
       </c>
       <c r="I129" t="s">
-        <v>1769</v>
+        <v>1867</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1868</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1755</v>
       </c>
       <c r="L129" t="s">
-        <v>1770</v>
+        <v>1869</v>
       </c>
       <c r="Q129" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R129" t="s">
         <v>101</v>
       </c>
-      <c r="T129">
-        <f>V129-T129</f>
+      <c r="S129" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T129" t="s">
+        <v>1871</v>
       </c>
       <c r="U129" t="s">
-        <v>1770</v>
+        <v>1869</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>887</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>687</v>
       </c>
       <c r="AC129" t="s">
         <v>967</v>
@@ -16614,30 +17376,30 @@
         <v>490</v>
       </c>
       <c r="AE129" t="s">
-        <v>1771</v>
+        <v>1872</v>
       </c>
       <c r="AO129" t="s">
-        <v>1772</v>
+        <v>1873</v>
       </c>
       <c r="AQ129" t="s">
-        <v>1773</v>
+        <v>1874</v>
       </c>
       <c r="AU129" t="s">
-        <v>1656</v>
+        <v>1725</v>
       </c>
       <c r="AW129" t="s">
-        <v>1656</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="130" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1774</v>
+        <v>1875</v>
       </c>
       <c r="D130" t="s">
         <v>91</v>
       </c>
       <c r="E130" t="s">
-        <v>1775</v>
+        <v>1876</v>
       </c>
       <c r="F130" t="s">
         <v>93</v>
@@ -16646,104 +17408,122 @@
         <v>94</v>
       </c>
       <c r="H130" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I130" t="s">
-        <v>1776</v>
+        <v>1877</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1671</v>
       </c>
       <c r="L130" t="s">
-        <v>1777</v>
+        <v>1878</v>
       </c>
       <c r="Q130" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R130" t="s">
         <v>101</v>
       </c>
-      <c r="T130">
-        <f>V130-T130</f>
+      <c r="S130" t="s">
+        <v>1879</v>
+      </c>
+      <c r="T130" t="s">
+        <v>1880</v>
       </c>
       <c r="U130" t="s">
-        <v>1777</v>
+        <v>1878</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>1652</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>1676</v>
       </c>
       <c r="AC130" t="s">
         <v>1175</v>
       </c>
       <c r="AD130" t="s">
-        <v>1325</v>
+        <v>1345</v>
       </c>
       <c r="AE130" t="s">
         <v>673</v>
       </c>
       <c r="AO130" t="s">
-        <v>1778</v>
+        <v>1881</v>
       </c>
       <c r="AQ130" t="s">
-        <v>1779</v>
+        <v>1882</v>
       </c>
       <c r="AU130" t="s">
-        <v>1730</v>
+        <v>1820</v>
       </c>
       <c r="AW130" t="s">
-        <v>1730</v>
+        <v>1820</v>
       </c>
       <c r="BI130" t="s">
-        <v>1780</v>
+        <v>1883</v>
       </c>
       <c r="BJ130" t="s">
-        <v>1781</v>
+        <v>1884</v>
       </c>
       <c r="BK130" t="s">
-        <v>1782</v>
+        <v>1885</v>
       </c>
       <c r="BO130" t="s">
-        <v>1783</v>
+        <v>1886</v>
       </c>
       <c r="BP130" t="s">
-        <v>1784</v>
+        <v>1887</v>
       </c>
       <c r="BQ130" t="s">
-        <v>1785</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="131" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1786</v>
+        <v>1889</v>
       </c>
       <c r="D131" t="s">
         <v>91</v>
       </c>
       <c r="E131" t="s">
-        <v>1787</v>
+        <v>1890</v>
       </c>
       <c r="G131" t="s">
         <v>94</v>
       </c>
       <c r="L131" t="s">
-        <v>1788</v>
+        <v>1891</v>
       </c>
       <c r="Q131" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R131" t="s">
         <v>101</v>
       </c>
-      <c r="T131">
-        <f>V131-T131</f>
+      <c r="S131" t="s">
+        <v>1892</v>
+      </c>
+      <c r="T131" t="s">
+        <v>1893</v>
       </c>
       <c r="U131" t="s">
-        <v>1788</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="132" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1789</v>
+        <v>1894</v>
       </c>
       <c r="D132" t="s">
         <v>91</v>
       </c>
       <c r="E132" t="s">
-        <v>1790</v>
+        <v>1895</v>
       </c>
       <c r="F132" t="s">
         <v>93</v>
@@ -16752,69 +17532,81 @@
         <v>94</v>
       </c>
       <c r="H132" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I132" t="s">
-        <v>1791</v>
+        <v>1896</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1755</v>
       </c>
       <c r="L132" t="s">
-        <v>1792</v>
+        <v>1897</v>
       </c>
       <c r="Q132" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R132" t="s">
         <v>101</v>
       </c>
-      <c r="T132">
-        <f>V132-T132</f>
+      <c r="S132" t="s">
+        <v>1898</v>
       </c>
       <c r="U132" t="s">
-        <v>1792</v>
+        <v>1897</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>1899</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>1072</v>
       </c>
       <c r="AC132" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
       <c r="AD132" t="s">
         <v>657</v>
       </c>
       <c r="AE132" t="s">
-        <v>1793</v>
+        <v>1900</v>
       </c>
       <c r="AO132" t="s">
-        <v>1794</v>
+        <v>1901</v>
       </c>
       <c r="AQ132" t="s">
-        <v>1795</v>
+        <v>1902</v>
       </c>
       <c r="AU132" t="s">
-        <v>1796</v>
+        <v>1903</v>
       </c>
       <c r="AW132" t="s">
-        <v>1796</v>
+        <v>1903</v>
       </c>
       <c r="BI132" t="s">
-        <v>1797</v>
+        <v>1904</v>
       </c>
       <c r="BJ132" t="s">
-        <v>1798</v>
+        <v>1905</v>
       </c>
       <c r="BK132" t="s">
-        <v>1799</v>
+        <v>1906</v>
       </c>
       <c r="BO132" t="s">
-        <v>1800</v>
+        <v>1907</v>
       </c>
       <c r="BP132" t="s">
-        <v>1801</v>
+        <v>1908</v>
       </c>
       <c r="BQ132" t="s">
-        <v>1802</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="133" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1803</v>
+        <v>1910</v>
       </c>
       <c r="D133" t="s">
         <v>91</v>
@@ -16826,64 +17618,76 @@
         <v>94</v>
       </c>
       <c r="H133" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="I133" t="s">
-        <v>1804</v>
+        <v>1911</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1671</v>
       </c>
       <c r="L133" t="s">
-        <v>1805</v>
+        <v>1912</v>
       </c>
       <c r="Q133" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="R133" t="s">
         <v>101</v>
       </c>
-      <c r="T133">
-        <f>V133-T133</f>
+      <c r="S133" t="s">
+        <v>1913</v>
+      </c>
+      <c r="T133" t="s">
+        <v>953</v>
       </c>
       <c r="U133" t="s">
-        <v>1805</v>
+        <v>1912</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>1058</v>
       </c>
       <c r="AC133" t="s">
-        <v>1806</v>
+        <v>1914</v>
       </c>
       <c r="AD133" t="s">
         <v>279</v>
       </c>
       <c r="AE133" t="s">
-        <v>1419</v>
+        <v>1450</v>
       </c>
       <c r="AO133" t="s">
-        <v>1807</v>
+        <v>1915</v>
       </c>
       <c r="AQ133" t="s">
-        <v>1808</v>
+        <v>1916</v>
       </c>
       <c r="AU133" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
       <c r="AW133" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
       <c r="BI133" t="s">
-        <v>1809</v>
+        <v>1917</v>
       </c>
       <c r="BJ133" t="s">
-        <v>1810</v>
+        <v>1918</v>
       </c>
       <c r="BK133" t="s">
-        <v>1811</v>
+        <v>1919</v>
       </c>
       <c r="BO133" t="s">
-        <v>1812</v>
+        <v>1920</v>
       </c>
       <c r="BP133" t="s">
-        <v>1813</v>
+        <v>1921</v>
       </c>
       <c r="BQ133" t="s">
-        <v>1814</v>
+        <v>1922</v>
       </c>
     </row>
   </sheetData>
